--- a/xlsx/datasample_ver2.xlsx
+++ b/xlsx/datasample_ver2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA_model\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FC8D76-563C-4EF9-AFD1-ECE8D1F39710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EF50ED-0F78-4FEF-849B-DC86C5676B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21540" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2385" windowWidth="29040" windowHeight="15720" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GDP" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,15 @@
     <sheet name="iCOM" sheetId="6" r:id="rId6"/>
     <sheet name="iRES" sheetId="7" r:id="rId7"/>
     <sheet name="Consumption" sheetId="8" r:id="rId8"/>
-    <sheet name="sIND" sheetId="9" r:id="rId9"/>
+    <sheet name="LOSS" sheetId="15" r:id="rId9"/>
+    <sheet name="sIND" sheetId="9" r:id="rId10"/>
+    <sheet name="sTRA" sheetId="16" r:id="rId11"/>
+    <sheet name="sCOM" sheetId="17" r:id="rId12"/>
+    <sheet name="sRES" sheetId="18" r:id="rId13"/>
+    <sheet name="sELE" sheetId="19" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="36">
   <si>
     <t>Year</t>
   </si>
@@ -155,6 +160,37 @@
   <si>
     <t>ELE</t>
   </si>
+  <si>
+    <t>COLX</t>
+  </si>
+  <si>
+    <t>OILX</t>
+  </si>
+  <si>
+    <t>GASX</t>
+  </si>
+  <si>
+    <t>NUC</t>
+  </si>
+  <si>
+    <t>BMSX</t>
+  </si>
+  <si>
+    <t>HYD</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Commercial and public services</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -240,6 +276,7 @@
     <sheetNames>
       <sheetName val="生徒用"/>
       <sheetName val="部門別エネルギーキャリアシェア"/>
+      <sheetName val="電源構成"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -292,7 +329,228 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="C2">
+            <v>20</v>
+          </cell>
+          <cell r="D2">
+            <v>10</v>
+          </cell>
+          <cell r="E2">
+            <v>50</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>20</v>
+          </cell>
+          <cell r="F3">
+            <v>20</v>
+          </cell>
+          <cell r="G3">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>10</v>
+          </cell>
+          <cell r="D4">
+            <v>80</v>
+          </cell>
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+          <cell r="E5">
+            <v>20</v>
+          </cell>
+          <cell r="F5">
+            <v>20</v>
+          </cell>
+          <cell r="G5">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>20</v>
+          </cell>
+          <cell r="D6">
+            <v>10</v>
+          </cell>
+          <cell r="E6">
+            <v>60</v>
+          </cell>
+          <cell r="F6">
+            <v>10</v>
+          </cell>
+          <cell r="G6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+          <cell r="E7">
+            <v>20</v>
+          </cell>
+          <cell r="F7">
+            <v>20</v>
+          </cell>
+          <cell r="G7">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>20</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+          <cell r="E8">
+            <v>40</v>
+          </cell>
+          <cell r="F8">
+            <v>10</v>
+          </cell>
+          <cell r="G8">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>0</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+          <cell r="E9">
+            <v>20</v>
+          </cell>
+          <cell r="F9">
+            <v>20</v>
+          </cell>
+          <cell r="G9">
+            <v>60</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="B2">
+            <v>20</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>5</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>40</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>10</v>
+          </cell>
+          <cell r="I2">
+            <v>5</v>
+          </cell>
+          <cell r="J2">
+            <v>0</v>
+          </cell>
+          <cell r="K2">
+            <v>10</v>
+          </cell>
+          <cell r="L2">
+            <v>5</v>
+          </cell>
+          <cell r="M2">
+            <v>2.5</v>
+          </cell>
+          <cell r="N2">
+            <v>2.5</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+          <cell r="C3">
+            <v>10</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>5</v>
+          </cell>
+          <cell r="G3">
+            <v>30</v>
+          </cell>
+          <cell r="H3">
+            <v>0</v>
+          </cell>
+          <cell r="I3">
+            <v>0</v>
+          </cell>
+          <cell r="J3">
+            <v>30</v>
+          </cell>
+          <cell r="K3">
+            <v>5</v>
+          </cell>
+          <cell r="L3">
+            <v>5</v>
+          </cell>
+          <cell r="M3">
+            <v>5</v>
+          </cell>
+          <cell r="N3">
+            <v>10</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -580,10 +838,10 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:B47"/>
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1299,6 +1557,7323 @@
       <c r="C47">
         <f>[1]生徒用!$D$2/100</f>
         <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25DCC47-1D77-49BB-9EB4-3B2378183B12}">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:G45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>2010</v>
+      </c>
+      <c r="C2">
+        <v>0.235317279731797</v>
+      </c>
+      <c r="D2">
+        <v>0.25420292835059999</v>
+      </c>
+      <c r="E2">
+        <v>0.11820882763688299</v>
+      </c>
+      <c r="F2">
+        <v>3.6455908784425499E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.355815055496294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2011</v>
+      </c>
+      <c r="C3">
+        <v>0.23378116469742199</v>
+      </c>
+      <c r="D3">
+        <v>0.26563282745087802</v>
+      </c>
+      <c r="E3">
+        <v>0.123996041168318</v>
+      </c>
+      <c r="F3">
+        <v>3.93771825968263E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.33721278408655597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2012</v>
+      </c>
+      <c r="C4">
+        <v>0.23818313959260801</v>
+      </c>
+      <c r="D4">
+        <v>0.25472980218191599</v>
+      </c>
+      <c r="E4">
+        <v>0.12620457484931599</v>
+      </c>
+      <c r="F4">
+        <v>3.8582403020422498E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.342300080355736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2013</v>
+      </c>
+      <c r="C5">
+        <v>0.23899151410470501</v>
+      </c>
+      <c r="D5">
+        <v>0.25628028219993998</v>
+      </c>
+      <c r="E5">
+        <v>0.118880058675235</v>
+      </c>
+      <c r="F5">
+        <v>4.1828595075259697E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.34401954994486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2014</v>
+      </c>
+      <c r="C6">
+        <v>0.239516304821693</v>
+      </c>
+      <c r="D6">
+        <v>0.25280838564826902</v>
+      </c>
+      <c r="E6">
+        <v>0.119951336210655</v>
+      </c>
+      <c r="F6">
+        <v>3.9401593425756401E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.34832237989362602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2015</v>
+      </c>
+      <c r="C7">
+        <v>0.244278082479678</v>
+      </c>
+      <c r="D7">
+        <v>0.24070442635065101</v>
+      </c>
+      <c r="E7">
+        <v>0.123588729268783</v>
+      </c>
+      <c r="F7">
+        <v>4.0869790218956002E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.35055897168193201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2016</v>
+      </c>
+      <c r="C8">
+        <v>0.242373154334521</v>
+      </c>
+      <c r="D8">
+        <v>0.228317868362445</v>
+      </c>
+      <c r="E8">
+        <v>0.130553448532646</v>
+      </c>
+      <c r="F8">
+        <v>4.2486818118318899E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.356268710652069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2017</v>
+      </c>
+      <c r="C9">
+        <v>0.24922368028528</v>
+      </c>
+      <c r="D9">
+        <v>0.217978539482308</v>
+      </c>
+      <c r="E9">
+        <v>0.130354331207477</v>
+      </c>
+      <c r="F9">
+        <v>4.3527751126181902E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.35891569789875399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10">
+        <v>0.242436419524306</v>
+      </c>
+      <c r="D10">
+        <v>0.21774920218296301</v>
+      </c>
+      <c r="E10">
+        <v>0.136550016297178</v>
+      </c>
+      <c r="F10">
+        <v>4.5205622268647397E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.35805873972690599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2019</v>
+      </c>
+      <c r="C11">
+        <v>0.24617259510922099</v>
+      </c>
+      <c r="D11">
+        <v>0.21124427442343</v>
+      </c>
+      <c r="E11">
+        <v>0.134886409911155</v>
+      </c>
+      <c r="F11">
+        <v>4.5979092171007901E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.36171762838518701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2020</v>
+      </c>
+      <c r="C12">
+        <v>0.23783804227640001</v>
+      </c>
+      <c r="D12">
+        <v>0.21895893991493101</v>
+      </c>
+      <c r="E12">
+        <v>0.13461717543507801</v>
+      </c>
+      <c r="F12">
+        <v>4.45472571891143E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.36403858518447701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>2021</v>
+      </c>
+      <c r="C13">
+        <f>_xlfn.FORECAST.LINEAR($B13,C$45:C$46,$B$45:$B$46)</f>
+        <v>0.2340542380487598</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:G13" si="0">_xlfn.FORECAST.LINEAR($B13,D$45:D$46,$B$45:$B$46)</f>
+        <v>0.20706304592343727</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.17115545789157238</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>4.0092531470204307E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.34763472666602979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2022</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:G22" si="1">_xlfn.FORECAST.LINEAR($B14,C$45:C$46,$B$45:$B$46)</f>
+        <v>0.23027043382112033</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.19516715193194401</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.20769374034806276</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>3.5637805751292717E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.33123086814758551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>2023</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.22648662959347998</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.18327125794045074</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.24423202280455314</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>3.1183080032381127E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.31482700962913412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>2024</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.22270282536583963</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.17137536394895747</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.28077030526104352</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2.6728354313469538E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.29842315111068984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>2025</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.21891902113820016</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.1594794699574642</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.3173085877175339</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2.2273628594557948E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.28201929259223846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>2026</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.21513521691055981</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.14758357596597094</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.35384687017402428</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1.7818902875646359E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.26561543407379418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>2027</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.21135141268292035</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.13568768197447767</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.39038515263051465</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1.3364177156734769E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.24921157555534279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2028</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.20756760845527999</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.1237917879829844</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0.42692343508700503</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>8.9094514378231793E-3</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.23280771703689851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>2029</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.20378380422763964</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.11189589399149114</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.46346171754350962</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>4.4547257189115896E-3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.21640385851844712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>2030</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>2031</v>
+      </c>
+      <c r="C23">
+        <f>_xlfn.FORECAST.LINEAR($B23,C$46:C$47,$B$46:$B$47)</f>
+        <v>0.19000000000000483</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:G23" si="2">_xlfn.FORECAST.LINEAR($B23,D$46:D$47,$B$46:$B$47)</f>
+        <v>9.5000000000002416E-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>0.48499999999999943</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0.21999999999999176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>2032</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:G42" si="3">_xlfn.FORECAST.LINEAR($B24,C$46:C$47,$B$46:$B$47)</f>
+        <v>0.18000000000000327</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>9.0000000000001634E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0.46999999999999886</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0.23999999999999488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>2033</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>0.17000000000000171</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>8.5000000000000853E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>0.45500000000000185</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>0.25999999999999801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>2034</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>0.16000000000000369</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>8.0000000000001847E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0.27999999999999403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>2035</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000213</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>7.5000000000001066E-2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>0.42500000000000071</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>0.29999999999999716</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>2036</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>0.14000000000000412</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>7.0000000000002061E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>0.41000000000000014</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>5.9999999999998721E-2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0.31999999999999318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>2037</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>0.13000000000000256</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>6.5000000000001279E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>0.39499999999999957</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>0.33999999999999631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>2038</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>0.37999999999999901</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>0.35999999999999233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>2039</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>0.11000000000000298</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>5.5000000000001492E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>0.36500000000000199</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>0.37999999999999545</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>2040</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>0.35000000000000142</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>2041</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>4.5000000000001705E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>0.33500000000000085</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>0.4199999999999946</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>2042</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>8.0000000000001847E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000924E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>0.32000000000000028</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>0.12000000000000099</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>0.43999999999999773</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>2043</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>7.0000000000003837E-2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>3.5000000000001918E-2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>0.30499999999999972</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>0.45999999999999375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>2044</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>0.28999999999999915</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>0.47999999999999687</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>2045</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>5.0000000000004263E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>2.5000000000002132E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>0.27500000000000213</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>0.49999999999999289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>2046</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>4.00000000000027E-2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>2.000000000000135E-2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>0.26000000000000156</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>0.51999999999999602</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>2047</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>3.000000000000469E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>1.5000000000002345E-2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>0.24500000000000099</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0.16999999999999815</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>0.53999999999999204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>2048</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>2.0000000000003126E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>0.23000000000000043</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>0.55999999999999517</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>2049</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>5.0000000000007816E-3</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>0.21499999999999986</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>0.19000000000000128</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>0.57999999999999829</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>2050</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>0.59999999999999432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="str">
+        <f>A12</f>
+        <v>Industry</v>
+      </c>
+      <c r="B45">
+        <f>B12</f>
+        <v>2020</v>
+      </c>
+      <c r="C45">
+        <f>C12</f>
+        <v>0.23783804227640001</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:G45" si="4">D12</f>
+        <v>0.21895893991493101</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="4"/>
+        <v>0.13461717543507801</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>4.45472571891143E-2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>0.36403858518447701</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="str">
+        <f>A22</f>
+        <v>Industry</v>
+      </c>
+      <c r="B46">
+        <f>B22</f>
+        <v>2030</v>
+      </c>
+      <c r="C46">
+        <f>[1]部門別エネルギーキャリアシェア!C$2/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="D46">
+        <f>[1]部門別エネルギーキャリアシェア!D$2/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="E46">
+        <f>[1]部門別エネルギーキャリアシェア!E$2/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="F46">
+        <f>[1]部門別エネルギーキャリアシェア!F$2/100</f>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f>[1]部門別エネルギーキャリアシェア!G$2/100</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="str">
+        <f>A42</f>
+        <v>Industry</v>
+      </c>
+      <c r="B47">
+        <f>B42</f>
+        <v>2050</v>
+      </c>
+      <c r="C47">
+        <f>[1]部門別エネルギーキャリアシェア!C$3/100</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>[1]部門別エネルギーキャリアシェア!D$3/100</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>[1]部門別エネルギーキャリアシェア!E$3/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="F47">
+        <f>[1]部門別エネルギーキャリアシェア!F$3/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="G47">
+        <f>[1]部門別エネルギーキャリアシェア!G$3/100</f>
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9E6365-D4B7-4D2F-A218-7A82F77DBF50}">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>2010</v>
+      </c>
+      <c r="C2">
+        <v>1.27563610961359E-5</v>
+      </c>
+      <c r="D2">
+        <v>0.976242188627097</v>
+      </c>
+      <c r="E2">
+        <v>1.27593983249683E-3</v>
+      </c>
+      <c r="F2">
+        <v>2.52089993090304E-3</v>
+      </c>
+      <c r="G2">
+        <v>1.9948215248407401E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2011</v>
+      </c>
+      <c r="C3">
+        <v>1.30761890381062E-5</v>
+      </c>
+      <c r="D3">
+        <v>0.97628601984156005</v>
+      </c>
+      <c r="E3">
+        <v>1.28582525541378E-3</v>
+      </c>
+      <c r="F3">
+        <v>2.5128076601560701E-3</v>
+      </c>
+      <c r="G3">
+        <v>1.99022710538319E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2012</v>
+      </c>
+      <c r="C4">
+        <v>1.2270023577322199E-5</v>
+      </c>
+      <c r="D4">
+        <v>0.97615808572530605</v>
+      </c>
+      <c r="E4">
+        <v>1.22448542981893E-3</v>
+      </c>
+      <c r="F4">
+        <v>2.58677266289086E-3</v>
+      </c>
+      <c r="G4">
+        <v>2.0018386158406599E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2013</v>
+      </c>
+      <c r="C5">
+        <v>1.2095189138520199E-5</v>
+      </c>
+      <c r="D5">
+        <v>0.97548941750523999</v>
+      </c>
+      <c r="E5">
+        <v>1.13121847890265E-3</v>
+      </c>
+      <c r="F5">
+        <v>3.06135602984965E-3</v>
+      </c>
+      <c r="G5">
+        <v>2.0305912796869299E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>2014</v>
+      </c>
+      <c r="C6">
+        <v>1.24358001815627E-5</v>
+      </c>
+      <c r="D6">
+        <v>0.97432334520406805</v>
+      </c>
+      <c r="E6">
+        <v>1.0982775107716901E-3</v>
+      </c>
+      <c r="F6">
+        <v>3.8266266190266399E-3</v>
+      </c>
+      <c r="G6">
+        <v>2.0739314865951899E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2015</v>
+      </c>
+      <c r="C7">
+        <v>1.21347680783447E-5</v>
+      </c>
+      <c r="D7">
+        <v>0.97356260392445004</v>
+      </c>
+      <c r="E7">
+        <v>9.7898061388807791E-4</v>
+      </c>
+      <c r="F7">
+        <v>4.7243603829339202E-3</v>
+      </c>
+      <c r="G7">
+        <v>2.0721920310650101E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2016</v>
+      </c>
+      <c r="C8">
+        <v>1.32625027271021E-5</v>
+      </c>
+      <c r="D8">
+        <v>0.97284005222773595</v>
+      </c>
+      <c r="E8">
+        <v>8.40511110330097E-4</v>
+      </c>
+      <c r="F8">
+        <v>5.3666717285218704E-3</v>
+      </c>
+      <c r="G8">
+        <v>2.0939502430685202E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2017</v>
+      </c>
+      <c r="C9">
+        <v>1.3373163070678801E-5</v>
+      </c>
+      <c r="D9">
+        <v>0.97227308667648504</v>
+      </c>
+      <c r="E9">
+        <v>7.1947617320252105E-4</v>
+      </c>
+      <c r="F9">
+        <v>5.8798454731007199E-3</v>
+      </c>
+      <c r="G9">
+        <v>2.11142185141413E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10">
+        <v>1.2186481603659699E-5</v>
+      </c>
+      <c r="D10">
+        <v>0.97222937801890497</v>
+      </c>
+      <c r="E10">
+        <v>5.9375246480053304E-4</v>
+      </c>
+      <c r="F10">
+        <v>6.0773306730695304E-3</v>
+      </c>
+      <c r="G10">
+        <v>2.1087352361621702E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2019</v>
+      </c>
+      <c r="C11">
+        <v>1.24402436352604E-5</v>
+      </c>
+      <c r="D11">
+        <v>0.97204919148783198</v>
+      </c>
+      <c r="E11">
+        <v>4.8344169015914498E-4</v>
+      </c>
+      <c r="F11">
+        <v>5.9284672168479604E-3</v>
+      </c>
+      <c r="G11">
+        <v>2.15264593615252E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>2020</v>
+      </c>
+      <c r="C12">
+        <v>1.3765472295266299E-5</v>
+      </c>
+      <c r="D12">
+        <v>0.96874549515359798</v>
+      </c>
+      <c r="E12">
+        <v>4.0646380694078099E-4</v>
+      </c>
+      <c r="F12">
+        <v>7.0146552571294599E-3</v>
+      </c>
+      <c r="G12">
+        <v>2.3819620310036701E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>2021</v>
+      </c>
+      <c r="C13">
+        <f>_xlfn.FORECAST.LINEAR($B13,C$45:C$46,$B$45:$B$46)</f>
+        <v>1.0012388925066062E-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:G13" si="0">_xlfn.FORECAST.LINEAR($B13,D$45:D$46,$B$45:$B$46)</f>
+        <v>0.95187094563824104</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>3.6581742624670899E-4</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>6.3131897314163687E-3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>3.1437658279033442E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>2022</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:G22" si="1">_xlfn.FORECAST.LINEAR($B14,C$45:C$46,$B$45:$B$46)</f>
+        <v>2.0011012377835868E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.93499639612287666</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>3.2517104555263021E-4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>5.6117242057034389E-3</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>3.9055696248029292E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2023</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>3.0009635830605674E-2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.91812184660751939</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>2.8452466485855143E-4</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>4.910258679990509E-3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>4.6673734217025142E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>2024</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>4.000825928337548E-2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.90124729709216211</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>2.4387828416447266E-4</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>4.2087931542775792E-3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>5.4291772186022769E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>2025</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>5.0006882736148839E-2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.88437274757679774</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>2.0323190347039388E-4</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>3.5073276285646493E-3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>6.1909810155018619E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>2026</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>6.0005506188918645E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.86749819806144046</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1.6258552277631511E-4</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>2.8058621028517194E-3</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>6.9527848124014469E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>2027</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>7.0004129641688451E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.85062364854607608</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1.2193914208223633E-4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>2.1043965771387896E-3</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>7.7145886093010319E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>2028</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>8.0002753094458257E-2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.83374909903071881</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>8.1292761388157553E-5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>1.4029310514256377E-3</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>8.4763924062007945E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>2029</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>9.0001376547228062E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.81687454951536154</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>4.0646380694078776E-5</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>7.0146552571270782E-4</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>9.2381962031003795E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>2030</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>-2.2204460492503131E-16</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>2031</v>
+      </c>
+      <c r="C23">
+        <f>_xlfn.FORECAST.LINEAR($B23,C$46:C$47,$B$46:$B$47)</f>
+        <v>9.5000000000002416E-2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:G23" si="2">_xlfn.FORECAST.LINEAR($B23,D$46:D$47,$B$46:$B$47)</f>
+        <v>0.76000000000001933</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0.12500000000000711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>2032</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:G42" si="3">_xlfn.FORECAST.LINEAR($B24,C$46:C$47,$B$46:$B$47)</f>
+        <v>9.0000000000001634E-2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>0.72000000000001307</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>2033</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>8.5000000000000853E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>0.68000000000000682</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>0.17500000000000426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>2034</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>8.0000000000001847E-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>0.64000000000001478</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0.20000000000000284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>2035</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>7.5000000000001066E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>0.60000000000000853</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>0.22500000000000142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>2036</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>7.0000000000002061E-2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>0.56000000000001648</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>5.9999999999998721E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>5.9999999999998721E-2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0.25000000000000711</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>2037</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>6.5000000000001279E-2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>0.52000000000001023</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>0.27500000000000568</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>2038</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>0.48000000000001819</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>2039</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>5.5000000000001492E-2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>0.44000000000001194</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>0.32500000000000284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>2040</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>0.35000000000000142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>2041</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>4.5000000000001705E-2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>0.36000000000001364</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>0.37500000000000711</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>2042</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000924E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>0.32000000000000739</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>0.12000000000000099</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>0.12000000000000099</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>0.40000000000000568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>2043</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>3.5000000000001918E-2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>0.28000000000001535</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>0.42500000000000426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>2044</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>0.24000000000000909</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>0.45000000000000284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>2045</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>2.5000000000002132E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>0.20000000000001705</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>0.47500000000000142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>2046</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>2.000000000000135E-2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>0.1600000000000108</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>0.50000000000000711</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>2047</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>1.5000000000002345E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>0.12000000000001876</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>0.16999999999999815</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0.16999999999999815</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>0.52500000000000568</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>2048</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>8.0000000000012506E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>0.55000000000000426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>2049</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>5.0000000000007816E-3</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>4.0000000000006253E-2</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>0.19000000000000128</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>0.19000000000000128</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>0.57500000000000284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>2050</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>1.4210854715202004E-14</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <f>B12</f>
+        <v>2020</v>
+      </c>
+      <c r="C45">
+        <f>C12</f>
+        <v>1.3765472295266299E-5</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:G45" si="4">D12</f>
+        <v>0.96874549515359798</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="4"/>
+        <v>4.0646380694078099E-4</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>7.0146552571294599E-3</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>2.3819620310036701E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <f>B22</f>
+        <v>2030</v>
+      </c>
+      <c r="C46">
+        <f>[1]部門別エネルギーキャリアシェア!C$4/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="D46">
+        <f>[1]部門別エネルギーキャリアシェア!D$4/100</f>
+        <v>0.8</v>
+      </c>
+      <c r="E46">
+        <f>[1]部門別エネルギーキャリアシェア!E$4/100</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>[1]部門別エネルギーキャリアシェア!F$4/100</f>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f>[1]部門別エネルギーキャリアシェア!G$4/100</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <f>B42</f>
+        <v>2050</v>
+      </c>
+      <c r="C47">
+        <f>[1]部門別エネルギーキャリアシェア!C$5/100</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>[1]部門別エネルギーキャリアシェア!D$5/100</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>[1]部門別エネルギーキャリアシェア!E$5/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="F47">
+        <f>[1]部門別エネルギーキャリアシェア!F$5/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="G47">
+        <f>[1]部門別エネルギーキャリアシェア!G$5/100</f>
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C5C81D-8A69-4CCD-A63B-B22BB0A06C78}">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G47" sqref="A45:G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>2010</v>
+      </c>
+      <c r="C2">
+        <v>4.65182109398443E-3</v>
+      </c>
+      <c r="D2">
+        <v>0.24878029278487501</v>
+      </c>
+      <c r="E2">
+        <v>0.163919367208958</v>
+      </c>
+      <c r="F2">
+        <v>2.5323313743574001E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.55732520516860795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>2011</v>
+      </c>
+      <c r="C3">
+        <v>4.4393783761814297E-3</v>
+      </c>
+      <c r="D3">
+        <v>0.24766161332515499</v>
+      </c>
+      <c r="E3">
+        <v>0.170166010212602</v>
+      </c>
+      <c r="F3">
+        <v>2.6975273974121201E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.55075772411194002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2012</v>
+      </c>
+      <c r="C4">
+        <v>3.7023146447487101E-3</v>
+      </c>
+      <c r="D4">
+        <v>0.241225779086881</v>
+      </c>
+      <c r="E4">
+        <v>0.16825744230238701</v>
+      </c>
+      <c r="F4">
+        <v>2.8215585444752E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.55859887852123102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2013</v>
+      </c>
+      <c r="C5">
+        <v>3.7739279226358499E-3</v>
+      </c>
+      <c r="D5">
+        <v>0.26781184808729602</v>
+      </c>
+      <c r="E5">
+        <v>0.16652788125145301</v>
+      </c>
+      <c r="F5">
+        <v>2.93294768802379E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.53255686585837703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2014</v>
+      </c>
+      <c r="C6">
+        <v>3.6354345163539001E-3</v>
+      </c>
+      <c r="D6">
+        <v>0.25531498304482197</v>
+      </c>
+      <c r="E6">
+        <v>0.167067980866524</v>
+      </c>
+      <c r="F6">
+        <v>2.96629979050195E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.54431860366728002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>2015</v>
+      </c>
+      <c r="C7">
+        <v>3.84221225809996E-3</v>
+      </c>
+      <c r="D7">
+        <v>0.23526694106489801</v>
+      </c>
+      <c r="E7">
+        <v>0.18667743237787601</v>
+      </c>
+      <c r="F7">
+        <v>3.0863828882524001E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.54334958541660205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2016</v>
+      </c>
+      <c r="C8">
+        <v>3.44430509299673E-3</v>
+      </c>
+      <c r="D8">
+        <v>0.22954751401036</v>
+      </c>
+      <c r="E8">
+        <v>0.17258133731120401</v>
+      </c>
+      <c r="F8">
+        <v>3.1852124110331198E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.56257471947510895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2017</v>
+      </c>
+      <c r="C9">
+        <v>3.5264418259644699E-3</v>
+      </c>
+      <c r="D9">
+        <v>0.21632207207531901</v>
+      </c>
+      <c r="E9">
+        <v>0.186930731705442</v>
+      </c>
+      <c r="F9">
+        <v>3.36621891716418E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.55955856522163305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10">
+        <v>2.2792061069288301E-3</v>
+      </c>
+      <c r="D10">
+        <v>0.240628984112254</v>
+      </c>
+      <c r="E10">
+        <v>0.176965719300653</v>
+      </c>
+      <c r="F10">
+        <v>3.4057577064756803E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.54606851341540696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>2019</v>
+      </c>
+      <c r="C11">
+        <v>2.5416958688865301E-3</v>
+      </c>
+      <c r="D11">
+        <v>0.21508108823399699</v>
+      </c>
+      <c r="E11">
+        <v>0.188233506667908</v>
+      </c>
+      <c r="F11">
+        <v>3.5576390556614698E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.55856731867259402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2020</v>
+      </c>
+      <c r="C12">
+        <v>2.6974338488937699E-3</v>
+      </c>
+      <c r="D12">
+        <v>0.235100657037878</v>
+      </c>
+      <c r="E12">
+        <v>0.155260048019108</v>
+      </c>
+      <c r="F12">
+        <v>3.7576824330790903E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.56936503676332895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>2021</v>
+      </c>
+      <c r="C13">
+        <f>_xlfn.FORECAST.LINEAR($B13,C$45:C$46,$B$45:$B$46)</f>
+        <v>2.2427690464006389E-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:G13" si="0">_xlfn.FORECAST.LINEAR($B13,D$45:D$46,$B$45:$B$46)</f>
+        <v>0.22159059133409187</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.19973404321719102</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>4.3819141897712299E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.51242853308698955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>2022</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:G22" si="1">_xlfn.FORECAST.LINEAR($B14,C$45:C$46,$B$45:$B$46)</f>
+        <v>4.2157947079118685E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.20808052563030444</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.24420803841528027</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>5.0061459464632918E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.45549202941066369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2023</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>6.1888203694230981E-2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.194570459926517</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.28868203361336953</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>5.6303777031553537E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.39855552573432362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>2024</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>8.1618460309343277E-2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.18106039422272602</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.33315602881145878</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>6.2546094598474156E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.34161902205799777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>2025</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.10134871692444847</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.16755032851893858</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.37763002400954804</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>6.8788412165394774E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.2846825183816577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>2026</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.12107897353956076</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.15404026281515115</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.42210401920763729</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>7.5030729732315393E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.22774601470533185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>2027</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.14080923015467306</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.14053019711136372</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.46657801440572655</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>8.1273047299237788E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.17080951102899178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>2028</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.16053948676978536</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.12702013140757629</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0.5110520096038158</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>8.7515364866158407E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.11387300735266592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>2029</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.18026974338489055</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.11351006570378885</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.55552600480190506</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>9.3757682433079026E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>5.6936503676325856E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>2030</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>2031</v>
+      </c>
+      <c r="C23">
+        <f>_xlfn.FORECAST.LINEAR($B23,C$46:C$47,$B$46:$B$47)</f>
+        <v>0.19000000000000483</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:G23" si="2">_xlfn.FORECAST.LINEAR($B23,D$46:D$47,$B$46:$B$47)</f>
+        <v>9.5000000000002416E-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>0.5800000000000054</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>0.10499999999999865</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>2032</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:G42" si="3">_xlfn.FORECAST.LINEAR($B24,C$46:C$47,$B$46:$B$47)</f>
+        <v>0.18000000000000327</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>9.0000000000001634E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0.56000000000000227</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>6.0000000000002274E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>2033</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>0.17000000000000171</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>8.5000000000000853E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>0.53999999999999915</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>0.11500000000000021</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>8.9999999999996305E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>2034</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>0.16000000000000369</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>8.0000000000001847E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>0.52000000000000313</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0.11999999999999922</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0.11999999999999744</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>2035</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000213</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>7.5000000000001066E-2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>0.14999999999999858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>2036</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>0.14000000000000412</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>7.0000000000002061E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>0.48000000000000398</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0.17999999999999972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>2037</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>0.13000000000000256</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>6.5000000000001279E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>0.46000000000000085</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>0.13499999999999979</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>0.21000000000000085</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>2038</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>0.44000000000000483</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>0.13999999999999879</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>0.24000000000000199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>2039</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>0.11000000000000298</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>5.5000000000001492E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0.14499999999999957</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>0.26999999999999602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>2040</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000036</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>0.29999999999999716</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>2041</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>4.5000000000001705E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>0.38000000000000256</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>0.15499999999999936</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>0.32999999999999829</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>2042</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>8.0000000000001847E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000924E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>0.35999999999999943</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>0.35999999999999943</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>2043</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>7.0000000000003837E-2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>3.5000000000001918E-2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>0.34000000000000341</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>0.16499999999999915</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>0.39000000000000057</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>2044</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>0.32000000000000028</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>2045</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>5.0000000000004263E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>2.5000000000002132E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000426</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0.17499999999999893</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>0.44999999999999574</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>2046</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>4.00000000000027E-2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>2.000000000000135E-2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>0.47999999999999687</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>2047</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>3.000000000000469E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>1.5000000000002345E-2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>0.26000000000000512</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0.18499999999999872</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>0.50999999999999801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>2048</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>2.0000000000003126E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>0.24000000000000199</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0.1899999999999995</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>0.53999999999999915</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>2049</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>5.0000000000007816E-3</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>0.21999999999999886</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>0.19500000000000028</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>0.57000000000000028</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>2050</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45">
+        <f>B12</f>
+        <v>2020</v>
+      </c>
+      <c r="C45">
+        <f>C12</f>
+        <v>2.6974338488937699E-3</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:G45" si="4">D12</f>
+        <v>0.235100657037878</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="4"/>
+        <v>0.155260048019108</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>3.7576824330790903E-2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>0.56936503676332895</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46">
+        <f>B22</f>
+        <v>2030</v>
+      </c>
+      <c r="C46">
+        <f>[1]部門別エネルギーキャリアシェア!C6/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="D46">
+        <f>[1]部門別エネルギーキャリアシェア!D6/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="E46">
+        <f>[1]部門別エネルギーキャリアシェア!E6/100</f>
+        <v>0.6</v>
+      </c>
+      <c r="F46">
+        <f>[1]部門別エネルギーキャリアシェア!F6/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="G46">
+        <f>[1]部門別エネルギーキャリアシェア!G6/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47">
+        <f>B42</f>
+        <v>2050</v>
+      </c>
+      <c r="C47">
+        <f>[1]部門別エネルギーキャリアシェア!C7/100</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>[1]部門別エネルギーキャリアシェア!D7/100</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>[1]部門別エネルギーキャリアシェア!E7/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="F47">
+        <f>[1]部門別エネルギーキャリアシェア!F7/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="G47">
+        <f>[1]部門別エネルギーキャリアシェア!G7/100</f>
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFE1444-8CC5-4353-8220-42E985F1B99B}">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>2010</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.29557738845657799</v>
+      </c>
+      <c r="E2">
+        <v>0.18564969786549601</v>
+      </c>
+      <c r="F2">
+        <v>1.9466059982514399E-4</v>
+      </c>
+      <c r="G2">
+        <v>0.51857825307810101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2011</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.294781866130855</v>
+      </c>
+      <c r="E3">
+        <v>0.192891623759889</v>
+      </c>
+      <c r="F3">
+        <v>1.7932939846791401E-4</v>
+      </c>
+      <c r="G3">
+        <v>0.51214718071078702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2012</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.29271441849928498</v>
+      </c>
+      <c r="E4">
+        <v>0.19071886079980299</v>
+      </c>
+      <c r="F4">
+        <v>1.6890876492420701E-4</v>
+      </c>
+      <c r="G4">
+        <v>0.51639781193598799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2013</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.28874741209799898</v>
+      </c>
+      <c r="E5">
+        <v>0.19101405993583601</v>
+      </c>
+      <c r="F5">
+        <v>1.7333399268224699E-4</v>
+      </c>
+      <c r="G5">
+        <v>0.52006519397348305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2014</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.28263473181105297</v>
+      </c>
+      <c r="E6">
+        <v>0.19935756384129699</v>
+      </c>
+      <c r="F6">
+        <v>1.8057894672549301E-4</v>
+      </c>
+      <c r="G6">
+        <v>0.51782712540092501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>2015</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.276882966712301</v>
+      </c>
+      <c r="E7">
+        <v>0.196515236635559</v>
+      </c>
+      <c r="F7">
+        <v>1.8544679040694701E-4</v>
+      </c>
+      <c r="G7">
+        <v>0.52641634986173302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>2016</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.275029440633412</v>
+      </c>
+      <c r="E8">
+        <v>0.20018813681370101</v>
+      </c>
+      <c r="F8">
+        <v>1.8519547382262001E-4</v>
+      </c>
+      <c r="G8">
+        <v>0.52459722707906398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2017</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.28290732019339898</v>
+      </c>
+      <c r="E9">
+        <v>0.20147724968592501</v>
+      </c>
+      <c r="F9">
+        <v>1.77679670728215E-4</v>
+      </c>
+      <c r="G9">
+        <v>0.515437750449948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.26134988305047901</v>
+      </c>
+      <c r="E10">
+        <v>0.20441291793588601</v>
+      </c>
+      <c r="F10">
+        <v>1.92649405279954E-4</v>
+      </c>
+      <c r="G10">
+        <v>0.53404454960835501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2019</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.272207345338359</v>
+      </c>
+      <c r="E11">
+        <v>0.208935466078323</v>
+      </c>
+      <c r="F11">
+        <v>1.9433624170855899E-4</v>
+      </c>
+      <c r="G11">
+        <v>0.51866285234160903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>2020</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.267849508803155</v>
+      </c>
+      <c r="E12">
+        <v>0.21261603762061801</v>
+      </c>
+      <c r="F12">
+        <v>1.8539845399500999E-4</v>
+      </c>
+      <c r="G12">
+        <v>0.51934905512223195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>2021</v>
+      </c>
+      <c r="C13">
+        <f>_xlfn.FORECAST.LINEAR($B13,C$45:C$46,$B$45:$B$46)</f>
+        <v>2.0000000000003126E-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:G13" si="0">_xlfn.FORECAST.LINEAR($B13,D$45:D$46,$B$45:$B$46)</f>
+        <v>0.24106455792284009</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.23135443385855581</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.0166858608595675E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.49741414961000885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>2022</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:G22" si="1">_xlfn.FORECAST.LINEAR($B14,C$45:C$46,$B$45:$B$46)</f>
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.21427960704252058</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.25009283009649153</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>2.0148318763197892E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.47547924409778375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>2023</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.18749465616220817</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.26883122633442724</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>3.0129778917796557E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.45354433858555865</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>2024</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>8.00000000000054E-2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.16070970528188866</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.28756962257237006</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>4.0111239072398774E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.43160943307334065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>2025</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.13392475440157625</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.30630801881030578</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>5.0092699226997439E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.40967452756111555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>2026</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.10713980352126384</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.3250464150482415</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>6.0074159381599657E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.38773962204889045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>2027</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>8.035485264094433E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.34378481128618432</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>7.0055619536198321E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.36580471653666535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>2028</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.16000000000000369</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>5.3569901760631922E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0.36252320752412004</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>8.0037079690800539E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.34386981102444736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2029</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>2.6784950880312408E-2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.38126160376205576</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>9.0018539845399204E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.32193490551222226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>2030</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.29999999999999716</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>2031</v>
+      </c>
+      <c r="C23">
+        <f>_xlfn.FORECAST.LINEAR($B23,C$46:C$47,$B$46:$B$47)</f>
+        <v>0.19000000000000483</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:G23" si="2">_xlfn.FORECAST.LINEAR($B23,D$46:D$47,$B$46:$B$47)</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>0.39000000000000412</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>0.10499999999999865</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0.31500000000000128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>2032</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:G42" si="3">_xlfn.FORECAST.LINEAR($B24,C$46:C$47,$B$46:$B$47)</f>
+        <v>0.18000000000000327</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0.38000000000000256</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0.33000000000000185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>2033</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>0.17000000000000171</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>0.37000000000000099</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>0.11500000000000021</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>0.34499999999999886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>2034</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>0.16000000000000369</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>0.36000000000000298</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0.11999999999999922</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0.35999999999999943</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>2035</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000213</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>0.35000000000000142</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>2036</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>0.14000000000000412</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>0.34000000000000341</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0.39000000000000057</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>2037</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>0.13000000000000256</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>0.33000000000000185</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>0.13499999999999979</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>0.40500000000000114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>2038</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>0.32000000000000384</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>0.13999999999999879</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>2039</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>0.11000000000000298</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0.14499999999999957</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>0.43499999999999872</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>2040</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000036</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>0.44999999999999929</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>2041</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>0.2900000000000027</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>0.15499999999999936</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>0.46499999999999986</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>2042</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>8.0000000000001847E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>0.48000000000000043</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>2043</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>7.0000000000003837E-2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>0.27000000000000313</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>0.16499999999999915</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>0.49500000000000099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>2044</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>0.26000000000000156</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>0.51000000000000156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>2045</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>5.0000000000004263E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>0.25000000000000355</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0.17499999999999893</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>0.52499999999999858</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>2046</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>4.00000000000027E-2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>0.24000000000000199</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>0.53999999999999915</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>2047</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>3.000000000000469E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>0.23000000000000398</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0.18499999999999872</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>0.55499999999999972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>2048</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>2.0000000000003126E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>0.22000000000000242</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0.1899999999999995</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>0.57000000000000028</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>2049</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>0.19500000000000028</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>0.58500000000000085</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>2050</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45">
+        <f>B12</f>
+        <v>2020</v>
+      </c>
+      <c r="C45">
+        <f>C12</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:G45" si="4">D12</f>
+        <v>0.267849508803155</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="4"/>
+        <v>0.21261603762061801</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>1.8539845399500999E-4</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>0.51934905512223195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46">
+        <f>B22</f>
+        <v>2030</v>
+      </c>
+      <c r="C46">
+        <f>[1]部門別エネルギーキャリアシェア!C8/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="D46">
+        <f>[1]部門別エネルギーキャリアシェア!D8/100</f>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f>[1]部門別エネルギーキャリアシェア!E8/100</f>
+        <v>0.4</v>
+      </c>
+      <c r="F46">
+        <f>[1]部門別エネルギーキャリアシェア!F8/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="G46">
+        <f>[1]部門別エネルギーキャリアシェア!G8/100</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47">
+        <f>B42</f>
+        <v>2050</v>
+      </c>
+      <c r="C47">
+        <f>[1]部門別エネルギーキャリアシェア!C9/100</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>[1]部門別エネルギーキャリアシェア!D9/100</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>[1]部門別エネルギーキャリアシェア!E9/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="F47">
+        <f>[1]部門別エネルギーキャリアシェア!F9/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="G47">
+        <f>[1]部門別エネルギーキャリアシェア!G9/100</f>
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15C086A-941B-4916-A30B-0E46DE038FF8}">
+  <dimension ref="A1:N47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.27750898165878402</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>7.9438365307484604E-2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.29067070925143701</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.25213377269908099</v>
+      </c>
+      <c r="I2">
+        <v>1.8028050243053699E-2</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>7.3305381647236698E-2</v>
+      </c>
+      <c r="L2">
+        <v>2.3023838245289602E-3</v>
+      </c>
+      <c r="M2">
+        <v>3.5130598173663801E-3</v>
+      </c>
+      <c r="N2">
+        <v>3.0992955510281599E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.27951403156744897</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.13873942588353499</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.378150073272013</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>9.3966393678015001E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.9959351808161201E-2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>7.8413520094630304E-2</v>
+      </c>
+      <c r="L3">
+        <v>2.4710259282275898E-3</v>
+      </c>
+      <c r="M3">
+        <v>4.3178315547056098E-3</v>
+      </c>
+      <c r="N3">
+        <v>4.4683462132635698E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.30903688541811603</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.16871896917671</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.40173366414202499</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1.48835897660963E-2</v>
+      </c>
+      <c r="I4">
+        <v>2.10362952663667E-2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>7.1461587377475794E-2</v>
+      </c>
+      <c r="L4">
+        <v>2.4362435347101701E-3</v>
+      </c>
+      <c r="M4">
+        <v>4.5176489923065503E-3</v>
+      </c>
+      <c r="N4">
+        <v>6.1751163261933098E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.32857950846391998</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.13745475956747499</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.41016784815745899</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>8.6399126257142994E-3</v>
+      </c>
+      <c r="I5">
+        <v>2.2230849029530601E-2</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>7.3731340788504601E-2</v>
+      </c>
+      <c r="L5">
+        <v>2.4174666843743199E-3</v>
+      </c>
+      <c r="M5">
+        <v>4.8172876265269397E-3</v>
+      </c>
+      <c r="N5">
+        <v>1.19610270564952E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.33432608098043298</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.101734914500362</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.43159505788597102</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2.36005064249575E-2</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>7.9456591942668603E-2</v>
+      </c>
+      <c r="L6">
+        <v>2.4921739080806401E-3</v>
+      </c>
+      <c r="M6">
+        <v>4.9624699536094203E-3</v>
+      </c>
+      <c r="N6">
+        <v>2.1832204403918601E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.34167350366488902</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>8.8485591993746102E-2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.41050917576761398</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>9.1302951261232699E-3</v>
+      </c>
+      <c r="I7">
+        <v>2.4333586173267599E-2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>8.4286643085472804E-2</v>
+      </c>
+      <c r="L7">
+        <v>2.5106618472279202E-3</v>
+      </c>
+      <c r="M7">
+        <v>5.3986485963513596E-3</v>
+      </c>
+      <c r="N7">
+        <v>3.3671893745307602E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.33067558118372797</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>7.0548568472878104E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.42080958629871901</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1.72990162741022E-2</v>
+      </c>
+      <c r="I8">
+        <v>3.2396862038908403E-2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>7.6135786741252306E-2</v>
+      </c>
+      <c r="L8">
+        <v>2.3956168162530302E-3</v>
+      </c>
+      <c r="M8">
+        <v>5.90618684087012E-3</v>
+      </c>
+      <c r="N8">
+        <v>4.3832795333288599E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.331369893457585</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>5.7752105110198897E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.40393232495721398</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3.1258013474984699E-2</v>
+      </c>
+      <c r="I9">
+        <v>3.5304877701312701E-2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>7.9583897640263093E-2</v>
+      </c>
+      <c r="L9">
+        <v>2.3335239155334599E-3</v>
+      </c>
+      <c r="M9">
+        <v>6.1638462400537899E-3</v>
+      </c>
+      <c r="N9">
+        <v>5.2301517502854E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.31915424532874198</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>4.37033390053524E-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.38964851716529603</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>6.2314471710444901E-2</v>
+      </c>
+      <c r="I10">
+        <v>3.7725165241943803E-2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>7.7707621331782398E-2</v>
+      </c>
+      <c r="L10">
+        <v>2.4223648384722198E-3</v>
+      </c>
+      <c r="M10">
+        <v>7.17975885761121E-3</v>
+      </c>
+      <c r="N10">
+        <v>6.01445165203554E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.32243884112448101</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>3.4335153300247202E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.381051176338918</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>6.2890917356015694E-2</v>
+      </c>
+      <c r="I11">
+        <v>4.1670569882686602E-2</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>7.8879147557342794E-2</v>
+      </c>
+      <c r="L11">
+        <v>2.8073573074613401E-3</v>
+      </c>
+      <c r="M11">
+        <v>7.5109380438823396E-3</v>
+      </c>
+      <c r="N11">
+        <v>6.8415899088964699E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.31342698378940598</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3.2137957866366203E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.39794119514700199</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>3.9059436827267403E-2</v>
+      </c>
+      <c r="I12">
+        <v>4.6230883282315102E-2</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>7.9432210932247699E-2</v>
+      </c>
+      <c r="L12">
+        <v>3.01573686486334E-3</v>
+      </c>
+      <c r="M12">
+        <v>9.0411629939251906E-3</v>
+      </c>
+      <c r="N12">
+        <v>7.9714432296606602E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <f>_xlfn.FORECAST.LINEAR($A13,B$45:B$46,$A$45:$A$46)</f>
+        <v>0.30208428541046572</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:N13" si="0">_xlfn.FORECAST.LINEAR($A13,C$45:C$46,$A$45:$A$46)</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>3.3924162079729481E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.39814707563230184</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>4.5153493144539425E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>4.6607794954083515E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>8.148898983902253E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>7.7141631783774756E-3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>1.0637046694532692E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>7.4242989066945597E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:N42" si="1">_xlfn.FORECAST.LINEAR($A14,B$45:B$46,$A$45:$A$46)</f>
+        <v>0.29074158703152619</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>3.5710366293093099E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.39835295611760163</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>5.124754946181298E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>4.698470662585208E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>8.3545768745797666E-2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>1.2412589491891168E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>1.2232930395140507E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>6.877154583728462E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>0.27939888865258311</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>3.7496570506456273E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.39855883660290142</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>5.7341605779086535E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>4.7361618297620534E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>8.5602547652572802E-2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>1.7111015805404861E-2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>1.3828814095747877E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>6.3300102607625419E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>0.26805619027364358</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>3.9282774719819891E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.39876471708820121</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>6.343566209636009E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>4.7738529969388988E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>8.7659326559347939E-2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>2.1809442118918554E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>1.5424697796355247E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>5.7828659377964442E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>0.25671349189470405</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>4.1068978933183065E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.39897059757350101</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>6.9529718413633645E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>4.8115441641157553E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>8.9716105466123963E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>2.6507868432432247E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>1.7020581496962617E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>5.2357216148303465E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>0.24537079351576452</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>4.2855183146546683E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.39917647805880085</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>7.5623774730907201E-2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>4.8492353312926006E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>9.17728843728991E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>3.1206294745945939E-2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>1.8616465197569987E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>4.6885772918642488E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>0.23402809513682143</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>4.4641387359909857E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.39938235854410065</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>8.1717831048178979E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>4.886926498469446E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>9.3829663279674236E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>3.5904721059459632E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>2.0212348898177801E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>4.141432968898151E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>0.2226853967578819</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>4.6427591573273475E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.39958823902940044</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>8.7811887365452534E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>4.9246176656462914E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>9.5886442186449372E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>4.0603147372973325E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>2.1808232598785171E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>3.5942886459320533E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>0.21134269837894237</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>4.8213795786636648E-2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.39979411951470023</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>9.390594368272609E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>4.9623088328231479E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>9.7943221093224508E-2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>4.5301573686487018E-2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>2.3404116299392541E-2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>3.0471443229661332E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <f>_xlfn.FORECAST.LINEAR($A22,B$46:B$47,$A$46:$A$47)</f>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:O22" si="2">_xlfn.FORECAST.LINEAR($A22,C$46:C$47,$A$46:$A$47)</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000053</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>2.4999999999999911E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000355E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:O42" si="3">_xlfn.FORECAST.LINEAR($A23,B$46:B$47,$A$46:$A$47)</f>
+        <v>0.19000000000000483</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>4.9999999999990052E-3</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>4.7500000000001208E-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0.38250000000000028</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>1.5000000000000568E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>9.5000000000002416E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>4.7500000000001208E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>1.5000000000000568E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>9.750000000000103E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>2.6249999999999662E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>2.8750000000000497E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="3"/>
+        <v>0.18000000000000327</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>4.5000000000000817E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>0.36500000000000199</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>9.0000000000001634E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>4.5000000000000817E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>9.5000000000000639E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>2.7499999999999858E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>3.2500000000000639E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="3"/>
+        <v>0.17000000000000171</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>1.5000000000000568E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>4.2500000000000426E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>0.34750000000000369</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>4.4999999999998153E-2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>8.5000000000000853E-2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>4.2500000000000426E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>4.4999999999998153E-2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>9.2500000000000249E-2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>2.8750000000000053E-2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>3.6249999999999893E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>0.16000000000000369</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000924E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>5.9999999999998721E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>8.0000000000001847E-2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000924E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>5.9999999999998721E-2</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>9.0000000000000746E-2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999805E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="3"/>
+        <v>0.15000000000000213</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000355E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>3.7500000000000533E-2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>0.3125</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999289E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>7.5000000000001066E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>3.7500000000000533E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999289E-2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>8.7500000000000355E-2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>4.3750000000000178E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28">
+        <v>2036</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="3"/>
+        <v>0.14000000000000412</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999361E-2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>3.500000000000103E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>0.29500000000000171</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>7.0000000000002061E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>3.500000000000103E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>8.5000000000000853E-2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>3.2499999999999751E-2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>4.750000000000032E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29">
+        <v>2037</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="3"/>
+        <v>0.13000000000000256</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>3.5000000000000142E-2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>3.2500000000000639E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>0.27750000000000341</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>0.10500000000000043</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>6.5000000000001279E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>3.2500000000000639E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>0.10500000000000043</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>8.2500000000000462E-2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>3.3749999999999947E-2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="3"/>
+        <v>5.1250000000000462E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30">
+        <v>2038</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="3"/>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>0.25999999999999801</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>0.12000000000000099</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>0.12000000000000099</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000959E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>3.4999999999999698E-2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
+        <v>5.5000000000000604E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31">
+        <v>2039</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="3"/>
+        <v>0.11000000000000298</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>4.4999999999999929E-2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>2.7500000000000746E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0.24249999999999972</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>0.13499999999999801</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>5.5000000000001492E-2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>2.7500000000000746E-2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>0.13499999999999801</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>7.7500000000000568E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>3.6249999999999893E-2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="3"/>
+        <v>5.8749999999999858E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32">
+        <v>2040</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000355E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0.22500000000000142</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000355E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>7.5000000000000178E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>3.7500000000000089E-2</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33">
+        <v>2041</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="3"/>
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>5.4999999999999716E-2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>2.2500000000000853E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>0.20750000000000313</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>0.16499999999999915</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>4.5000000000001705E-2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>2.2500000000000853E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0.16499999999999915</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>7.2500000000000675E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>3.874999999999984E-2</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="3"/>
+        <v>6.6250000000000142E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34">
+        <v>2042</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="3"/>
+        <v>8.0000000000001847E-2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000497E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000462E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000924E-2</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000462E-2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35">
+        <v>2043</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>7.0000000000003837E-2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>6.4999999999999503E-2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000959E-2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>0.17249999999999943</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>0.19500000000000028</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>3.5000000000001918E-2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000959E-2</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>0.19500000000000028</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>6.7500000000000782E-2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>4.1249999999999787E-2</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="3"/>
+        <v>7.3750000000000426E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36">
+        <v>2044</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="3"/>
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>1.5000000000000568E-2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>0.15500000000000114</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>1.5000000000000568E-2</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>6.5000000000000391E-2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="3"/>
+        <v>4.2499999999999982E-2</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>7.7500000000000568E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37">
+        <v>2045</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>5.0000000000004263E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999289E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>1.2500000000001066E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0.13750000000000284</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>0.22499999999999787</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>2.5000000000002132E-2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>1.2500000000001066E-2</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>0.22499999999999787</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>6.2500000000000888E-2</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>4.3749999999999734E-2</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>8.1249999999999822E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38">
+        <v>2046</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>4.00000000000027E-2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000675E-2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0.11999999999999744</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>0.23999999999999844</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>2.000000000000135E-2</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000675E-2</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>0.23999999999999844</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000497E-2</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>4.4999999999999929E-2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>8.4999999999999964E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39">
+        <v>2047</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="3"/>
+        <v>3.000000000000469E-2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>8.4999999999999076E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>7.5000000000011724E-3</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0.10249999999999915</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>0.25499999999999901</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>1.5000000000002345E-2</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>7.5000000000011724E-3</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>0.25499999999999901</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>5.7500000000000995E-2</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>4.624999999999968E-2</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="3"/>
+        <v>8.8750000000000107E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40">
+        <v>2048</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="3"/>
+        <v>2.0000000000003126E-2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>5.0000000000007816E-3</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>8.5000000000000853E-2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>0.26999999999999957</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>5.0000000000007816E-3</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>0.26999999999999957</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>5.5000000000000604E-2</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>4.7499999999999876E-2</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="3"/>
+        <v>9.2500000000000249E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41">
+        <v>2049</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>9.5000000000000639E-2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="C41:O42" si="4">_xlfn.FORECAST.LINEAR($A41,D$46:D$47,$A$46:$A$47)</f>
+        <v>2.5000000000003908E-3</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>6.7500000000002558E-2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>0.28500000000000014</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="4"/>
+        <v>5.0000000000007816E-3</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>2.5000000000003908E-3</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>0.28500000000000014</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>5.2500000000000213E-2</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="4"/>
+        <v>4.8750000000000071E-2</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="4"/>
+        <v>9.6250000000000391E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42">
+        <v>2050</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="3"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="4"/>
+        <v>8.8817841970012523E-16</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>5.0000000000004263E-2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="4"/>
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="4"/>
+        <v>8.8817841970012523E-16</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="4"/>
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000053</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45">
+        <f>A12</f>
+        <v>2020</v>
+      </c>
+      <c r="B45">
+        <f>B12</f>
+        <v>0.31342698378940598</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:N45" si="5">C12</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="5"/>
+        <v>3.2137957866366203E-2</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="5"/>
+        <v>0.39794119514700199</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>3.9059436827267403E-2</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="5"/>
+        <v>4.6230883282315102E-2</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="5"/>
+        <v>7.9432210932247699E-2</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="5"/>
+        <v>3.01573686486334E-3</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>9.0411629939251906E-3</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="5"/>
+        <v>7.9714432296606602E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46">
+        <v>2030</v>
+      </c>
+      <c r="B46">
+        <f>[1]電源構成!B2/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="C46">
+        <f>[1]電源構成!C2/100</f>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f>[1]電源構成!D2/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="E46">
+        <f>[1]電源構成!E2/100</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>[1]電源構成!F2/100</f>
+        <v>0.4</v>
+      </c>
+      <c r="G46">
+        <f>[1]電源構成!G2/100</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f>[1]電源構成!H2/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="I46">
+        <f>[1]電源構成!I2/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="J46">
+        <f>[1]電源構成!J2/100</f>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f>[1]電源構成!K2/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="L46">
+        <f>[1]電源構成!L2/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="M46">
+        <f>[1]電源構成!M2/100</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N46">
+        <f>[1]電源構成!N2/100</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47">
+        <v>2050</v>
+      </c>
+      <c r="B47">
+        <f>[1]電源構成!B3/100</f>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>[1]電源構成!C3/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="D47">
+        <f>[1]電源構成!D3/100</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>[1]電源構成!E3/100</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>[1]電源構成!F3/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="G47">
+        <f>[1]電源構成!G3/100</f>
+        <v>0.3</v>
+      </c>
+      <c r="H47">
+        <f>[1]電源構成!H3/100</f>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f>[1]電源構成!I3/100</f>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f>[1]電源構成!J3/100</f>
+        <v>0.3</v>
+      </c>
+      <c r="K47">
+        <f>[1]電源構成!K3/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="L47">
+        <f>[1]電源構成!L3/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="M47">
+        <f>[1]電源構成!M3/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="N47">
+        <f>[1]電源構成!N3/100</f>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -1313,10 +8888,10 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1564,7 +9139,7 @@
         <v>124585.778058164</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C14:C21" si="2">_xlfn.FORECAST.LINEAR(A16,$C$45:$C$46,$A$45:$A$46)</f>
+        <f t="shared" ref="C16:C21" si="2">_xlfn.FORECAST.LINEAR(A16,$C$45:$C$46,$A$45:$A$46)</f>
         <v>0.9599999999999973</v>
       </c>
       <c r="D16">
@@ -2046,10 +9621,10 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2399,12 +9974,12 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
+    <row r="1" spans="1:5" ht="18.75">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2662,7 +10237,7 @@
         <v>0.49720261949109501</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D23" si="2">_xlfn.FORECAST.LINEAR(B14,$C$45:$C$46,$B$45:$B$46)</f>
+        <f t="shared" ref="D14:D22" si="2">_xlfn.FORECAST.LINEAR(B14,$C$45:$C$46,$B$45:$B$46)</f>
         <v>0.96000000000000085</v>
       </c>
       <c r="E14">
@@ -3288,12 +10863,12 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
+    <row r="1" spans="1:5" ht="18.75">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3551,7 +11126,7 @@
         <v>20.727028227656</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D23" si="3">_xlfn.FORECAST.LINEAR(B14,$C$45:$C$46,$B$45:$B$46)</f>
+        <f t="shared" ref="D14:D22" si="3">_xlfn.FORECAST.LINEAR(B14,$C$45:$C$46,$B$45:$B$46)</f>
         <v>0.90400000000001057</v>
       </c>
       <c r="E14">
@@ -4177,12 +11752,12 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
+    <row r="1" spans="1:5" ht="18.75">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4440,7 +12015,7 @@
         <v>0.15905244341833</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D23" si="3">_xlfn.FORECAST.LINEAR(B14,$C$45:$C$46,$B$45:$B$46)</f>
+        <f t="shared" ref="D14:D22" si="3">_xlfn.FORECAST.LINEAR(B14,$C$45:$C$46,$B$45:$B$46)</f>
         <v>0.9059999999999917</v>
       </c>
       <c r="E14">
@@ -5066,12 +12641,12 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5786,12 +13361,12 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6679,571 +14254,114 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25DCC47-1D77-49BB-9EB4-3B2378183B12}">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1F29B7-2FE8-489B-9393-64B0A796B35E}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2010</v>
       </c>
       <c r="B2">
-        <v>2010</v>
-      </c>
-      <c r="C2">
-        <v>0.235317279731797</v>
-      </c>
-      <c r="D2">
-        <v>0.25420292835059999</v>
-      </c>
-      <c r="E2">
-        <v>0.11820882763688299</v>
-      </c>
-      <c r="F2">
-        <v>3.6455908784425499E-2</v>
-      </c>
-      <c r="G2">
-        <v>0.355815055496294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>6</v>
+        <v>0.90509542880924898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2011</v>
       </c>
       <c r="B3">
-        <v>2011</v>
-      </c>
-      <c r="C3">
-        <v>0.23378116469742199</v>
-      </c>
-      <c r="D3">
-        <v>0.26563282745087802</v>
-      </c>
-      <c r="E3">
-        <v>0.123996041168318</v>
-      </c>
-      <c r="F3">
-        <v>3.93771825968263E-2</v>
-      </c>
-      <c r="G3">
-        <v>0.33721278408655597</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>6</v>
+        <v>0.90634179687697403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2012</v>
       </c>
       <c r="B4">
-        <v>2012</v>
-      </c>
-      <c r="C4">
-        <v>0.23818313959260801</v>
-      </c>
-      <c r="D4">
-        <v>0.25472980218191599</v>
-      </c>
-      <c r="E4">
-        <v>0.12620457484931599</v>
-      </c>
-      <c r="F4">
-        <v>3.8582403020422498E-2</v>
-      </c>
-      <c r="G4">
-        <v>0.342300080355736</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>6</v>
+        <v>0.90931390033078996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2013</v>
       </c>
       <c r="B5">
-        <v>2013</v>
-      </c>
-      <c r="C5">
-        <v>0.23899151410470501</v>
-      </c>
-      <c r="D5">
-        <v>0.25628028219993998</v>
-      </c>
-      <c r="E5">
-        <v>0.118880058675235</v>
-      </c>
-      <c r="F5">
-        <v>4.1828595075259697E-2</v>
-      </c>
-      <c r="G5">
-        <v>0.34401954994486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>6</v>
+        <v>0.90579011844059698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2014</v>
       </c>
       <c r="B6">
-        <v>2014</v>
-      </c>
-      <c r="C6">
-        <v>0.239516304821693</v>
-      </c>
-      <c r="D6">
-        <v>0.25280838564826902</v>
-      </c>
-      <c r="E6">
-        <v>0.119951336210655</v>
-      </c>
-      <c r="F6">
-        <v>3.9401593425756401E-2</v>
-      </c>
-      <c r="G6">
-        <v>0.34832237989362602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>6</v>
+        <v>0.91084416308302496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>2015</v>
       </c>
       <c r="B7">
-        <v>2015</v>
-      </c>
-      <c r="C7">
-        <v>0.244278082479678</v>
-      </c>
-      <c r="D7">
-        <v>0.24070442635065101</v>
-      </c>
-      <c r="E7">
-        <v>0.123588729268783</v>
-      </c>
-      <c r="F7">
-        <v>4.0869790218956002E-2</v>
-      </c>
-      <c r="G7">
-        <v>0.35055897168193201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>6</v>
+        <v>0.911547003404931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>2016</v>
       </c>
       <c r="B8">
-        <v>2016</v>
-      </c>
-      <c r="C8">
-        <v>0.242373154334521</v>
-      </c>
-      <c r="D8">
-        <v>0.228317868362445</v>
-      </c>
-      <c r="E8">
-        <v>0.130553448532646</v>
-      </c>
-      <c r="F8">
-        <v>4.2486818118318899E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.356268710652069</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>6</v>
+        <v>0.897322110943927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>2017</v>
       </c>
       <c r="B9">
-        <v>2017</v>
-      </c>
-      <c r="C9">
-        <v>0.24922368028528</v>
-      </c>
-      <c r="D9">
-        <v>0.217978539482308</v>
-      </c>
-      <c r="E9">
-        <v>0.130354331207477</v>
-      </c>
-      <c r="F9">
-        <v>4.3527751126181902E-2</v>
-      </c>
-      <c r="G9">
-        <v>0.35891569789875399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>6</v>
+        <v>0.89979408323514198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>2018</v>
       </c>
       <c r="B10">
-        <v>2018</v>
-      </c>
-      <c r="C10">
-        <v>0.242436419524306</v>
-      </c>
-      <c r="D10">
-        <v>0.21774920218296301</v>
-      </c>
-      <c r="E10">
-        <v>0.136550016297178</v>
-      </c>
-      <c r="F10">
-        <v>4.5205622268647397E-2</v>
-      </c>
-      <c r="G10">
-        <v>0.35805873972690599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>6</v>
+        <v>0.89832727188289996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>2019</v>
       </c>
       <c r="B11">
-        <v>2019</v>
-      </c>
-      <c r="C11">
-        <v>0.24617259510922099</v>
-      </c>
-      <c r="D11">
-        <v>0.21124427442343</v>
-      </c>
-      <c r="E11">
-        <v>0.134886409911155</v>
-      </c>
-      <c r="F11">
-        <v>4.5979092171007901E-2</v>
-      </c>
-      <c r="G11">
-        <v>0.36171762838518701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>6</v>
+        <v>0.898813117102369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>2020</v>
       </c>
       <c r="B12">
-        <v>2020</v>
-      </c>
-      <c r="C12">
-        <v>0.23783804227640001</v>
-      </c>
-      <c r="D12">
-        <v>0.21895893991493101</v>
-      </c>
-      <c r="E12">
-        <v>0.13461717543507801</v>
-      </c>
-      <c r="F12">
-        <v>4.45472571891143E-2</v>
-      </c>
-      <c r="G12">
-        <v>0.36403858518447701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="str">
-        <f>A12</f>
-        <v>Industry</v>
-      </c>
-      <c r="B45">
-        <f>B12</f>
-        <v>2020</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="str">
-        <f>A22</f>
-        <v>Industry</v>
-      </c>
-      <c r="B46">
-        <f>B22</f>
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="str">
-        <f>A42</f>
-        <v>Industry</v>
-      </c>
-      <c r="B47">
-        <f>B42</f>
-        <v>2050</v>
+        <v>0.89526829442088995</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/xlsx/datasample_ver2.xlsx
+++ b/xlsx/datasample_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EF50ED-0F78-4FEF-849B-DC86C5676B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0E3107-BFD6-44DB-97FD-F875A6F48867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2385" windowWidth="29040" windowHeight="15720" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2385" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GDP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="iTRA" sheetId="5" r:id="rId5"/>
     <sheet name="iCOM" sheetId="6" r:id="rId6"/>
     <sheet name="iRES" sheetId="7" r:id="rId7"/>
-    <sheet name="Consumption" sheetId="8" r:id="rId8"/>
+    <sheet name="Consumption (EJyr)" sheetId="8" r:id="rId8"/>
     <sheet name="LOSS" sheetId="15" r:id="rId9"/>
     <sheet name="sIND" sheetId="9" r:id="rId10"/>
     <sheet name="sTRA" sheetId="16" r:id="rId11"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="34">
   <si>
     <t>Year</t>
   </si>
@@ -115,21 +115,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>intensity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>省エネレベル</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>intensiry</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IND</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -191,12 +176,16 @@
     <t>Commercial and public services</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Total (EJ/yr)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -215,13 +204,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -246,10 +228,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -277,6 +258,8 @@
       <sheetName val="生徒用"/>
       <sheetName val="部門別エネルギーキャリアシェア"/>
       <sheetName val="電源構成"/>
+      <sheetName val="最終エネルギー消費"/>
+      <sheetName val="一次エネルギー供給"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -551,6 +534,8 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -841,9 +826,9 @@
       <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -857,7 +842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -873,7 +858,7 @@
         <v>5710851.7512680199</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -889,7 +874,7 @@
         <v>5774884.1359159499</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -905,7 +890,7 @@
         <v>5839634.4776151804</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -921,7 +906,7 @@
         <v>5905110.8263911698</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -937,7 +922,7 @@
         <v>5971321.3225295404</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -953,7 +938,7 @@
         <v>6038274.1975881103</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -969,7 +954,7 @@
         <v>6095183.8675616197</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -985,7 +970,7 @@
         <v>6152629.9011434298</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -1001,7 +986,7 @@
         <v>6210617.3534660004</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -1017,7 +1002,7 @@
         <v>6269151.3273055302</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -1033,7 +1018,7 @@
         <v>6328236.9735309798</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -1049,7 +1034,7 @@
         <v>6266442.526237742</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -1065,7 +1050,7 @@
         <v>6202667.0494358744</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -1081,7 +1066,7 @@
         <v>6136875.9037304753</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -1097,7 +1082,7 @@
         <v>6069033.9422639739</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -1113,7 +1098,7 @@
         <v>5999105.5038945088</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -1129,7 +1114,7 @@
         <v>5919744.471445187</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -1145,7 +1130,7 @@
         <v>5838416.0218273308</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -1161,7 +1146,7 @@
         <v>5755090.677109872</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -1177,7 +1162,7 @@
         <v>5669738.5835401108</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -1193,7 +1178,7 @@
         <v>5582329.5071236677</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -1209,7 +1194,7 @@
         <v>5443501.1164161572</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -1225,7 +1210,7 @@
         <v>5302601.7412435822</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -1241,7 +1226,7 @@
         <v>5159610.1230099825</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -1257,7 +1242,7 @@
         <v>5014504.8129222877</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -1273,7 +1258,7 @@
         <v>4867264.1704070028</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -1289,7 +1274,7 @@
         <v>4710730.6403667936</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -1305,7 +1290,7 @@
         <v>4552486.878077792</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -1321,7 +1306,7 @@
         <v>4392519.576245443</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -1337,7 +1322,7 @@
         <v>4230815.3366551939</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -1353,7 +1338,7 @@
         <v>4067360.6695928369</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2041</v>
       </c>
@@ -1369,7 +1354,7 @@
         <v>3903337.5351224411</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2042</v>
       </c>
@@ -1385,7 +1370,7 @@
         <v>3737434.7385345171</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2043</v>
       </c>
@@ -1401,7 +1386,7 @@
         <v>3569636.8180738199</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2044</v>
       </c>
@@ -1417,7 +1402,7 @@
         <v>3399928.2001074818</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -1433,7 +1418,7 @@
         <v>3228293.1983691556</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2046</v>
       </c>
@@ -1449,7 +1434,7 @@
         <v>3053794.545074943</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2047</v>
       </c>
@@ -1465,7 +1450,7 @@
         <v>2877443.9584541153</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2048</v>
       </c>
@@ -1481,7 +1466,7 @@
         <v>2699227.1477347487</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2049</v>
       </c>
@@ -1497,7 +1482,7 @@
         <v>2519129.7248522625</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2050</v>
       </c>
@@ -1513,12 +1498,12 @@
         <v>2337137.2038302477</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>A12</f>
         <v>2020</v>
@@ -1531,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>A22</f>
         <v>2030</v>
@@ -1545,7 +1530,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>A42</f>
         <v>2050</v>
@@ -1570,16 +1555,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25DCC47-1D77-49BB-9EB4-3B2378183B12}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45:G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1587,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1625,7 +1610,7 @@
         <v>0.355815055496294</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1648,7 +1633,7 @@
         <v>0.33721278408655597</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1671,7 +1656,7 @@
         <v>0.342300080355736</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1694,7 +1679,7 @@
         <v>0.34401954994486</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1717,7 +1702,7 @@
         <v>0.34832237989362602</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1740,7 +1725,7 @@
         <v>0.35055897168193201</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1763,7 +1748,7 @@
         <v>0.356268710652069</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1786,7 +1771,7 @@
         <v>0.35891569789875399</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1809,7 +1794,7 @@
         <v>0.35805873972690599</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1832,7 +1817,7 @@
         <v>0.36171762838518701</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1855,7 +1840,7 @@
         <v>0.36403858518447701</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1883,7 +1868,7 @@
         <v>0.34763472666602979</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1911,7 +1896,7 @@
         <v>0.33123086814758551</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1939,7 +1924,7 @@
         <v>0.31482700962913412</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1967,7 +1952,7 @@
         <v>0.29842315111068984</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1995,7 +1980,7 @@
         <v>0.28201929259223846</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -2023,7 +2008,7 @@
         <v>0.26561543407379418</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2051,7 +2036,7 @@
         <v>0.24921157555534279</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2079,7 +2064,7 @@
         <v>0.23280771703689851</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2107,7 +2092,7 @@
         <v>0.21640385851844712</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2135,7 +2120,7 @@
         <v>0.20000000000000284</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -2163,7 +2148,7 @@
         <v>0.21999999999999176</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -2191,7 +2176,7 @@
         <v>0.23999999999999488</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2219,7 +2204,7 @@
         <v>0.25999999999999801</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2247,7 +2232,7 @@
         <v>0.27999999999999403</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2275,7 +2260,7 @@
         <v>0.29999999999999716</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2303,7 +2288,7 @@
         <v>0.31999999999999318</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2331,7 +2316,7 @@
         <v>0.33999999999999631</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2359,7 +2344,7 @@
         <v>0.35999999999999233</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2387,7 +2372,7 @@
         <v>0.37999999999999545</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -2415,7 +2400,7 @@
         <v>0.39999999999999858</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2443,7 +2428,7 @@
         <v>0.4199999999999946</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2471,7 +2456,7 @@
         <v>0.43999999999999773</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2499,7 +2484,7 @@
         <v>0.45999999999999375</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2527,7 +2512,7 @@
         <v>0.47999999999999687</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -2555,7 +2540,7 @@
         <v>0.49999999999999289</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -2583,7 +2568,7 @@
         <v>0.51999999999999602</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2611,7 +2596,7 @@
         <v>0.53999999999999204</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -2639,7 +2624,7 @@
         <v>0.55999999999999517</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -2667,7 +2652,7 @@
         <v>0.57999999999999829</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -2695,12 +2680,12 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>A12</f>
         <v>Industry</v>
@@ -2730,7 +2715,7 @@
         <v>0.36403858518447701</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>A22</f>
         <v>Industry</v>
@@ -2760,7 +2745,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>A42</f>
         <v>Industry</v>
@@ -2800,13 +2785,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9E6365-D4B7-4D2F-A218-7A82F77DBF50}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:G47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2814,22 +2799,22 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2852,7 +2837,7 @@
         <v>1.9948215248407401E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2875,7 +2860,7 @@
         <v>1.99022710538319E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2898,7 +2883,7 @@
         <v>2.0018386158406599E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2921,7 +2906,7 @@
         <v>2.0305912796869299E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2944,7 +2929,7 @@
         <v>2.0739314865951899E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2967,7 +2952,7 @@
         <v>2.0721920310650101E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2990,7 +2975,7 @@
         <v>2.0939502430685202E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3013,7 +2998,7 @@
         <v>2.11142185141413E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3036,7 +3021,7 @@
         <v>2.1087352361621702E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3059,7 +3044,7 @@
         <v>2.15264593615252E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3082,7 +3067,7 @@
         <v>2.3819620310036701E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3110,7 +3095,7 @@
         <v>3.1437658279033442E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -3138,7 +3123,7 @@
         <v>3.9055696248029292E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -3166,7 +3151,7 @@
         <v>4.6673734217025142E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3194,7 +3179,7 @@
         <v>5.4291772186022769E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3222,7 +3207,7 @@
         <v>6.1909810155018619E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3250,7 +3235,7 @@
         <v>6.9527848124014469E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3278,7 +3263,7 @@
         <v>7.7145886093010319E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -3306,7 +3291,7 @@
         <v>8.4763924062007945E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3334,7 +3319,7 @@
         <v>9.2381962031003795E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -3362,7 +3347,7 @@
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -3390,7 +3375,7 @@
         <v>0.12500000000000711</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3418,7 +3403,7 @@
         <v>0.15000000000000568</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -3446,7 +3431,7 @@
         <v>0.17500000000000426</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3474,7 +3459,7 @@
         <v>0.20000000000000284</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -3502,7 +3487,7 @@
         <v>0.22500000000000142</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -3530,7 +3515,7 @@
         <v>0.25000000000000711</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -3558,7 +3543,7 @@
         <v>0.27500000000000568</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -3586,7 +3571,7 @@
         <v>0.30000000000000426</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -3614,7 +3599,7 @@
         <v>0.32500000000000284</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -3642,7 +3627,7 @@
         <v>0.35000000000000142</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -3670,7 +3655,7 @@
         <v>0.37500000000000711</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -3698,7 +3683,7 @@
         <v>0.40000000000000568</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -3726,7 +3711,7 @@
         <v>0.42500000000000426</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -3754,7 +3739,7 @@
         <v>0.45000000000000284</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -3782,7 +3767,7 @@
         <v>0.47500000000000142</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -3810,7 +3795,7 @@
         <v>0.50000000000000711</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -3838,7 +3823,7 @@
         <v>0.52500000000000568</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -3866,7 +3851,7 @@
         <v>0.55000000000000426</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -3894,7 +3879,7 @@
         <v>0.57500000000000284</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -3922,7 +3907,7 @@
         <v>0.60000000000000142</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -3951,7 +3936,7 @@
         <v>2.3819620310036701E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -3980,7 +3965,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -4020,13 +4005,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C5C81D-8A69-4CCD-A63B-B22BB0A06C78}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G47" sqref="A45:G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4034,22 +4019,22 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4072,7 +4057,7 @@
         <v>0.55732520516860795</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4095,7 +4080,7 @@
         <v>0.55075772411194002</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4118,7 +4103,7 @@
         <v>0.55859887852123102</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4141,7 +4126,7 @@
         <v>0.53255686585837703</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4164,7 +4149,7 @@
         <v>0.54431860366728002</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4187,7 +4172,7 @@
         <v>0.54334958541660205</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4210,7 +4195,7 @@
         <v>0.56257471947510895</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4233,7 +4218,7 @@
         <v>0.55955856522163305</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4256,7 +4241,7 @@
         <v>0.54606851341540696</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4279,7 +4264,7 @@
         <v>0.55856731867259402</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4302,7 +4287,7 @@
         <v>0.56936503676332895</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -4330,7 +4315,7 @@
         <v>0.51242853308698955</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -4358,7 +4343,7 @@
         <v>0.45549202941066369</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -4386,7 +4371,7 @@
         <v>0.39855552573432362</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -4414,7 +4399,7 @@
         <v>0.34161902205799777</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -4442,7 +4427,7 @@
         <v>0.2846825183816577</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4470,7 +4455,7 @@
         <v>0.22774601470533185</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -4498,7 +4483,7 @@
         <v>0.17080951102899178</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -4526,7 +4511,7 @@
         <v>0.11387300735266592</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -4554,7 +4539,7 @@
         <v>5.6936503676325856E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -4582,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -4610,7 +4595,7 @@
         <v>3.0000000000001137E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -4638,7 +4623,7 @@
         <v>6.0000000000002274E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -4666,7 +4651,7 @@
         <v>8.9999999999996305E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -4694,7 +4679,7 @@
         <v>0.11999999999999744</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -4722,7 +4707,7 @@
         <v>0.14999999999999858</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -4750,7 +4735,7 @@
         <v>0.17999999999999972</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -4778,7 +4763,7 @@
         <v>0.21000000000000085</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -4806,7 +4791,7 @@
         <v>0.24000000000000199</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -4834,7 +4819,7 @@
         <v>0.26999999999999602</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -4862,7 +4847,7 @@
         <v>0.29999999999999716</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -4890,7 +4875,7 @@
         <v>0.32999999999999829</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -4918,7 +4903,7 @@
         <v>0.35999999999999943</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -4946,7 +4931,7 @@
         <v>0.39000000000000057</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -4974,7 +4959,7 @@
         <v>0.42000000000000171</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -5002,7 +4987,7 @@
         <v>0.44999999999999574</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -5030,7 +5015,7 @@
         <v>0.47999999999999687</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -5058,7 +5043,7 @@
         <v>0.50999999999999801</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -5086,7 +5071,7 @@
         <v>0.53999999999999915</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -5114,9 +5099,9 @@
         <v>0.57000000000000028</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B42">
         <v>2050</v>
@@ -5142,9 +5127,9 @@
         <v>0.60000000000000142</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B45">
         <f>B12</f>
@@ -5171,9 +5156,9 @@
         <v>0.56936503676332895</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B46">
         <f>B22</f>
@@ -5200,9 +5185,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B47">
         <f>B42</f>
@@ -5244,9 +5229,9 @@
       <selection activeCell="C13" sqref="C13:G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5254,22 +5239,22 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -5292,7 +5277,7 @@
         <v>0.51857825307810101</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -5315,7 +5300,7 @@
         <v>0.51214718071078702</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5338,7 +5323,7 @@
         <v>0.51639781193598799</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5361,7 +5346,7 @@
         <v>0.52006519397348305</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -5384,7 +5369,7 @@
         <v>0.51782712540092501</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5407,7 +5392,7 @@
         <v>0.52641634986173302</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5430,7 +5415,7 @@
         <v>0.52459722707906398</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5453,7 +5438,7 @@
         <v>0.515437750449948</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5476,7 +5461,7 @@
         <v>0.53404454960835501</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5499,7 +5484,7 @@
         <v>0.51866285234160903</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5522,7 +5507,7 @@
         <v>0.51934905512223195</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -5550,7 +5535,7 @@
         <v>0.49741414961000885</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -5578,7 +5563,7 @@
         <v>0.47547924409778375</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -5606,7 +5591,7 @@
         <v>0.45354433858555865</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -5634,7 +5619,7 @@
         <v>0.43160943307334065</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -5662,7 +5647,7 @@
         <v>0.40967452756111555</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -5690,7 +5675,7 @@
         <v>0.38773962204889045</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -5718,7 +5703,7 @@
         <v>0.36580471653666535</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -5746,7 +5731,7 @@
         <v>0.34386981102444736</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -5774,7 +5759,7 @@
         <v>0.32193490551222226</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -5802,7 +5787,7 @@
         <v>0.29999999999999716</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -5830,7 +5815,7 @@
         <v>0.31500000000000128</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -5858,7 +5843,7 @@
         <v>0.33000000000000185</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -5886,7 +5871,7 @@
         <v>0.34499999999999886</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -5914,7 +5899,7 @@
         <v>0.35999999999999943</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -5942,7 +5927,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -5970,7 +5955,7 @@
         <v>0.39000000000000057</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -5998,7 +5983,7 @@
         <v>0.40500000000000114</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -6026,7 +6011,7 @@
         <v>0.42000000000000171</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -6054,7 +6039,7 @@
         <v>0.43499999999999872</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -6082,7 +6067,7 @@
         <v>0.44999999999999929</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -6110,7 +6095,7 @@
         <v>0.46499999999999986</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -6138,7 +6123,7 @@
         <v>0.48000000000000043</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -6166,7 +6151,7 @@
         <v>0.49500000000000099</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -6194,7 +6179,7 @@
         <v>0.51000000000000156</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -6222,7 +6207,7 @@
         <v>0.52499999999999858</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -6250,7 +6235,7 @@
         <v>0.53999999999999915</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -6278,7 +6263,7 @@
         <v>0.55499999999999972</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -6306,7 +6291,7 @@
         <v>0.57000000000000028</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -6334,7 +6319,7 @@
         <v>0.58500000000000085</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -6362,9 +6347,9 @@
         <v>0.60000000000000142</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B45">
         <f>B12</f>
@@ -6391,9 +6376,9 @@
         <v>0.51934905512223195</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B46">
         <f>B22</f>
@@ -6420,9 +6405,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B47">
         <f>B42</f>
@@ -6460,57 +6445,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15C086A-941B-4916-A30B-0E46DE038FF8}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -6554,7 +6539,7 @@
         <v>3.0992955510281599E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -6598,7 +6583,7 @@
         <v>4.4683462132635698E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -6642,7 +6627,7 @@
         <v>6.1751163261933098E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -6686,7 +6671,7 @@
         <v>1.19610270564952E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -6730,7 +6715,7 @@
         <v>2.1832204403918601E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -6774,7 +6759,7 @@
         <v>3.3671893745307602E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -6818,7 +6803,7 @@
         <v>4.3832795333288599E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -6862,7 +6847,7 @@
         <v>5.2301517502854E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -6906,7 +6891,7 @@
         <v>6.01445165203554E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -6950,7 +6935,7 @@
         <v>6.8415899088964699E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -6994,7 +6979,7 @@
         <v>7.9714432296606602E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -7051,7 +7036,7 @@
         <v>7.4242989066945597E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -7108,7 +7093,7 @@
         <v>6.877154583728462E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -7165,7 +7150,7 @@
         <v>6.3300102607625419E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -7222,7 +7207,7 @@
         <v>5.7828659377964442E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -7279,7 +7264,7 @@
         <v>5.2357216148303465E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -7336,7 +7321,7 @@
         <v>4.6885772918642488E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -7393,7 +7378,7 @@
         <v>4.141432968898151E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -7450,7 +7435,7 @@
         <v>3.5942886459320533E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -7507,7 +7492,7 @@
         <v>3.0471443229661332E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -7564,7 +7549,7 @@
         <v>2.5000000000000355E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -7621,7 +7606,7 @@
         <v>2.8750000000000497E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -7678,7 +7663,7 @@
         <v>3.2500000000000639E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -7735,7 +7720,7 @@
         <v>3.6249999999999893E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -7792,7 +7777,7 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -7849,7 +7834,7 @@
         <v>4.3750000000000178E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -7906,7 +7891,7 @@
         <v>4.750000000000032E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -7963,7 +7948,7 @@
         <v>5.1250000000000462E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -8020,7 +8005,7 @@
         <v>5.5000000000000604E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -8077,7 +8062,7 @@
         <v>5.8749999999999858E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -8134,7 +8119,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2041</v>
       </c>
@@ -8191,7 +8176,7 @@
         <v>6.6250000000000142E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2042</v>
       </c>
@@ -8248,7 +8233,7 @@
         <v>7.0000000000000284E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2043</v>
       </c>
@@ -8305,7 +8290,7 @@
         <v>7.3750000000000426E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2044</v>
       </c>
@@ -8362,7 +8347,7 @@
         <v>7.7500000000000568E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -8419,7 +8404,7 @@
         <v>8.1249999999999822E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2046</v>
       </c>
@@ -8476,7 +8461,7 @@
         <v>8.4999999999999964E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2047</v>
       </c>
@@ -8533,7 +8518,7 @@
         <v>8.8750000000000107E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2048</v>
       </c>
@@ -8590,7 +8575,7 @@
         <v>9.2500000000000249E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2049</v>
       </c>
@@ -8647,7 +8632,7 @@
         <v>9.6250000000000391E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2050</v>
       </c>
@@ -8704,7 +8689,7 @@
         <v>0.10000000000000053</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>A12</f>
         <v>2020</v>
@@ -8762,7 +8747,7 @@
         <v>7.9714432296606602E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2030</v>
       </c>
@@ -8819,7 +8804,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2050</v>
       </c>
@@ -8891,9 +8876,9 @@
       <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8907,7 +8892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -8923,7 +8908,7 @@
         <v>127917.537122642</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -8939,7 +8924,7 @@
         <v>127830.198160436</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -8955,7 +8940,7 @@
         <v>127742.918831135</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -8971,7 +8956,7 @@
         <v>127655.699094023</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -8987,7 +8972,7 @@
         <v>127568.538908412</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -9003,7 +8988,7 @@
         <v>127481.43823364101</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -9019,7 +9004,7 @@
         <v>127219.143055607</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -9035,7 +9020,7 @@
         <v>126957.387554261</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -9051,7 +9036,7 @@
         <v>126696.17061921</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -9067,7 +9052,7 @@
         <v>126435.491142345</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -9083,7 +9068,7 @@
         <v>126175.348017836</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -9099,7 +9084,7 @@
         <v>124518.30357161922</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -9115,7 +9100,7 @@
         <v>122870.48307034934</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -9131,7 +9116,7 @@
         <v>121231.84472930231</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -9147,7 +9132,7 @@
         <v>119602.34693583709</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -9163,7 +9148,7 @@
         <v>117981.94824873336</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -9179,7 +9164,7 @@
         <v>116272.51036426656</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -9195,7 +9180,7 @@
         <v>114574.87219476224</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -9211,7 +9196,7 @@
         <v>112888.96664572757</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -9227,7 +9212,7 @@
         <v>111214.72697082296</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -9243,7 +9228,7 @@
         <v>109552.08677014783</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -9259,7 +9244,7 @@
         <v>104202.36190245587</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -9275,7 +9260,7 @@
         <v>98899.462398875126</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -9291,7 +9276,7 @@
         <v>93643.071005708771</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -9307,7 +9292,7 @@
         <v>88432.872395611688</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -9323,7 +9308,7 @@
         <v>83268.553156581445</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -9339,7 +9324,7 @@
         <v>78117.340181637206</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -9355,7 +9340,7 @@
         <v>73015.612885232651</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -9371,7 +9356,7 @@
         <v>67963.004914112622</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -9387,7 +9372,7 @@
         <v>62959.152342793146</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -9403,7 +9388,7 @@
         <v>58003.6936584465</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2041</v>
       </c>
@@ -9419,7 +9404,7 @@
         <v>53077.003687019758</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2042</v>
       </c>
@@ -9435,7 +9420,7 @@
         <v>48201.524837426718</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2043</v>
       </c>
@@ -9451,7 +9436,7 @@
         <v>43376.849327647382</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2044</v>
       </c>
@@ -9467,7 +9452,7 @@
         <v>38602.572277632746</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -9483,7 +9468,7 @@
         <v>33878.29168991468</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2046</v>
       </c>
@@ -9499,7 +9484,7 @@
         <v>29196.428025547957</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2047</v>
       </c>
@@ -9515,7 +9500,7 @@
         <v>24566.041455710401</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2048</v>
       </c>
@@ -9531,7 +9516,7 @@
         <v>19986.701683615418</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2049</v>
       </c>
@@ -9547,7 +9532,7 @@
         <v>15457.981620721563</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2050</v>
       </c>
@@ -9563,12 +9548,12 @@
         <v>10979.457364272535</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>A12</f>
         <v>2020</v>
@@ -9581,7 +9566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>A22</f>
         <v>2030</v>
@@ -9595,7 +9580,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>A42</f>
         <v>2050</v>
@@ -9624,9 +9609,9 @@
       <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9634,7 +9619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -9642,7 +9627,7 @@
         <v>1.8290999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -9650,7 +9635,7 @@
         <v>1.84255172981084</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -9658,7 +9643,7 @@
         <v>1.8560844157716301</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -9666,7 +9651,7 @@
         <v>1.86970067145606</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -9674,7 +9659,7 @@
         <v>1.88340306051096</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -9682,7 +9667,7 @@
         <v>1.8971942330291101</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -9690,7 +9675,7 @@
         <v>1.90451712657732</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -9698,7 +9683,7 @@
         <v>1.9118925866193599</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -9706,7 +9691,7 @@
         <v>1.91932266425757</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -9714,7 +9699,7 @@
         <v>1.92680944811888</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -9722,7 +9707,7 @@
         <v>1.9343550010106301</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -9730,7 +9715,7 @@
         <v>1.9404369264602701</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -9738,7 +9723,7 @@
         <v>1.9466206595307201</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -9746,7 +9731,7 @@
         <v>1.95290894128753</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -9754,7 +9739,7 @@
         <v>1.95930451880223</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -9762,7 +9747,7 @@
         <v>1.9658101622082</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -9770,7 +9755,7 @@
         <v>1.9687772036618301</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -9778,7 +9763,7 @@
         <v>1.9718573012510701</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -9786,7 +9771,7 @@
         <v>1.97505257765538</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -9794,7 +9779,7 @@
         <v>1.97836513237384</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -9802,7 +9787,7 @@
         <v>1.9817971063443101</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -9810,7 +9795,7 @@
         <v>1.9796629558919501</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -9818,7 +9803,7 @@
         <v>1.9776463771528501</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -9826,7 +9811,7 @@
         <v>1.9757482913245501</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -9834,7 +9819,7 @@
         <v>1.97396964031083</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -9842,7 +9827,7 @@
         <v>1.97231135433044</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -9850,7 +9835,7 @@
         <v>1.9660943839543801</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -9858,7 +9843,7 @@
         <v>1.96004051696549</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -9866,7 +9851,7 @@
         <v>1.9541496091013399</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -9874,7 +9859,7 @@
         <v>1.94842158598563</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -9882,7 +9867,7 @@
         <v>1.9428563278086799</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2041</v>
       </c>
@@ -9890,7 +9875,7 @@
         <v>1.94226268158768</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2042</v>
       </c>
@@ -9898,7 +9883,7 @@
         <v>1.9417511966660199</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2043</v>
       </c>
@@ -9906,7 +9891,7 @@
         <v>1.9413226273914199</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2044</v>
       </c>
@@ -9914,7 +9899,7 @@
         <v>1.94097773425871</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -9922,7 +9907,7 @@
         <v>1.94071727619887</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2046</v>
       </c>
@@ -9930,7 +9915,7 @@
         <v>1.9393333586109001</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2047</v>
       </c>
@@ -9938,7 +9923,7 @@
         <v>1.9380421475133101</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2048</v>
       </c>
@@ -9946,7 +9931,7 @@
         <v>1.93684411362477</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2049</v>
       </c>
@@ -9954,7 +9939,7 @@
         <v>1.9357397233195399</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2050</v>
       </c>
@@ -9971,15 +9956,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -9989,14 +9974,8 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -10006,16 +9985,8 @@
       <c r="C2">
         <v>0.67106574761795801</v>
       </c>
-      <c r="D2">
-        <f>C$45</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>C2*D2</f>
-        <v>0.67106574761795801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -10025,16 +9996,8 @@
       <c r="C3">
         <v>0.66679433030551205</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D12" si="0">C$45</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E42" si="1">C3*D3</f>
-        <v>0.66679433030551205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -10044,16 +10007,8 @@
       <c r="C4">
         <v>0.64678397500359797</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0.64678397500359797</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -10063,16 +10018,8 @@
       <c r="C5">
         <v>0.64003472773258296</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.64003472773258296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -10082,16 +10029,8 @@
       <c r="C6">
         <v>0.61462242638875197</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.61462242638875197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -10101,16 +10040,8 @@
       <c r="C7">
         <v>0.58627645651037796</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.58627645651037796</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -10120,16 +10051,8 @@
       <c r="C8">
         <v>0.56842091646138104</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.56842091646138104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -10139,16 +10062,8 @@
       <c r="C9">
         <v>0.56444529506879604</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.56444529506879604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -10158,16 +10073,8 @@
       <c r="C10">
         <v>0.56217100511779505</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0.56217100511779505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -10177,16 +10084,8 @@
       <c r="C11">
         <v>0.53664632170332005</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0.53664632170332005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -10196,16 +10095,8 @@
       <c r="C12">
         <v>0.49720261949109501</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0.49720261949109501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -10213,19 +10104,11 @@
         <v>2021</v>
       </c>
       <c r="C13">
-        <f>C12</f>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D13">
-        <f>_xlfn.FORECAST.LINEAR(B13,$C$45:$C$46,$B$45:$B$46)</f>
-        <v>0.97999999999999687</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
+        <f>_xlfn.FORECAST.LINEAR(B13,$C$45:$C$46,$B$45:$B$46)*C12</f>
         <v>0.48725856710127158</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -10233,19 +10116,11 @@
         <v>2022</v>
       </c>
       <c r="C14">
-        <f>$C$13</f>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="D14:D22" si="2">_xlfn.FORECAST.LINEAR(B14,$C$45:$C$46,$B$45:$B$46)</f>
-        <v>0.96000000000000085</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>0.47731451471145164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <f t="shared" ref="C14:C22" si="0">_xlfn.FORECAST.LINEAR(B14,$C$45:$C$46,$B$45:$B$46)*C13</f>
+        <v>0.46776822441722116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -10253,19 +10128,11 @@
         <v>2023</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C42" si="3">$C$13</f>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>0.93999999999999773</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>0.46737046232162816</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>0.4397021309521868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -10273,19 +10140,11 @@
         <v>2024</v>
       </c>
       <c r="C16">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>0.9199999999999946</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>0.45742640993180472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>0.40452596047600947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -10293,19 +10152,11 @@
         <v>2025</v>
       </c>
       <c r="C17">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>0.89999999999999858</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>0.44748235754198479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>0.36407336442840793</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -10313,19 +10164,11 @@
         <v>2026</v>
       </c>
       <c r="C18">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>0.87999999999999545</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0.43753830515216136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>0.32038456069699733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -10333,19 +10176,11 @@
         <v>2027</v>
       </c>
       <c r="C19">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>0.85999999999999943</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>0.42759425276234142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>0.27553072219941754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -10353,19 +10188,11 @@
         <v>2028</v>
       </c>
       <c r="C20">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>0.83999999999999631</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>0.41765020037251799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>0.23144580664750972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -10373,19 +10200,11 @@
         <v>2029</v>
       </c>
       <c r="C21">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>0.82000000000000028</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>0.40770614798269805</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>0.18978556145095804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -10393,19 +10212,11 @@
         <v>2030</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>0.79999999999999716</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>0.39776209559287462</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>0.1518284491607659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -10413,19 +10224,11 @@
         <v>2031</v>
       </c>
       <c r="C23">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D23">
-        <f>_xlfn.FORECAST.LINEAR(B23,$C$46:$C$47,$B$46:$B$47)</f>
-        <v>0.77550000000000097</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
+        <f>_xlfn.FORECAST.LINEAR(B23,$C$46:$C$47,$B$46:$B$47)*C12</f>
         <v>0.38558063141534465</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -10433,19 +10236,11 @@
         <v>2032</v>
       </c>
       <c r="C24">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ref="D24:D42" si="4">_xlfn.FORECAST.LINEAR(B24,$C$46:$C$47,$B$46:$B$47)</f>
-        <v>0.75100000000000477</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>0.37339916723781474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <f t="shared" ref="C24:C42" si="1">_xlfn.FORECAST.LINEAR(B24,$C$46:$C$47,$B$46:$B$47)*C13</f>
+        <v>0.36593118389305729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -10453,19 +10248,11 @@
         <v>2033</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="4"/>
-        <v>0.72650000000000148</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>0.36121770306028128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>0.33983361503911186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -10473,19 +10260,11 @@
         <v>2034</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="4"/>
-        <v>0.70200000000000529</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>0.34903623888275132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>0.30867089592843744</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -10493,19 +10272,11 @@
         <v>2035</v>
       </c>
       <c r="C27">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="4"/>
-        <v>0.67750000000000199</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>0.33685477470521785</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>0.27406633822249721</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -10513,19 +10284,11 @@
         <v>2036</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="4"/>
-        <v>0.65299999999999869</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>0.32467331052768439</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>0.2377399069717499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -10533,19 +10296,11 @@
         <v>2037</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="4"/>
-        <v>0.6285000000000025</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>0.31249184635015448</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>0.20136169639806362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -10553,19 +10308,11 @@
         <v>2038</v>
       </c>
       <c r="C30">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="4"/>
-        <v>0.6039999999999992</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>0.30031038217262102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>0.16642055620844798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -10573,19 +10320,11 @@
         <v>2039</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="4"/>
-        <v>0.57950000000000301</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>0.28812891799509105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>0.13412284495223259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -10593,19 +10332,11 @@
         <v>2040</v>
       </c>
       <c r="C32">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="4"/>
-        <v>0.55499999999999972</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>0.27594745381755759</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>0.10533098660528166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -10613,19 +10344,11 @@
         <v>2041</v>
       </c>
       <c r="C33">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="4"/>
-        <v>0.53050000000000352</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>0.26376598964002768</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>8.0544992279786842E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -10633,19 +10356,11 @@
         <v>2042</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="4"/>
-        <v>0.50600000000000023</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>0.25158452546249421</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>0.19510379949616449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -10653,19 +10368,11 @@
         <v>2043</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="4"/>
-        <v>0.48150000000000404</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>0.23940306128496425</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>0.17619586504450857</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -10673,19 +10380,11 @@
         <v>2044</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="4"/>
-        <v>0.45700000000000074</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>0.22722159710743078</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>0.15530396207287436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -10693,19 +10392,11 @@
         <v>2045</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="4"/>
-        <v>0.43250000000000455</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>0.21504013292990085</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>0.13350016248905058</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -10713,19 +10404,11 @@
         <v>2046</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="4"/>
-        <v>0.40800000000000125</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>0.20285866875236738</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>0.1118190659947792</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -10733,19 +10416,11 @@
         <v>2047</v>
       </c>
       <c r="C39">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="4"/>
-        <v>0.38350000000000506</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>0.19067720457483744</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>9.1173254323667297E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -10753,19 +10428,11 @@
         <v>2048</v>
       </c>
       <c r="C40">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="4"/>
-        <v>0.35900000000000176</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>0.17849574039730398</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>7.2288849006905187E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -10773,19 +10440,11 @@
         <v>2049</v>
       </c>
       <c r="C41">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="4"/>
-        <v>0.33449999999999847</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>0.16631427621977052</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>5.5667676051725595E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -10793,24 +10452,16 @@
         <v>2050</v>
       </c>
       <c r="C42">
-        <f t="shared" si="3"/>
-        <v>0.49720261949109501</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="4"/>
-        <v>0.31000000000000227</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>0.15413281204224058</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>4.1578081935192406E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>A12</f>
         <v>Industry</v>
@@ -10823,7 +10474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>A22</f>
         <v>Industry</v>
@@ -10837,7 +10488,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>A42</f>
         <v>Industry</v>
@@ -10860,15 +10511,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -10878,14 +10529,8 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -10895,16 +10540,8 @@
       <c r="C2">
         <v>25.739035272726699</v>
       </c>
-      <c r="D2">
-        <f>C$45</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>C2*D2</f>
-        <v>25.739035272726699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -10914,16 +10551,8 @@
       <c r="C3">
         <v>25.1266527488973</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D12" si="0">C$45</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E42" si="1">C3*D3</f>
-        <v>25.1266527488973</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -10933,16 +10562,8 @@
       <c r="C4">
         <v>24.881833209100801</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>24.881833209100801</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -10952,16 +10573,8 @@
       <c r="C5">
         <v>24.6110751207903</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>24.6110751207903</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -10971,16 +10584,8 @@
       <c r="C6">
         <v>23.953358924913701</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>23.953358924913701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -10990,16 +10595,8 @@
       <c r="C7">
         <v>23.917913401728299</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>23.917913401728299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -11009,16 +10606,8 @@
       <c r="C8">
         <v>23.707296933148701</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>23.707296933148701</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -11028,16 +10617,8 @@
       <c r="C9">
         <v>23.5595978904467</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>23.5595978904467</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -11047,16 +10628,8 @@
       <c r="C10">
         <v>23.3163558579732</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>23.3163558579732</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -11066,16 +10639,8 @@
       <c r="C11">
         <v>22.887837693785201</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>22.887837693785201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -11085,16 +10650,8 @@
       <c r="C12">
         <v>20.727028227656</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>20.727028227656</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -11102,19 +10659,11 @@
         <v>2021</v>
       </c>
       <c r="C13">
-        <f>C12</f>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D13">
-        <f>_xlfn.FORECAST.LINEAR(B13,$C$45:$C$46,$B$45:$B$46)</f>
-        <v>0.95200000000001239</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
+        <f>_xlfn.FORECAST.LINEAR(B13,$C$45:$C$46,$B$45:$B$46)*C12</f>
         <v>19.732130872728767</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -11122,19 +10671,11 @@
         <v>2022</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C42" si="2">C13</f>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="D14:D22" si="3">_xlfn.FORECAST.LINEAR(B14,$C$45:$C$46,$B$45:$B$46)</f>
-        <v>0.90400000000001057</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>18.737233517801243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <f t="shared" ref="C14:C22" si="0">_xlfn.FORECAST.LINEAR(B14,$C$45:$C$46,$B$45:$B$46)*C13</f>
+        <v>17.837846308947015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -11142,19 +10683,11 @@
         <v>2023</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="3"/>
-        <v>0.85600000000000875</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>17.742336162873716</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>15.269196440458801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -11162,19 +10695,11 @@
         <v>2024</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="3"/>
-        <v>0.80800000000000693</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>16.747438807946192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>12.337510723890817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -11182,19 +10707,11 @@
         <v>2025</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="3"/>
-        <v>0.76000000000000512</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>15.752541453018665</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>9.3765081501570844</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -11202,19 +10719,11 @@
         <v>2026</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="3"/>
-        <v>0.7120000000000033</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>14.75764409809114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>6.6760738029118754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -11222,19 +10731,11 @@
         <v>2027</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="3"/>
-        <v>0.66400000000000148</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>13.762746743163614</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>4.4329130051334955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -11242,19 +10743,11 @@
         <v>2028</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="3"/>
-        <v>0.61599999999999966</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>12.767849388236089</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>2.7306744111622319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -11262,19 +10755,11 @@
         <v>2029</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="3"/>
-        <v>0.56800000000001205</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>11.772952033308858</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>1.5510230655401807</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -11282,19 +10767,11 @@
         <v>2030</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="3"/>
-        <v>0.52000000000001023</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>10.778054678381332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>0.80653199408090981</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -11302,19 +10779,11 @@
         <v>2031</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D23">
-        <f>_xlfn.FORECAST.LINEAR(B23,$C$46:$C$47,$B$46:$B$47)</f>
-        <v>0.51000000000000512</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
+        <f>_xlfn.FORECAST.LINEAR(B23,$C$46:$C$47,$B$46:$B$47)*C12</f>
         <v>10.570784396104665</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -11322,19 +10791,11 @@
         <v>2032</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ref="D24:D42" si="4">_xlfn.FORECAST.LINEAR(B24,$C$46:$C$47,$B$46:$B$47)</f>
-        <v>0.50000000000000355</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>10.363514113828073</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <f t="shared" ref="C24:C42" si="1">_xlfn.FORECAST.LINEAR(B24,$C$46:$C$47,$B$46:$B$47)*C13</f>
+        <v>9.8660654363644529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -11342,19 +10803,11 @@
         <v>2033</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="4"/>
-        <v>0.49000000000000199</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>10.156243831551482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>8.7405446913840734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -11362,19 +10815,11 @@
         <v>2034</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="4"/>
-        <v>0.48000000000000398</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>9.948973549274962</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>7.3292142914202856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -11382,19 +10827,11 @@
         <v>2035</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="4"/>
-        <v>0.47000000000000242</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>9.7417032669983694</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>5.7986300402287139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -11402,19 +10839,11 @@
         <v>2036</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="4"/>
-        <v>0.46000000000000441</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>9.5344329847218514</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>4.3131937490723002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -11422,19 +10851,11 @@
         <v>2037</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="4"/>
-        <v>0.45000000000000284</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>9.3271627024452588</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>3.0042332113103627</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -11442,19 +10863,11 @@
         <v>2038</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="4"/>
-        <v>0.44000000000000483</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>9.1198924201687408</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>1.9504817222587594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -11462,19 +10875,11 @@
         <v>2039</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="4"/>
-        <v>0.43000000000000327</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>8.9126221378921482</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>1.1741899967997687</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -11482,19 +10887,11 @@
         <v>2040</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="4"/>
-        <v>0.42000000000000171</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>8.7053518556155556</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>0.65142968752687858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -11502,19 +10899,11 @@
         <v>2041</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="4"/>
-        <v>0.41000000000000369</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>8.4980815733390358</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>0.330678117573176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -11522,19 +10911,11 @@
         <v>2042</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="4"/>
-        <v>0.40000000000000213</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>8.2908112910624432</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>4.2283137584418888</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -11542,19 +10923,11 @@
         <v>2043</v>
       </c>
       <c r="C35">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="4"/>
-        <v>0.39000000000000412</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>8.0835410087859252</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>3.8477655201821772</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -11562,19 +10935,11 @@
         <v>2044</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="4"/>
-        <v>0.38000000000000256</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>7.8762707265093326</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>3.3214069827259705</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -11582,19 +10947,11 @@
         <v>2045</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="4"/>
-        <v>0.37000000000000455</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>7.6690004442328137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>2.7118092878255391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -11602,19 +10959,11 @@
         <v>2046</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="4"/>
-        <v>0.36000000000000298</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>7.461730161956222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>2.0875068144823543</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -11622,19 +10971,11 @@
         <v>2047</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="4"/>
-        <v>0.35000000000000497</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>7.2544598796797031</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>1.5096178121753265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -11642,19 +10983,11 @@
         <v>2048</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="4"/>
-        <v>0.34000000000000341</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>7.0471895974031105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>1.0214392918455335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -11662,19 +10995,11 @@
         <v>2049</v>
       </c>
       <c r="C41">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="4"/>
-        <v>0.33000000000000185</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>6.8399193151265179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>0.64365896834539416</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -11682,24 +11007,16 @@
         <v>2050</v>
       </c>
       <c r="C42">
-        <f t="shared" si="2"/>
-        <v>20.727028227656</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="4"/>
-        <v>0.32000000000000384</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>6.6326490328499998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>0.37574079897593049</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>A12</f>
         <v>Transport</v>
@@ -11712,7 +11029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>A22</f>
         <v>Transport</v>
@@ -11726,7 +11043,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>A42</f>
         <v>Transport</v>
@@ -11749,15 +11066,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -11767,14 +11084,8 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -11784,16 +11095,8 @@
       <c r="C2">
         <v>0.21080138313295399</v>
       </c>
-      <c r="D2">
-        <f>C$45</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>C2*D2</f>
-        <v>0.21080138313295399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -11803,16 +11106,8 @@
       <c r="C3">
         <v>0.20568933036292</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D12" si="0">C$45</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E42" si="1">C3*D3</f>
-        <v>0.20568933036292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -11822,16 +11117,8 @@
       <c r="C4">
         <v>0.193863474295359</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0.193863474295359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -11841,16 +11128,8 @@
       <c r="C5">
         <v>0.20051862817264399</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.20051862817264399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -11860,16 +11139,8 @@
       <c r="C6">
         <v>0.19418294364486</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.19418294364486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -11879,16 +11150,8 @@
       <c r="C7">
         <v>0.18472973359124201</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.18472973359124201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -11898,16 +11161,8 @@
       <c r="C8">
         <v>0.178322438763311</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.178322438763311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -11917,16 +11172,8 @@
       <c r="C9">
         <v>0.178951120153517</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.178951120153517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -11936,16 +11183,8 @@
       <c r="C10">
         <v>0.17689407706898699</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0.17689407706898699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -11955,16 +11194,8 @@
       <c r="C11">
         <v>0.170934627743109</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0.170934627743109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -11974,16 +11205,8 @@
       <c r="C12">
         <v>0.15905244341833</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0.15905244341833</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -11991,19 +11214,11 @@
         <v>2021</v>
       </c>
       <c r="C13">
-        <f>C12</f>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D13">
-        <f>_xlfn.FORECAST.LINEAR(B13,$C$45:$C$46,$B$45:$B$46)</f>
-        <v>0.95300000000000296</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
+        <f>_xlfn.FORECAST.LINEAR(B13,$C$45:$C$46,$B$45:$B$46)*C12</f>
         <v>0.15157697857766897</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -12011,19 +11226,11 @@
         <v>2022</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C42" si="2">C13</f>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="D14:D22" si="3">_xlfn.FORECAST.LINEAR(B14,$C$45:$C$46,$B$45:$B$46)</f>
-        <v>0.9059999999999917</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>0.14410151373700567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <f t="shared" ref="C14:C22" si="0">_xlfn.FORECAST.LINEAR(B14,$C$45:$C$46,$B$45:$B$46)*C13</f>
+        <v>0.13732874259136682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -12031,19 +11238,11 @@
         <v>2023</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="3"/>
-        <v>0.85899999999999466</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>0.13662604889634461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>0.11796538988598336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -12051,19 +11250,11 @@
         <v>2024</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="3"/>
-        <v>0.81199999999999761</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>0.12915058405568358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>9.5787896587418209E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -12071,19 +11262,11 @@
         <v>2025</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="3"/>
-        <v>0.76500000000000057</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>0.12167511921502254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>7.3277740889374984E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -12091,19 +11274,11 @@
         <v>2026</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="3"/>
-        <v>0.71800000000000352</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0.1141996543743615</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>5.2613417958571496E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -12111,19 +11286,11 @@
         <v>2027</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="3"/>
-        <v>0.67099999999999227</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>0.10672418953369819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>3.5303603450201067E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -12131,19 +11298,11 @@
         <v>2028</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="3"/>
-        <v>0.62399999999999523</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>9.9248724693037166E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>2.2029448552925296E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -12151,19 +11310,11 @@
         <v>2029</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="3"/>
-        <v>0.57699999999999818</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>9.1773259852376124E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>1.2710991815037856E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -12171,19 +11322,11 @@
         <v>2030</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="3"/>
-        <v>0.53000000000000114</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>8.4297795011715082E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>6.7368256619700787E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -12191,19 +11334,11 @@
         <v>2031</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D23">
-        <f>_xlfn.FORECAST.LINEAR(B23,$C$46:$C$47,$B$46:$B$47)</f>
-        <v>0.52000000000000313</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
+        <f>_xlfn.FORECAST.LINEAR(B23,$C$46:$C$47,$B$46:$B$47)*C12</f>
         <v>8.2707270577532091E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -12211,19 +11346,11 @@
         <v>2032</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ref="D24:D42" si="4">_xlfn.FORECAST.LINEAR(B24,$C$46:$C$47,$B$46:$B$47)</f>
-        <v>0.51000000000000156</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>8.1116746143348545E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <f t="shared" ref="C24:C42" si="1">_xlfn.FORECAST.LINEAR(B24,$C$46:$C$47,$B$46:$B$47)*C13</f>
+        <v>7.7304259074611414E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -12231,19 +11358,11 @@
         <v>2033</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>7.9526221709164999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>6.866437129568341E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -12251,19 +11370,11 @@
         <v>2034</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="4"/>
-        <v>0.49000000000000199</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>7.7935697274982021E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>5.7803041044132079E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -12271,19 +11382,11 @@
         <v>2035</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="4"/>
-        <v>0.48000000000000043</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>7.6345172840798461E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>4.5978190361960783E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -12291,19 +11394,11 @@
         <v>2036</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="4"/>
-        <v>0.47000000000000242</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>7.4754648406615484E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>3.4440538218006418E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -12311,19 +11406,11 @@
         <v>2037</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="4"/>
-        <v>0.46000000000000085</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>7.3164123972431938E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>2.4202172260942931E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -12331,19 +11418,11 @@
         <v>2038</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="4"/>
-        <v>0.45000000000000284</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>7.1573599538248947E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>1.5886621552590581E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -12351,19 +11430,11 @@
         <v>2039</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="4"/>
-        <v>0.44000000000000128</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>6.9983075104065401E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>9.6929573632871576E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -12371,19 +11442,11 @@
         <v>2040</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="4"/>
-        <v>0.42999999999999972</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>6.8392550669881855E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>5.4657264804662741E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -12391,19 +11454,11 @@
         <v>2041</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="4"/>
-        <v>0.42000000000000171</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>6.6802026235698864E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>2.8294667780274447E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -12411,19 +11466,11 @@
         <v>2042</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="4"/>
-        <v>0.41000000000000014</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>6.5211501801515318E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>3.3909980936788167E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -12431,19 +11478,11 @@
         <v>2043</v>
       </c>
       <c r="C35">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="4"/>
-        <v>0.40000000000000213</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>6.362097736733234E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>3.092170362984473E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -12451,19 +11490,11 @@
         <v>2044</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="4"/>
-        <v>0.39000000000000057</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>6.2030452933148787E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>2.6779104805316568E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -12471,19 +11502,11 @@
         <v>2045</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="4"/>
-        <v>0.38000000000000256</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>6.0439928498965803E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>2.1965155596770338E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -12491,19 +11514,11 @@
         <v>2046</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="4"/>
-        <v>0.37000000000000099</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>5.8849404064782257E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>1.7011930433925536E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -12511,19 +11526,11 @@
         <v>2047</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="4"/>
-        <v>0.36000000000000298</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>5.7258879630599273E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>1.2398593758482413E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -12531,19 +11538,11 @@
         <v>2048</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="4"/>
-        <v>0.35000000000000142</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>5.5668355196415727E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>8.4707602913300598E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -12551,19 +11550,11 @@
         <v>2049</v>
       </c>
       <c r="C41">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="4"/>
-        <v>0.33999999999999986</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>5.4077830762232174E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>5.4014513278807953E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -12571,24 +11562,16 @@
         <v>2050</v>
       </c>
       <c r="C42">
-        <f t="shared" si="2"/>
-        <v>0.15905244341833</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="4"/>
-        <v>0.33000000000000185</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>5.2487306328049196E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>3.1986759298847801E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>A12</f>
         <v>Commercial and public services</v>
@@ -12601,7 +11584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>A22</f>
         <v>Commercial and public services</v>
@@ -12615,7 +11598,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>A42</f>
         <v>Commercial and public services</v>
@@ -12638,15 +11621,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -12656,9 +11639,8 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -12668,12 +11650,8 @@
       <c r="C2">
         <v>16.3401519996122</v>
       </c>
-      <c r="D2">
-        <f>C$45</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -12683,12 +11661,8 @@
       <c r="C3">
         <v>15.7177648858708</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D12" si="0">C$45</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -12698,12 +11672,8 @@
       <c r="C4">
         <v>15.8924660448982</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -12713,12 +11683,8 @@
       <c r="C5">
         <v>15.489876394344099</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -12728,12 +11694,8 @@
       <c r="C6">
         <v>14.8733928932292</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -12743,12 +11705,8 @@
       <c r="C7">
         <v>14.4876777795296</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -12758,12 +11716,8 @@
       <c r="C8">
         <v>14.5307612958216</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -12773,12 +11727,8 @@
       <c r="C9">
         <v>15.166789716565599</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -12788,12 +11738,8 @@
       <c r="C10">
         <v>14.0185452434716</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -12803,12 +11749,8 @@
       <c r="C11">
         <v>13.920608715937799</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -12818,12 +11760,8 @@
       <c r="C12">
         <v>14.612648421143</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -12831,15 +11769,11 @@
         <v>2021</v>
       </c>
       <c r="C13">
-        <f>C12</f>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D13">
-        <f>_xlfn.FORECAST.LINEAR(B13,$C$45:$C$46,$B$45:$B$46)*C13</f>
+        <f>_xlfn.FORECAST.LINEAR(B13,$C$45:$C$46,$B$45:$B$46)*C12</f>
         <v>13.940466593770328</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -12847,15 +11781,11 @@
         <v>2022</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C42" si="1">C13</f>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="D14:D22" si="2">_xlfn.FORECAST.LINEAR(B14,$C$45:$C$46,$B$45:$B$46)*C14</f>
-        <v>13.268284766397654</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <f t="shared" ref="C14:C22" si="0">_xlfn.FORECAST.LINEAR(B14,$C$45:$C$46,$B$45:$B$46)*C13</f>
+        <v>12.657943667143277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -12863,15 +11793,11 @@
         <v>2023</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>12.59610293902519</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <f t="shared" si="0"/>
+        <v>10.911147441077439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -12879,15 +11805,11 @@
         <v>2024</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>11.923921111652517</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <f t="shared" si="0"/>
+        <v>8.9034963119190618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -12895,15 +11817,11 @@
         <v>2025</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>11.251739284280051</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <f t="shared" si="0"/>
+        <v>6.8556921601776422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -12911,15 +11829,11 @@
         <v>2026</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>10.579557456907379</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <f t="shared" si="0"/>
+        <v>4.9635211239685413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -12927,15 +11841,11 @@
         <v>2027</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>9.9073756295347071</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <f t="shared" si="0"/>
+        <v>3.3652673220505869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -12943,15 +11853,11 @@
         <v>2028</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>9.2351938021622413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <f t="shared" si="0"/>
+        <v>2.1268489475359398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -12959,15 +11865,11 @@
         <v>2029</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>8.5630119747895694</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <f t="shared" si="0"/>
+        <v>1.2463334832560273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -12975,15 +11877,11 @@
         <v>2030</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>7.8908301474171036</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <f t="shared" si="0"/>
+        <v>0.67302008095824484</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -12991,15 +11889,11 @@
         <v>2031</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D23">
-        <f>_xlfn.FORECAST.LINEAR(B23,$C$46:$C$47,$B$46:$B$47)*C23</f>
+        <f>_xlfn.FORECAST.LINEAR(B23,$C$46:$C$47,$B$46:$B$47)*C12</f>
         <v>7.7447036632058586</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -13007,15 +11901,11 @@
         <v>2032</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ref="D24:D42" si="3">_xlfn.FORECAST.LINEAR(B24,$C$46:$C$47,$B$46:$B$47)*C24</f>
-        <v>7.5985771789944057</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <f t="shared" ref="C24:C42" si="1">_xlfn.FORECAST.LINEAR(B24,$C$46:$C$47,$B$46:$B$47)*C13</f>
+        <v>7.2490426287606144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -13024,14 +11914,10 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="3"/>
-        <v>7.4524506947829527</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>6.4555512702430908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -13040,14 +11926,10 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="3"/>
-        <v>7.3063242105715513</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>5.4555737205387587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -13056,14 +11938,10 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="3"/>
-        <v>7.1601977263600993</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>4.3627131928403582</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -13072,14 +11950,10 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="3"/>
-        <v>7.0140712421486979</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>3.2907322368852956</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -13088,14 +11962,10 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="3"/>
-        <v>6.867944757937245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>2.3328549282652262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -13104,14 +11974,10 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="3"/>
-        <v>6.7218182737258445</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>1.5480229681432849</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -13120,14 +11986,10 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="3"/>
-        <v>6.5756917895143916</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.9570820263911789</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -13136,14 +11998,10 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="3"/>
-        <v>6.4295653053029387</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.54838673263265358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -13152,14 +12010,10 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="3"/>
-        <v>6.2834388210915373</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.28939863481204747</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -13168,14 +12022,10 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="3"/>
-        <v>6.1373123368800844</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>3.2527755385464738</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -13184,14 +12034,10 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="3"/>
-        <v>5.9911858526686839</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>2.9721074777918788</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -13200,14 +12046,10 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="3"/>
-        <v>5.845059368457231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>2.58222050809725</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -13216,14 +12058,10 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="3"/>
-        <v>5.6989328842458304</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>2.1276737510101382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -13232,14 +12070,10 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="3"/>
-        <v>5.5528064000343775</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>1.6578310132793472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -13248,14 +12082,10 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="3"/>
-        <v>5.4066799158229761</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>1.2175709276475744</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -13264,14 +12094,10 @@
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="3"/>
-        <v>5.2605534316115232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.83982777417548837</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -13280,14 +12106,10 @@
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="3"/>
-        <v>5.1144269474000703</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.54180803885015194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -13296,19 +12118,15 @@
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>14.612648421143</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="3"/>
-        <v>4.9683004631886698</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.3254078889730041</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>A12</f>
         <v>Residential</v>
@@ -13321,7 +12139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>A22</f>
         <v>Residential</v>
@@ -13335,7 +12153,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>A42</f>
         <v>Residential</v>
@@ -13358,893 +12176,1062 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE80E5E-CB11-4678-8447-06FB357DFD36}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
       <c r="B2">
-        <f>GDP!D2*iIND!E2</f>
-        <v>3832356.9999999986</v>
+        <f>GDP!D2*iIND!C2/10^6</f>
+        <v>3.8323569999999987</v>
       </c>
       <c r="C2">
-        <f>POP!B2*iTRA!E2</f>
-        <v>3292474.0000000093</v>
+        <f>POP!B2*iTRA!C2/10^6</f>
+        <v>3.2924740000000092</v>
       </c>
       <c r="D2">
-        <f>GDP!D2*COMFLOOR!B2*iCOM!E2</f>
-        <v>2201971.9999999977</v>
+        <f>GDP!D2*COMFLOOR!B2*iCOM!C2/10^6</f>
+        <v>2.2019719999999978</v>
       </c>
       <c r="E2">
-        <f>POP!D2*iRES!D2</f>
-        <v>127917.537122642</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <f>POP!D2*iRES!C2/10^6</f>
+        <v>2.0901920000000063</v>
+      </c>
+      <c r="F2">
+        <f>SUM(B2:E2)</f>
+        <v>11.416995000000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2011</v>
       </c>
       <c r="B3">
-        <f>GDP!D3*iIND!E3</f>
-        <v>3850660.0000000014</v>
+        <f>GDP!D3*iIND!C3/10^6</f>
+        <v>3.8506600000000013</v>
       </c>
       <c r="C3">
-        <f>POP!B3*iTRA!E3</f>
-        <v>3211945.0000000061</v>
+        <f>POP!B3*iTRA!C3/10^6</f>
+        <v>3.2119450000000063</v>
       </c>
       <c r="D3">
-        <f>GDP!D3*COMFLOOR!B3*iCOM!E3</f>
-        <v>2188642.0000000028</v>
+        <f>GDP!D3*COMFLOOR!B3*iCOM!C3/10^6</f>
+        <v>2.1886420000000029</v>
       </c>
       <c r="E3">
-        <f>POP!D3*iRES!D3</f>
-        <v>127830.198160436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <f>POP!D3*iRES!C3/10^6</f>
+        <v>2.0092050000000072</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F42" si="0">SUM(B3:E3)</f>
+        <v>11.260452000000017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
       <c r="B4">
-        <f>GDP!D4*iIND!E4</f>
-        <v>3776982.0000000056</v>
+        <f>GDP!D4*iIND!C4/10^6</f>
+        <v>3.7769820000000056</v>
       </c>
       <c r="C4">
-        <f>POP!B4*iTRA!E4</f>
-        <v>3178478.0000000028</v>
+        <f>POP!B4*iTRA!C4/10^6</f>
+        <v>3.1784780000000028</v>
       </c>
       <c r="D4">
-        <f>GDP!D4*COMFLOOR!B4*iCOM!E4</f>
-        <v>2101257.9999999958</v>
+        <f>GDP!D4*COMFLOOR!B4*iCOM!C4/10^6</f>
+        <v>2.1012579999999956</v>
       </c>
       <c r="E4">
-        <f>POP!D4*iRES!D4</f>
-        <v>127742.918831135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <f>POP!D4*iRES!C4/10^6</f>
+        <v>2.0301499999999999</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>11.086868000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
       <c r="B5">
-        <f>GDP!D5*iIND!E5</f>
-        <v>3779476.0000000005</v>
+        <f>GDP!D5*iIND!C5/10^6</f>
+        <v>3.7794760000000003</v>
       </c>
       <c r="C5">
-        <f>POP!B5*iTRA!E5</f>
-        <v>3141744.0000000023</v>
+        <f>POP!B5*iTRA!C5/10^6</f>
+        <v>3.1417440000000023</v>
       </c>
       <c r="D5">
-        <f>GDP!D5*COMFLOOR!B5*iCOM!E5</f>
-        <v>2213883.9999999986</v>
+        <f>GDP!D5*COMFLOOR!B5*iCOM!C5/10^6</f>
+        <v>2.2138839999999984</v>
       </c>
       <c r="E5">
-        <f>POP!D5*iRES!D5</f>
-        <v>127655.699094023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <f>POP!D5*iRES!C5/10^6</f>
+        <v>1.9773710000000002</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>11.112475000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
       <c r="B6">
-        <f>GDP!D6*iIND!E6</f>
-        <v>3670107.9999999977</v>
+        <f>GDP!D6*iIND!C6/10^6</f>
+        <v>3.6701079999999977</v>
       </c>
       <c r="C6">
-        <f>POP!B6*iTRA!E6</f>
-        <v>3055695.0000000112</v>
+        <f>POP!B6*iTRA!C6/10^6</f>
+        <v>3.0556950000000112</v>
       </c>
       <c r="D6">
-        <f>GDP!D6*COMFLOOR!B6*iCOM!E6</f>
-        <v>2183860.0000000079</v>
+        <f>GDP!D6*COMFLOOR!B6*iCOM!C6/10^6</f>
+        <v>2.1838600000000081</v>
       </c>
       <c r="E6">
-        <f>POP!D6*iRES!D6</f>
-        <v>127568.538908412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <f>POP!D6*iRES!C6/10^6</f>
+        <v>1.8973770000000076</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>10.807040000000024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
       <c r="B7">
-        <f>GDP!D7*iIND!E7</f>
-        <v>3540098.0000000033</v>
+        <f>GDP!D7*iIND!C7/10^6</f>
+        <v>3.5400980000000031</v>
       </c>
       <c r="C7">
-        <f>POP!B7*iTRA!E7</f>
-        <v>3049090.0000000005</v>
+        <f>POP!B7*iTRA!C7/10^6</f>
+        <v>3.0490900000000005</v>
       </c>
       <c r="D7">
-        <f>GDP!D7*COMFLOOR!B7*iCOM!E7</f>
-        <v>2116223.0000000065</v>
+        <f>GDP!D7*COMFLOOR!B7*iCOM!C7/10^6</f>
+        <v>2.1162230000000064</v>
       </c>
       <c r="E7">
-        <f>POP!D7*iRES!D7</f>
-        <v>127481.43823364101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <f>POP!D7*iRES!C7/10^6</f>
+        <v>1.8469099999999961</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>10.552321000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
       <c r="B8">
-        <f>GDP!D8*iIND!E8</f>
-        <v>3464630.0000000009</v>
+        <f>GDP!D8*iIND!C8/10^6</f>
+        <v>3.464630000000001</v>
       </c>
       <c r="C8">
-        <f>POP!B8*iTRA!E8</f>
-        <v>3016021.9999999977</v>
+        <f>POP!B8*iTRA!C8/10^6</f>
+        <v>3.0160219999999978</v>
       </c>
       <c r="D8">
-        <f>GDP!D8*COMFLOOR!B8*iCOM!E8</f>
-        <v>2070034.9999999949</v>
+        <f>GDP!D8*COMFLOOR!B8*iCOM!C8/10^6</f>
+        <v>2.070034999999995</v>
       </c>
       <c r="E8">
-        <f>POP!D8*iRES!D8</f>
-        <v>127219.143055607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <f>POP!D8*iRES!C8/10^6</f>
+        <v>1.8485910000000054</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>10.399278000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
       <c r="B9">
-        <f>GDP!D9*iIND!E9</f>
-        <v>3472823.0000000005</v>
+        <f>GDP!D9*iIND!C9/10^6</f>
+        <v>3.4728230000000004</v>
       </c>
       <c r="C9">
-        <f>POP!B9*iTRA!E9</f>
-        <v>2991064.9999999916</v>
+        <f>POP!B9*iTRA!C9/10^6</f>
+        <v>2.9910649999999914</v>
       </c>
       <c r="D9">
-        <f>GDP!D9*COMFLOOR!B9*iCOM!E9</f>
-        <v>2105031.9999999939</v>
+        <f>GDP!D9*COMFLOOR!B9*iCOM!C9/10^6</f>
+        <v>2.1050319999999938</v>
       </c>
       <c r="E9">
-        <f>POP!D9*iRES!D9</f>
-        <v>126957.387554261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <f>POP!D9*iRES!C9/10^6</f>
+        <v>1.9255359999999992</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>10.494455999999985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
       <c r="B10">
-        <f>GDP!D10*iIND!E10</f>
-        <v>3491429.0000000019</v>
+        <f>GDP!D10*iIND!C10/10^6</f>
+        <v>3.4914290000000019</v>
       </c>
       <c r="C10">
-        <f>POP!B10*iTRA!E10</f>
-        <v>2954092.9999999888</v>
+        <f>POP!B10*iTRA!C10/10^6</f>
+        <v>2.9540929999999888</v>
       </c>
       <c r="D10">
-        <f>GDP!D10*COMFLOOR!B10*iCOM!E10</f>
-        <v>2108609.0000000088</v>
+        <f>GDP!D10*COMFLOOR!B10*iCOM!C10/10^6</f>
+        <v>2.1086090000000088</v>
       </c>
       <c r="E10">
-        <f>POP!D10*iRES!D10</f>
-        <v>126696.17061921</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <f>POP!D10*iRES!C10/10^6</f>
+        <v>1.7760959999999926</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>10.330226999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
       <c r="B11">
-        <f>GDP!D11*iIND!E11</f>
-        <v>3364316.9999999995</v>
+        <f>GDP!D11*iIND!C11/10^6</f>
+        <v>3.3643169999999993</v>
       </c>
       <c r="C11">
-        <f>POP!B11*iTRA!E11</f>
-        <v>2893835.0000000088</v>
+        <f>POP!B11*iTRA!C11/10^6</f>
+        <v>2.893835000000009</v>
       </c>
       <c r="D11">
-        <f>GDP!D11*COMFLOOR!B11*iCOM!E11</f>
-        <v>2064798.0000000005</v>
+        <f>GDP!D11*COMFLOOR!B11*iCOM!C11/10^6</f>
+        <v>2.0647980000000006</v>
       </c>
       <c r="E11">
-        <f>POP!D11*iRES!D11</f>
-        <v>126435.491142345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <f>POP!D11*iRES!C11/10^6</f>
+        <v>1.7600590000000043</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>10.083009000000013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
       <c r="B12">
-        <f>GDP!D12*iIND!E12</f>
-        <v>3146416.0000000023</v>
+        <f>GDP!D12*iIND!C12/10^6</f>
+        <v>3.1464160000000025</v>
       </c>
       <c r="C12">
-        <f>POP!B12*iTRA!E12</f>
-        <v>2615240.0000000065</v>
+        <f>POP!B12*iTRA!C12/10^6</f>
+        <v>2.6152400000000067</v>
       </c>
       <c r="D12">
-        <f>GDP!D12*COMFLOOR!B12*iCOM!E12</f>
-        <v>1946969.9999999953</v>
+        <f>GDP!D12*COMFLOOR!B12*iCOM!C12/10^6</f>
+        <v>1.9469699999999954</v>
       </c>
       <c r="E12">
-        <f>POP!D12*iRES!D12</f>
-        <v>126175.348017836</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <f>POP!D12*iRES!C12/10^6</f>
+        <v>1.8437559999999997</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>9.5523820000000033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
       <c r="B13">
-        <f>GDP!D13*iIND!E13</f>
-        <v>3053377.8061570744</v>
+        <f>GDP!D13*iIND!C13/10^6</f>
+        <v>3.0533778061570742</v>
       </c>
       <c r="C13">
-        <f>POP!B13*iTRA!E13</f>
-        <v>2481829.7597225904</v>
+        <f>POP!B13*iTRA!C13/10^6</f>
+        <v>2.4818297597225905</v>
       </c>
       <c r="D13">
-        <f>GDP!D13*COMFLOOR!B13*iCOM!E13</f>
-        <v>1843120.9575519355</v>
+        <f>GDP!D13*COMFLOOR!B13*iCOM!C13/10^6</f>
+        <v>1.8431209575519354</v>
       </c>
       <c r="E13">
-        <f>POP!D13*iRES!D13</f>
-        <v>1735843.2512531104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <f>POP!D13*iRES!C13/10^6</f>
+        <v>1.7358432512531103</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>9.11417177468471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
       <c r="B14">
-        <f>GDP!D14*iIND!E14</f>
-        <v>2960623.0126181962</v>
+        <f>GDP!D14*iIND!C14/10^6</f>
+        <v>2.9014105523658231</v>
       </c>
       <c r="C14">
-        <f>POP!B14*iTRA!E14</f>
-        <v>2349237.687483856</v>
+        <f>POP!B14*iTRA!C14/10^6</f>
+        <v>2.2364742784846596</v>
       </c>
       <c r="D14">
-        <f>GDP!D14*COMFLOOR!B14*iCOM!E14</f>
-        <v>1739916.235663512</v>
+        <f>GDP!D14*COMFLOOR!B14*iCOM!C14/10^6</f>
+        <v>1.6581401725873322</v>
       </c>
       <c r="E14">
-        <f>POP!D14*iRES!D14</f>
-        <v>1630280.558762237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <f>POP!D14*iRES!C14/10^6</f>
+        <v>1.5552876530591635</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>8.3513126564969795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2023</v>
       </c>
       <c r="B15">
-        <f>GDP!D15*iIND!E15</f>
-        <v>2868194.528336972</v>
+        <f>GDP!D15*iIND!C15/10^6</f>
+        <v>2.6983974122594172</v>
       </c>
       <c r="C15">
-        <f>POP!B15*iTRA!E15</f>
-        <v>2217459.9410645301</v>
+        <f>POP!B15*iTRA!C15/10^6</f>
+        <v>1.9083637649597103</v>
       </c>
       <c r="D15">
-        <f>GDP!D15*COMFLOOR!B15*iCOM!E15</f>
-        <v>1637430.3817202942</v>
+        <f>GDP!D15*COMFLOOR!B15*iCOM!C15/10^6</f>
+        <v>1.4137868653241645</v>
       </c>
       <c r="E15">
-        <f>POP!D15*iRES!D15</f>
-        <v>1527048.7956982104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <f>POP!D15*iRES!C15/10^6</f>
+        <v>1.3227785323952244</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>7.3433265749385157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2024</v>
       </c>
       <c r="B16">
-        <f>GDP!D16*iIND!E16</f>
-        <v>2776136.4079640773</v>
+        <f>GDP!D16*iIND!C16/10^6</f>
+        <v>2.4550817846558366</v>
       </c>
       <c r="C16">
-        <f>POP!B16*iTRA!E16</f>
-        <v>2086492.694369467</v>
+        <f>POP!B16*iTRA!C16/10^6</f>
+        <v>1.5370783728368798</v>
       </c>
       <c r="D16">
-        <f>GDP!D16*COMFLOOR!B16*iCOM!E16</f>
-        <v>1535740.6538919283</v>
+        <f>GDP!D16*COMFLOOR!B16*iCOM!C16/10^6</f>
+        <v>1.1390220804318565</v>
       </c>
       <c r="E16">
-        <f>POP!D16*iRES!D16</f>
-        <v>1426128.9496314165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <f>POP!D16*iRES!C16/10^6</f>
+        <v>1.0648790548400897</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>6.1960612927646626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2025</v>
       </c>
       <c r="B17">
-        <f>GDP!D17*iIND!E17</f>
-        <v>2684493.8740258114</v>
+        <f>GDP!D17*iIND!C17/10^6</f>
+        <v>2.1841145243638533</v>
       </c>
       <c r="C17">
-        <f>POP!B17*iTRA!E17</f>
-        <v>1956332.1373642911</v>
+        <f>POP!B17*iTRA!C17/10^6</f>
+        <v>1.1644828413954322</v>
       </c>
       <c r="D17">
-        <f>GDP!D17*COMFLOOR!B17*iCOM!E17</f>
-        <v>1434927.1603550068</v>
+        <f>GDP!D17*COMFLOOR!B17*iCOM!C17/10^6</f>
+        <v>0.86417191394572934</v>
       </c>
       <c r="E17">
-        <f>POP!D17*iRES!D17</f>
-        <v>1327502.1219461691</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <f>POP!D17*iRES!C17/10^6</f>
+        <v>0.80884791765132558</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>5.021617197356341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2026</v>
       </c>
       <c r="B18">
-        <f>GDP!D18*iIND!E18</f>
-        <v>2590114.9629700044</v>
+        <f>GDP!D18*iIND!C18/10^6</f>
+        <v>1.896594731922445</v>
       </c>
       <c r="C18">
-        <f>POP!B18*iTRA!E18</f>
-        <v>1825434.3897313441</v>
+        <f>POP!B18*iTRA!C18/10^6</f>
+        <v>0.82579134089540573</v>
       </c>
       <c r="D18">
-        <f>GDP!D18*COMFLOOR!B18*iCOM!E18</f>
-        <v>1330957.911669601</v>
+        <f>GDP!D18*COMFLOOR!B18*iCOM!C18/10^6</f>
+        <v>0.61319139077588591</v>
       </c>
       <c r="E18">
-        <f>POP!D18*iRES!D18</f>
-        <v>1230111.7040576169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <f>POP!D18*iRES!C18/10^6</f>
+        <v>0.57712106132988827</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>3.9126985249236248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2027</v>
       </c>
       <c r="B19">
-        <f>GDP!D19*iIND!E19</f>
-        <v>2496473.1361689395</v>
+        <f>GDP!D19*iIND!C19/10^6</f>
+        <v>1.6086629829947348</v>
       </c>
       <c r="C19">
-        <f>POP!B19*iTRA!E19</f>
-        <v>1695553.7087600557</v>
+        <f>POP!B19*iTRA!C19/10^6</f>
+        <v>0.54612950646631164</v>
       </c>
       <c r="D19">
-        <f>GDP!D19*COMFLOOR!B19*iCOM!E19</f>
-        <v>1228664.7144520588</v>
+        <f>GDP!D19*COMFLOOR!B19*iCOM!C19/10^6</f>
+        <v>0.40643355589572255</v>
       </c>
       <c r="E19">
-        <f>POP!D19*iRES!D19</f>
-        <v>1135136.2965394412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <f>POP!D19*iRES!C19/10^6</f>
+        <v>0.38557507332515578</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>2.946801118681925</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2028</v>
       </c>
       <c r="B20">
-        <f>GDP!D20*iIND!E20</f>
-        <v>2403614.774456948</v>
+        <f>GDP!D20*iIND!C20/10^6</f>
+        <v>1.3319916040932571</v>
       </c>
       <c r="C20">
-        <f>POP!B20*iTRA!E20</f>
-        <v>1566684.0475285433</v>
+        <f>POP!B20*iTRA!C20/10^6</f>
+        <v>0.33506849187177778</v>
       </c>
       <c r="D20">
-        <f>GDP!D20*COMFLOOR!B20*iCOM!E20</f>
-        <v>1128121.2167266419</v>
+        <f>GDP!D20*COMFLOOR!B20*iCOM!C20/10^6</f>
+        <v>0.25040007700055156</v>
       </c>
       <c r="E20">
-        <f>POP!D20*iRES!D20</f>
-        <v>1042551.4850991233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <f>POP!D20*iRES!C20/10^6</f>
+        <v>0.2400977798988855</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>2.1575579528644719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2029</v>
       </c>
       <c r="B21">
-        <f>GDP!D21*iIND!E21</f>
-        <v>2311587.2779640174</v>
+        <f>GDP!D21*iIND!C21/10^6</f>
+        <v>1.0760345203573196</v>
       </c>
       <c r="C21">
-        <f>POP!B21*iTRA!E21</f>
-        <v>1438819.3912363071</v>
+        <f>POP!B21*iTRA!C21/10^6</f>
+        <v>0.18955671072472527</v>
       </c>
       <c r="D21">
-        <f>GDP!D21*COMFLOOR!B21*iCOM!E21</f>
-        <v>1029403.5054847789</v>
+        <f>GDP!D21*COMFLOOR!B21*iCOM!C21/10^6</f>
+        <v>0.14257681980171616</v>
       </c>
       <c r="E21">
-        <f>POP!D21*iRES!D21</f>
-        <v>952333.03882410948</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <f>POP!D21*iRES!C21/10^6</f>
+        <v>0.1386106380549138</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1.5467786889386748</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2030</v>
       </c>
       <c r="B22">
-        <f>GDP!D22*iIND!E22</f>
-        <v>2220439.0830434491</v>
+        <f>GDP!D22*iIND!C22/10^6</f>
+        <v>0.84755643177096918</v>
       </c>
       <c r="C22">
-        <f>POP!B22*iTRA!E22</f>
-        <v>1311953.7570438127</v>
+        <f>POP!B22*iTRA!C22/10^6</f>
+        <v>9.8174736664947027E-2</v>
       </c>
       <c r="D22">
-        <f>GDP!D22*COMFLOOR!B22*iCOM!E22</f>
-        <v>932590.25442148908</v>
+        <f>GDP!D22*COMFLOOR!B22*iCOM!C22/10^6</f>
+        <v>7.4529801843770282E-2</v>
       </c>
       <c r="E22">
-        <f>POP!D22*iRES!D22</f>
-        <v>864456.90899833688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <f>POP!D22*iRES!C22/10^6</f>
+        <v>7.3730754307189547E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1.093991724586876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2031</v>
       </c>
       <c r="B23">
-        <f>GDP!D23*iIND!E23</f>
-        <v>2098908.5975778755</v>
+        <f>GDP!D23*iIND!C23/10^6</f>
+        <v>2.0989085975778754</v>
       </c>
       <c r="C23">
-        <f>POP!B23*iTRA!E23</f>
-        <v>1280814.7688787377</v>
+        <f>POP!B23*iTRA!C23/10^6</f>
+        <v>1.2808147688787377</v>
       </c>
       <c r="D23">
-        <f>GDP!D23*COMFLOOR!B23*iCOM!E23</f>
-        <v>891278.15402702126</v>
+        <f>GDP!D23*COMFLOOR!B23*iCOM!C23/10^6</f>
+        <v>0.89127815402702126</v>
       </c>
       <c r="E23">
-        <f>POP!D23*iRES!D23</f>
-        <v>807016.41394065262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <f>POP!D23*iRES!C23/10^6</f>
+        <v>0.8070164139406526</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>5.0780179344242864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
       <c r="B24">
-        <f>GDP!D24*iIND!E24</f>
-        <v>1979987.07437414</v>
+        <f>GDP!D24*iIND!C24/10^6</f>
+        <v>1.9403873328866512</v>
       </c>
       <c r="C24">
-        <f>POP!B24*iTRA!E24</f>
-        <v>1249934.1151472463</v>
+        <f>POP!B24*iTRA!C24/10^6</f>
+        <v>1.1899372776201937</v>
       </c>
       <c r="D24">
-        <f>GDP!D24*COMFLOOR!B24*iCOM!E24</f>
-        <v>850644.63937761716</v>
+        <f>GDP!D24*COMFLOOR!B24*iCOM!C24/10^6</f>
+        <v>0.81066434132687182</v>
       </c>
       <c r="E24">
-        <f>POP!D24*iRES!D24</f>
-        <v>751495.19799890788</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <f>POP!D24*iRES!C24/10^6</f>
+        <v>0.71692641889095332</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>4.6579153707246697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2033</v>
       </c>
       <c r="B25">
-        <f>GDP!D25*iIND!E25</f>
-        <v>1863742.5173202413</v>
+        <f>GDP!D25*iIND!C25/10^6</f>
+        <v>1.753408960294879</v>
       </c>
       <c r="C25">
-        <f>POP!B25*iTRA!E25</f>
-        <v>1219310.079832392</v>
+        <f>POP!B25*iTRA!C25/10^6</f>
+        <v>1.0493480091844212</v>
       </c>
       <c r="D25">
-        <f>GDP!D25*COMFLOOR!B25*iCOM!E25</f>
-        <v>810697.53179918043</v>
+        <f>GDP!D25*COMFLOOR!B25*iCOM!C25/10^6</f>
+        <v>0.69997084151098055</v>
       </c>
       <c r="E25">
-        <f>POP!D25*iRES!D25</f>
-        <v>697870.36957810365</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <f>POP!D25*iRES!C25/10^6</f>
+        <v>0.60451764598036717</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>4.1072454569706478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2034</v>
       </c>
       <c r="B26">
-        <f>GDP!D26*iIND!E26</f>
-        <v>1750243.8997618498</v>
+        <f>GDP!D26*iIND!C26/10^6</f>
+        <v>1.5478316932421841</v>
       </c>
       <c r="C26">
-        <f>POP!B26*iTRA!E26</f>
-        <v>1188940.9572301863</v>
+        <f>POP!B26*iTRA!C26/10^6</f>
+        <v>0.87586955701791314</v>
       </c>
       <c r="D26">
-        <f>GDP!D26*COMFLOOR!B26*iCOM!E26</f>
-        <v>771444.96117391158</v>
+        <f>GDP!D26*COMFLOOR!B26*iCOM!C26/10^6</f>
+        <v>0.57216226085320254</v>
       </c>
       <c r="E26">
-        <f>POP!D26*iRES!D26</f>
-        <v>646119.23659444228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <f>POP!D26*iRES!C26/10^6</f>
+        <v>0.48245205467325653</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>3.4783155657865565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2035</v>
       </c>
       <c r="B27">
-        <f>GDP!D27*iIND!E27</f>
-        <v>1639561.1755532301</v>
+        <f>GDP!D27*iIND!C27/10^6</f>
+        <v>1.3339532683450079</v>
       </c>
       <c r="C27">
-        <f>POP!B27*iTRA!E27</f>
-        <v>1158825.0518909907</v>
+        <f>POP!B27*iTRA!C27/10^6</f>
+        <v>0.68977647677161813</v>
       </c>
       <c r="D27">
-        <f>GDP!D27*COMFLOOR!B27*iCOM!E27</f>
-        <v>732895.36603832722</v>
+        <f>GDP!D27*COMFLOOR!B27*iCOM!C27/10^6</f>
+        <v>0.44137961054037367</v>
       </c>
       <c r="E27">
-        <f>POP!D27*iRES!D27</f>
-        <v>596219.30498904956</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <f>POP!D27*iRES!C27/10^6</f>
+        <v>0.3632768154049465</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>2.8283861710619465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2036</v>
       </c>
       <c r="B28">
-        <f>GDP!D28*iIND!E28</f>
-        <v>1529448.5120120854</v>
+        <f>GDP!D28*iIND!C28/10^6</f>
+        <v>1.1199286642097732</v>
       </c>
       <c r="C28">
-        <f>POP!B28*iTRA!E28</f>
-        <v>1128491.7347068593</v>
+        <f>POP!B28*iTRA!C28/10^6</f>
+        <v>0.51050791419028252</v>
       </c>
       <c r="D28">
-        <f>GDP!D28*COMFLOOR!B28*iCOM!E28</f>
-        <v>692358.19630033348</v>
+        <f>GDP!D28*COMFLOOR!B28*iCOM!C28/10^6</f>
+        <v>0.31897934681639711</v>
       </c>
       <c r="E28">
-        <f>POP!D28*iRES!D28</f>
-        <v>547920.58928116842</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <f>POP!D28*iRES!C28/10^6</f>
+        <v>0.25706324959544857</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>2.2064791748119017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2037</v>
       </c>
       <c r="B29">
-        <f>GDP!D29*iIND!E29</f>
-        <v>1422615.0300153799</v>
+        <f>GDP!D29*iIND!C29/10^6</f>
+        <v>0.91669648059966879</v>
       </c>
       <c r="C29">
-        <f>POP!B29*iTRA!E29</f>
-        <v>1098433.0664505137</v>
+        <f>POP!B29*iTRA!C29/10^6</f>
+        <v>0.35379988576450833</v>
       </c>
       <c r="D29">
-        <f>GDP!D29*COMFLOOR!B29*iCOM!E29</f>
-        <v>652847.77542665822</v>
+        <f>GDP!D29*COMFLOOR!B29*iCOM!C29/10^6</f>
+        <v>0.21595740457444548</v>
       </c>
       <c r="E29">
-        <f>POP!D29*iRES!D29</f>
-        <v>501467.19576270872</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <f>POP!D29*iRES!C29/10^6</f>
+        <v>0.17033483235962096</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1.6567886032982435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2038</v>
       </c>
       <c r="B30">
-        <f>GDP!D30*iIND!E30</f>
-        <v>1319119.2326429882</v>
+        <f>GDP!D30*iIND!C30/10^6</f>
+        <v>0.73100555103526288</v>
       </c>
       <c r="C30">
-        <f>POP!B30*iTRA!E30</f>
-        <v>1068647.0575311952</v>
+        <f>POP!B30*iTRA!C30/10^6</f>
+        <v>0.22855275668061389</v>
       </c>
       <c r="D30">
-        <f>GDP!D30*COMFLOOR!B30*iCOM!E30</f>
-        <v>614362.04149251978</v>
+        <f>GDP!D30*COMFLOOR!B30*iCOM!C30/10^6</f>
+        <v>0.13636504678310601</v>
       </c>
       <c r="E30">
-        <f>POP!D30*iRES!D30</f>
-        <v>456834.96836900158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <f>POP!D30*iRES!C30/10^6</f>
+        <v>0.10520829259108128</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1.2011316470900641</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2039</v>
       </c>
       <c r="B31">
-        <f>GDP!D31*iIND!E31</f>
-        <v>1219020.2451874979</v>
+        <f>GDP!D31*iIND!C31/10^6</f>
+        <v>0.56744898941973232</v>
       </c>
       <c r="C31">
-        <f>POP!B31*iTRA!E31</f>
-        <v>1039131.7313949926</v>
+        <f>POP!B31*iTRA!C31/10^6</f>
+        <v>0.13690001275536959</v>
       </c>
       <c r="D31">
-        <f>GDP!D31*COMFLOOR!B31*iCOM!E31</f>
-        <v>576899.31608903105</v>
+        <f>GDP!D31*COMFLOOR!B31*iCOM!C31/10^6</f>
+        <v>7.9903040348617962E-2</v>
       </c>
       <c r="E31">
-        <f>POP!D31*iRES!D31</f>
-        <v>413999.98113529064</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <f>POP!D31*iRES!C31/10^6</f>
+        <v>6.0257073104111408E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.84450911562783126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2040</v>
       </c>
       <c r="B32">
-        <f>GDP!D32*iIND!E32</f>
-        <v>1122377.8205318195</v>
+        <f>GDP!D32*iIND!C32/10^6</f>
+        <v>0.42841911220773254</v>
       </c>
       <c r="C32">
-        <f>POP!B32*iTRA!E32</f>
-        <v>1009885.124444227</v>
+        <f>POP!B32*iTRA!C32/10^6</f>
+        <v>7.5570656070653192E-2</v>
       </c>
       <c r="D32">
-        <f>GDP!D32*COMFLOOR!B32*iCOM!E32</f>
-        <v>540458.2763227321</v>
+        <f>GDP!D32*COMFLOOR!B32*iCOM!C32/10^6</f>
+        <v>4.3191796234398554E-2</v>
       </c>
       <c r="E32">
-        <f>POP!D32*iRES!D32</f>
-        <v>372938.53632576769</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <f>POP!D32*iRES!C32/10^6</f>
+        <v>3.1808456045980843E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.57899002055876503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2041</v>
       </c>
       <c r="B33">
-        <f>GDP!D33*iIND!E33</f>
-        <v>1029567.687850637</v>
+        <f>GDP!D33*iIND!C33/10^6</f>
+        <v>0.31439429163183924</v>
       </c>
       <c r="C33">
-        <f>POP!B33*iTRA!E33</f>
-        <v>980549.36304500629</v>
+        <f>POP!B33*iTRA!C33/10^6</f>
+        <v>3.8155225360104163E-2</v>
       </c>
       <c r="D33">
-        <f>GDP!D33*COMFLOOR!B33*iCOM!E33</f>
-        <v>506446.65763220418</v>
+        <f>GDP!D33*COMFLOOR!B33*iCOM!C33/10^6</f>
+        <v>2.1451055804166355E-2</v>
       </c>
       <c r="E33">
-        <f>POP!D33*iRES!D33</f>
-        <v>333506.10547423863</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <f>POP!D33*iRES!C33/10^6</f>
+        <v>1.5360412406937529E-2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.38936098520304729</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2042</v>
       </c>
       <c r="B34">
-        <f>GDP!D34*iIND!E34</f>
-        <v>940280.74514124764</v>
+        <f>GDP!D34*iIND!C34/10^6</f>
+        <v>0.7291877178570384</v>
       </c>
       <c r="C34">
-        <f>POP!B34*iTRA!E34</f>
-        <v>951499.39611562528</v>
+        <f>POP!B34*iTRA!C34/10^6</f>
+        <v>0.48526469201897376</v>
       </c>
       <c r="D34">
-        <f>GDP!D34*COMFLOOR!B34*iCOM!E34</f>
-        <v>473250.8486261121</v>
+        <f>GDP!D34*COMFLOOR!B34*iCOM!C34/10^6</f>
+        <v>0.24609044128557975</v>
       </c>
       <c r="E34">
-        <f>POP!D34*iRES!D34</f>
-        <v>295827.81304117077</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <f>POP!D34*iRES!C34/10^6</f>
+        <v>0.15678874091182193</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1.6173315920734139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2043</v>
       </c>
       <c r="B35">
-        <f>GDP!D35*iIND!E35</f>
-        <v>854581.98192239145</v>
+        <f>GDP!D35*iIND!C35/10^6</f>
+        <v>0.62895524705524375</v>
       </c>
       <c r="C35">
-        <f>POP!B35*iTRA!E35</f>
-        <v>922733.000978834</v>
+        <f>POP!B35*iTRA!C35/10^6</f>
+        <v>0.43922090846593376</v>
       </c>
       <c r="D35">
-        <f>GDP!D35*COMFLOOR!B35*iCOM!E35</f>
-        <v>440881.71311617683</v>
+        <f>GDP!D35*COMFLOOR!B35*iCOM!C35/10^6</f>
+        <v>0.21428173902585679</v>
       </c>
       <c r="E35">
-        <f>POP!D35*iRES!D35</f>
-        <v>259878.7660251421</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <f>POP!D35*iRES!C35/10^6</f>
+        <v>0.12892065824975241</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1.4113785527967866</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2044</v>
       </c>
       <c r="B36">
-        <f>GDP!D36*iIND!E36</f>
-        <v>772537.11567901459</v>
+        <f>GDP!D36*iIND!C36/10^6</f>
+        <v>0.52802232023998841</v>
       </c>
       <c r="C36">
-        <f>POP!B36*iTRA!E36</f>
-        <v>894247.97058316611</v>
+        <f>POP!B36*iTRA!C36/10^6</f>
+        <v>0.37710250915915322</v>
       </c>
       <c r="D36">
-        <f>GDP!D36*COMFLOOR!B36*iCOM!E36</f>
-        <v>409350.43047583511</v>
+        <f>GDP!D36*COMFLOOR!B36*iCOM!C36/10^6</f>
+        <v>0.17672026499029123</v>
       </c>
       <c r="E36">
-        <f>POP!D36*iRES!D36</f>
-        <v>225634.32673792465</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <f>POP!D36*iRES!C36/10^6</f>
+        <v>9.9680353800609647E-2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>1.1815254481900426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2045</v>
       </c>
       <c r="B37">
-        <f>GDP!D37*iIND!E37</f>
-        <v>694212.59851399797</v>
+        <f>GDP!D37*iIND!C37/10^6</f>
+        <v>0.43097766654457909</v>
       </c>
       <c r="C37">
-        <f>POP!B37*iTRA!E37</f>
-        <v>866042.11339931563</v>
+        <f>POP!B37*iTRA!C37/10^6</f>
+        <v>0.30623822020123309</v>
       </c>
       <c r="D37">
-        <f>GDP!D37*COMFLOOR!B37*iCOM!E37</f>
-        <v>378668.50492241932</v>
+        <f>GDP!D37*COMFLOOR!B37*iCOM!C37/10^6</f>
+        <v>0.13761618911179979</v>
       </c>
       <c r="E37">
-        <f>POP!D37*iRES!D37</f>
-        <v>193070.11057372703</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <f>POP!D37*iRES!C37/10^6</f>
+        <v>7.2081951957696358E-2</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0.94691402781530842</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2046</v>
       </c>
       <c r="B38">
-        <f>GDP!D38*iIND!E38</f>
-        <v>619488.69605714432</v>
+        <f>GDP!D38*iIND!C38/10^6</f>
+        <v>0.34147245377023172</v>
       </c>
       <c r="C38">
-        <f>POP!B38*iTRA!E38</f>
-        <v>837907.18315234943</v>
+        <f>POP!B38*iTRA!C38/10^6</f>
+        <v>0.23441439408412981</v>
       </c>
       <c r="D38">
-        <f>GDP!D38*COMFLOOR!B38*iCOM!E38</f>
-        <v>348525.33409770631</v>
+        <f>GDP!D38*COMFLOOR!B38*iCOM!C38/10^6</f>
+        <v>0.10075019165196659</v>
       </c>
       <c r="E38">
-        <f>POP!D38*iRES!D38</f>
-        <v>162122.11239840576</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <f>POP!D38*iRES!C38/10^6</f>
+        <v>4.8402743857731703E-2</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0.72503978336405983</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2047</v>
       </c>
       <c r="B39">
-        <f>GDP!D39*iIND!E39</f>
-        <v>548662.9703187854</v>
+        <f>GDP!D39*iIND!C39/10^6</f>
+        <v>0.262345929826237</v>
       </c>
       <c r="C39">
-        <f>POP!B39*iTRA!E39</f>
-        <v>810060.73701358575</v>
+        <f>POP!B39*iTRA!C39/10^6</f>
+        <v>0.16856969889170775</v>
       </c>
       <c r="D39">
-        <f>GDP!D39*COMFLOOR!B39*iCOM!E39</f>
-        <v>319310.30724296399</v>
+        <f>GDP!D39*COMFLOOR!B39*iCOM!C39/10^6</f>
+        <v>6.9142093033305138E-2</v>
       </c>
       <c r="E39">
-        <f>POP!D39*iRES!D39</f>
-        <v>132820.72294986405</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <f>POP!D39*iRES!C39/10^6</f>
+        <v>2.9910897883858079E-2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0.52996861963510788</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2048</v>
       </c>
       <c r="B40">
-        <f>GDP!D40*iIND!E40</f>
-        <v>481800.54823541699</v>
+        <f>GDP!D40*iIND!C40/10^6</f>
+        <v>0.19512402371793661</v>
       </c>
       <c r="C40">
-        <f>POP!B40*iTRA!E40</f>
-        <v>782500.42328426917</v>
+        <f>POP!B40*iTRA!C40/10^6</f>
+        <v>0.11341779118910715</v>
       </c>
       <c r="D40">
-        <f>GDP!D40*COMFLOOR!B40*iCOM!E40</f>
-        <v>291033.17076188646</v>
+        <f>GDP!D40*COMFLOOR!B40*iCOM!C40/10^6</f>
+        <v>4.4284984128799942E-2</v>
       </c>
       <c r="E40">
-        <f>POP!D40*iRES!D40</f>
-        <v>105141.11212833889</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <f>POP!D40*iRES!C40/10^6</f>
+        <v>1.6785387188060222E-2</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0.3696121862239039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2049</v>
       </c>
       <c r="B41">
-        <f>GDP!D41*iIND!E41</f>
-        <v>418967.2368925137</v>
+        <f>GDP!D41*iIND!C41/10^6</f>
+        <v>0.14023409745534837</v>
       </c>
       <c r="C41">
-        <f>POP!B41*iTRA!E41</f>
-        <v>755223.90757459786</v>
+        <f>POP!B41*iTRA!C41/10^6</f>
+        <v>7.1069060733540468E-2</v>
       </c>
       <c r="D41">
-        <f>GDP!D41*COMFLOOR!B41*iCOM!E41</f>
-        <v>263704.02406754001</v>
+        <f>GDP!D41*COMFLOOR!B41*iCOM!C41/10^6</f>
+        <v>2.6339526399086068E-2</v>
       </c>
       <c r="E41">
-        <f>POP!D41*iRES!D41</f>
-        <v>79058.717753433375</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <f>POP!D41*iRES!C41/10^6</f>
+        <v>8.3752587065048425E-3</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0.24601794329447976</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2050</v>
       </c>
       <c r="B42">
-        <f>GDP!D42*iIND!E42</f>
-        <v>360229.52935489529</v>
+        <f>GDP!D42*iIND!C42/10^6</f>
+        <v>9.7173682154640506E-2</v>
       </c>
       <c r="C42">
-        <f>POP!B42*iTRA!E42</f>
-        <v>728228.87268353836</v>
+        <f>POP!B42*iTRA!C42/10^6</f>
+        <v>4.1254300823735747E-2</v>
       </c>
       <c r="D42">
-        <f>GDP!D42*COMFLOOR!B42*iCOM!E42</f>
-        <v>237333.33219978012</v>
+        <f>GDP!D42*COMFLOOR!B42*iCOM!C42/10^6</f>
+        <v>1.4463543095963651E-2</v>
       </c>
       <c r="E42">
-        <f>POP!D42*iRES!D42</f>
-        <v>54549.243108475486</v>
+        <f>POP!D42*iRES!C42/10^6</f>
+        <v>3.5728020429770294E-3</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0.15646432811731692</v>
       </c>
     </row>
   </sheetData>
@@ -14261,17 +13248,17 @@
       <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -14279,7 +13266,7 @@
         <v>0.90509542880924898</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -14287,7 +13274,7 @@
         <v>0.90634179687697403</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -14295,7 +13282,7 @@
         <v>0.90931390033078996</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -14303,7 +13290,7 @@
         <v>0.90579011844059698</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -14311,7 +13298,7 @@
         <v>0.91084416308302496</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -14319,7 +13306,7 @@
         <v>0.911547003404931</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -14327,7 +13314,7 @@
         <v>0.897322110943927</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -14335,7 +13322,7 @@
         <v>0.89979408323514198</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -14343,7 +13330,7 @@
         <v>0.89832727188289996</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -14351,7 +13338,7 @@
         <v>0.898813117102369</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>

--- a/xlsx/datasample_ver2.xlsx
+++ b/xlsx/datasample_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0E3107-BFD6-44DB-97FD-F875A6F48867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B3C259-5506-4517-9802-601C463B960A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2385" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2385" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GDP" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,11 @@
     <sheet name="sCOM" sheetId="17" r:id="rId12"/>
     <sheet name="sRES" sheetId="18" r:id="rId13"/>
     <sheet name="sELE" sheetId="19" r:id="rId14"/>
+    <sheet name="eELE" sheetId="20" r:id="rId15"/>
+    <sheet name="EMF" sheetId="21" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="34">
   <si>
     <t>Year</t>
   </si>
@@ -255,60 +257,63 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="生徒用"/>
+      <sheetName val="GDP・人口・省エネ"/>
       <sheetName val="部門別エネルギーキャリアシェア"/>
       <sheetName val="電源構成"/>
+      <sheetName val="グラフ"/>
       <sheetName val="最終エネルギー消費"/>
+      <sheetName val="発電電力量"/>
       <sheetName val="一次エネルギー供給"/>
+      <sheetName val="部門別CO2排出量"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>80</v>
+            <v>100</v>
           </cell>
           <cell r="D2">
-            <v>30</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>90</v>
+            <v>100</v>
           </cell>
           <cell r="D3">
-            <v>10</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>80</v>
+            <v>90</v>
           </cell>
           <cell r="D5">
-            <v>31</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>52</v>
+            <v>90</v>
           </cell>
           <cell r="D6">
-            <v>32</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>53</v>
+            <v>90</v>
           </cell>
           <cell r="D7">
-            <v>33</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>54</v>
+            <v>90</v>
           </cell>
           <cell r="D8">
-            <v>34</v>
+            <v>80</v>
           </cell>
         </row>
       </sheetData>
@@ -369,16 +374,16 @@
             <v>0</v>
           </cell>
           <cell r="D5">
-            <v>0</v>
+            <v>50</v>
           </cell>
           <cell r="E5">
-            <v>20</v>
+            <v>0</v>
           </cell>
           <cell r="F5">
             <v>20</v>
           </cell>
           <cell r="G5">
-            <v>60</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="6">
@@ -483,33 +488,33 @@
             <v>10</v>
           </cell>
           <cell r="L2">
-            <v>5</v>
+            <v>0.25</v>
           </cell>
           <cell r="M2">
             <v>2.5</v>
           </cell>
           <cell r="N2">
-            <v>2.5</v>
+            <v>7.25</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
+            <v>20</v>
+          </cell>
+          <cell r="C3">
             <v>0</v>
           </cell>
-          <cell r="C3">
-            <v>10</v>
-          </cell>
           <cell r="D3">
-            <v>0</v>
+            <v>5</v>
           </cell>
           <cell r="E3">
             <v>0</v>
           </cell>
           <cell r="F3">
-            <v>5</v>
+            <v>20</v>
           </cell>
           <cell r="G3">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="H3">
             <v>0</v>
@@ -524,18 +529,21 @@
             <v>5</v>
           </cell>
           <cell r="L3">
-            <v>5</v>
+            <v>0.25</v>
           </cell>
           <cell r="M3">
             <v>5</v>
           </cell>
           <cell r="N3">
-            <v>10</v>
+            <v>14.75</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1027,11 +1035,11 @@
       </c>
       <c r="C13">
         <f>_xlfn.FORECAST.LINEAR(A13,$C$45:$C$46,$A$45:$A$46)</f>
-        <v>0.97999999999999687</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>6266442.526237742</v>
+        <v>6394329.1084058797</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1043,11 +1051,11 @@
       </c>
       <c r="C14">
         <f t="shared" ref="C14:C21" si="2">_xlfn.FORECAST.LINEAR(A14,$C$45:$C$46,$A$45:$A$46)</f>
-        <v>0.96000000000000085</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>6202667.0494358744</v>
+        <v>6461111.5098290304</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1059,11 +1067,11 @@
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
-        <v>0.93999999999999773</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>6136875.9037304753</v>
+        <v>6528591.3869473301</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,11 +1083,11 @@
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
-        <v>0.9199999999999946</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>6069033.9422639739</v>
+        <v>6596776.0242000101</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1091,11 +1099,11 @@
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>0.89999999999999858</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>5999105.5038945088</v>
+        <v>6665672.7821050202</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1107,11 +1115,11 @@
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>0.87999999999999545</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>5919744.471445187</v>
+        <v>6726982.3539150199</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1123,11 +1131,11 @@
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>0.85999999999999943</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>5838416.0218273308</v>
+        <v>6788855.8393341098</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,11 +1147,11 @@
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>0.83999999999999631</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>5755090.677109872</v>
+        <v>6851298.4251308301</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,11 +1163,11 @@
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>0.82000000000000028</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>5669738.5835401108</v>
+        <v>6914315.3457806204</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,11 +1179,11 @@
       </c>
       <c r="C22">
         <f>_xlfn.FORECAST.LINEAR(A22,$C$46:$C$47,$A$46:$A$47)</f>
-        <v>0.79999999999999716</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>5582329.5071236677</v>
+        <v>6977911.8839046098</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1187,11 +1195,11 @@
       </c>
       <c r="C23">
         <f t="shared" ref="C23:C42" si="3">_xlfn.FORECAST.LINEAR(A23,$C$46:$C$47,$A$46:$A$47)</f>
-        <v>0.77499999999999147</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>5443501.1164161572</v>
+        <v>7023872.4082789896</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1203,11 +1211,11 @@
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>0.74999999999999289</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>5302601.7412435822</v>
+        <v>7070135.6549915103</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1219,11 +1227,11 @@
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>0.72499999999999432</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>5159610.1230099825</v>
+        <v>7116703.6179448599</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1235,11 +1243,11 @@
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
-        <v>0.69999999999999574</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>5014504.8129222877</v>
+        <v>7163578.3041747399</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1251,11 +1259,11 @@
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
-        <v>0.67499999999999716</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>4867264.1704070028</v>
+        <v>7210761.7339363303</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1267,11 +1275,11 @@
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
-        <v>0.64999999999999147</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>4710730.6403667936</v>
+        <v>7247277.9082567003</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1283,11 +1291,11 @@
       </c>
       <c r="C29">
         <f t="shared" si="3"/>
-        <v>0.62499999999999289</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>4552486.878077792</v>
+        <v>7283979.0049245497</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1299,11 +1307,11 @@
       </c>
       <c r="C30">
         <f t="shared" si="3"/>
-        <v>0.59999999999999432</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>4392519.576245443</v>
+        <v>7320865.9604091402</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1315,11 +1323,11 @@
       </c>
       <c r="C31">
         <f t="shared" si="3"/>
-        <v>0.57499999999999574</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>4230815.3366551939</v>
+        <v>7357939.7159221303</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1331,11 +1339,11 @@
       </c>
       <c r="C32">
         <f t="shared" si="3"/>
-        <v>0.54999999999999716</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>4067360.6695928369</v>
+        <v>7395201.2174415598</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,11 +1355,11 @@
       </c>
       <c r="C33">
         <f t="shared" si="3"/>
-        <v>0.52499999999999147</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>3903337.5351224411</v>
+        <v>7434928.6383285802</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1363,11 +1371,11 @@
       </c>
       <c r="C34">
         <f t="shared" si="3"/>
-        <v>0.49999999999999289</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>3737434.7385345171</v>
+        <v>7474869.4770691404</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1379,11 +1387,11 @@
       </c>
       <c r="C35">
         <f t="shared" si="3"/>
-        <v>0.47499999999999432</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>3569636.8180738199</v>
+        <v>7515024.8801555</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1395,11 +1403,11 @@
       </c>
       <c r="C36">
         <f t="shared" si="3"/>
-        <v>0.44999999999999574</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>3399928.2001074818</v>
+        <v>7555396.0002389196</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,11 +1419,11 @@
       </c>
       <c r="C37">
         <f t="shared" si="3"/>
-        <v>0.42499999999999716</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>3228293.1983691556</v>
+        <v>7595983.9961627703</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1427,11 +1435,11 @@
       </c>
       <c r="C38">
         <f t="shared" si="3"/>
-        <v>0.39999999999999147</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>3053794.545074943</v>
+        <v>7634486.3626875198</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1443,11 +1451,11 @@
       </c>
       <c r="C39">
         <f t="shared" si="3"/>
-        <v>0.37499999999999289</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>2877443.9584541153</v>
+        <v>7673183.8892111201</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1459,11 +1467,11 @@
       </c>
       <c r="C40">
         <f t="shared" si="3"/>
-        <v>0.34999999999999432</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>2699227.1477347487</v>
+        <v>7712077.5649565496</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1475,11 +1483,11 @@
       </c>
       <c r="C41">
         <f t="shared" si="3"/>
-        <v>0.32499999999999574</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>2519129.7248522625</v>
+        <v>7751168.3841609098</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,11 +1499,11 @@
       </c>
       <c r="C42">
         <f t="shared" si="3"/>
-        <v>0.29999999999999716</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>2337137.2038302477</v>
+        <v>7790457.3461009003</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1526,8 +1534,8 @@
         <v>6977911.8839046098</v>
       </c>
       <c r="C46">
-        <f>[1]生徒用!$B$2/100</f>
-        <v>0.8</v>
+        <f>[1]GDP・人口・省エネ!$B$2/100</f>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1540,8 +1548,8 @@
         <v>7790457.3461009003</v>
       </c>
       <c r="C47">
-        <f>[1]生徒用!$D$2/100</f>
-        <v>0.3</v>
+        <f>[1]GDP・人口・省エネ!$D$2/100</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3360,11 +3368,11 @@
       </c>
       <c r="D23">
         <f t="shared" ref="D23:G23" si="2">_xlfn.FORECAST.LINEAR($B23,D$46:D$47,$B$46:$B$47)</f>
-        <v>0.76000000000001933</v>
+        <v>0.78499999999999659</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>9.9999999999980105E-3</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
@@ -3372,7 +3380,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>0.12500000000000711</v>
+        <v>0.10999999999999588</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3388,19 +3396,19 @@
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>0.72000000000001307</v>
+        <v>0.76999999999999602</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
         <v>1.9999999999999574E-2</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="3"/>
-        <v>1.9999999999999574E-2</v>
-      </c>
       <c r="G24">
         <f t="shared" si="3"/>
-        <v>0.15000000000000568</v>
+        <v>0.11999999999999744</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3416,19 +3424,19 @@
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>0.68000000000000682</v>
+        <v>0.75499999999999901</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
         <v>3.0000000000001137E-2</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="3"/>
-        <v>3.0000000000001137E-2</v>
-      </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>0.17500000000000426</v>
+        <v>0.12999999999999901</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3444,19 +3452,19 @@
       </c>
       <c r="D26">
         <f t="shared" si="3"/>
-        <v>0.64000000000001478</v>
+        <v>0.73999999999999844</v>
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
         <v>3.9999999999999147E-2</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="3"/>
-        <v>3.9999999999999147E-2</v>
-      </c>
       <c r="G26">
         <f t="shared" si="3"/>
-        <v>0.20000000000000284</v>
+        <v>0.13999999999999702</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3472,19 +3480,19 @@
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
-        <v>0.60000000000000853</v>
+        <v>0.72499999999999787</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
         <v>5.0000000000000711E-2</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000711E-2</v>
-      </c>
       <c r="G27">
         <f t="shared" si="3"/>
-        <v>0.22500000000000142</v>
+        <v>0.14999999999999858</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3500,19 +3508,19 @@
       </c>
       <c r="D28">
         <f t="shared" si="3"/>
-        <v>0.56000000000001648</v>
+        <v>0.7099999999999973</v>
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
         <v>5.9999999999998721E-2</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="3"/>
-        <v>5.9999999999998721E-2</v>
-      </c>
       <c r="G28">
         <f t="shared" si="3"/>
-        <v>0.25000000000000711</v>
+        <v>0.15999999999999659</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3528,19 +3536,19 @@
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
-        <v>0.52000000000001023</v>
+        <v>0.69499999999999673</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
         <v>7.0000000000000284E-2</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="3"/>
-        <v>7.0000000000000284E-2</v>
-      </c>
       <c r="G29">
         <f t="shared" si="3"/>
-        <v>0.27500000000000568</v>
+        <v>0.16999999999999815</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3556,19 +3564,19 @@
       </c>
       <c r="D30">
         <f t="shared" si="3"/>
-        <v>0.48000000000001819</v>
+        <v>0.67999999999999616</v>
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
         <v>7.9999999999998295E-2</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="3"/>
-        <v>7.9999999999998295E-2</v>
-      </c>
       <c r="G30">
         <f t="shared" si="3"/>
-        <v>0.30000000000000426</v>
+        <v>0.17999999999999616</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3584,19 +3592,19 @@
       </c>
       <c r="D31">
         <f t="shared" si="3"/>
-        <v>0.44000000000001194</v>
+        <v>0.66499999999999915</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="3"/>
-        <v>8.9999999999999858E-2</v>
-      </c>
       <c r="G31">
         <f t="shared" si="3"/>
-        <v>0.32500000000000284</v>
+        <v>0.18999999999999773</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3612,19 +3620,19 @@
       </c>
       <c r="D32">
         <f t="shared" si="3"/>
-        <v>0.40000000000000568</v>
+        <v>0.64999999999999858</v>
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
         <v>0.10000000000000142</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="3"/>
-        <v>0.10000000000000142</v>
-      </c>
       <c r="G32">
         <f t="shared" si="3"/>
-        <v>0.35000000000000142</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3640,19 +3648,19 @@
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
-        <v>0.36000000000001364</v>
+        <v>0.63499999999999801</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
         <v>0.10999999999999943</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="3"/>
-        <v>0.10999999999999943</v>
-      </c>
       <c r="G33">
         <f t="shared" si="3"/>
-        <v>0.37500000000000711</v>
+        <v>0.2099999999999973</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3668,19 +3676,19 @@
       </c>
       <c r="D34">
         <f t="shared" si="3"/>
-        <v>0.32000000000000739</v>
+        <v>0.61999999999999744</v>
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
         <v>0.12000000000000099</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="3"/>
-        <v>0.12000000000000099</v>
-      </c>
       <c r="G34">
         <f t="shared" si="3"/>
-        <v>0.40000000000000568</v>
+        <v>0.21999999999999886</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3696,19 +3704,19 @@
       </c>
       <c r="D35">
         <f t="shared" si="3"/>
-        <v>0.28000000000001535</v>
+        <v>0.60499999999999687</v>
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
         <v>0.12999999999999901</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="3"/>
-        <v>0.12999999999999901</v>
-      </c>
       <c r="G35">
         <f t="shared" si="3"/>
-        <v>0.42500000000000426</v>
+        <v>0.22999999999999687</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3724,19 +3732,19 @@
       </c>
       <c r="D36">
         <f t="shared" si="3"/>
-        <v>0.24000000000000909</v>
+        <v>0.58999999999999631</v>
       </c>
       <c r="E36">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
         <v>0.14000000000000057</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="3"/>
-        <v>0.14000000000000057</v>
-      </c>
       <c r="G36">
         <f t="shared" si="3"/>
-        <v>0.45000000000000284</v>
+        <v>0.23999999999999844</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3752,19 +3760,19 @@
       </c>
       <c r="D37">
         <f t="shared" si="3"/>
-        <v>0.20000000000001705</v>
+        <v>0.57499999999999929</v>
       </c>
       <c r="E37">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
         <v>0.14999999999999858</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="3"/>
-        <v>0.14999999999999858</v>
-      </c>
       <c r="G37">
         <f t="shared" si="3"/>
-        <v>0.47500000000000142</v>
+        <v>0.24999999999999645</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3780,19 +3788,19 @@
       </c>
       <c r="D38">
         <f t="shared" si="3"/>
-        <v>0.1600000000000108</v>
+        <v>0.55999999999999872</v>
       </c>
       <c r="E38">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
         <v>0.16000000000000014</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="3"/>
-        <v>0.16000000000000014</v>
-      </c>
       <c r="G38">
         <f t="shared" si="3"/>
-        <v>0.50000000000000711</v>
+        <v>0.25999999999999801</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3808,19 +3816,19 @@
       </c>
       <c r="D39">
         <f t="shared" si="3"/>
-        <v>0.12000000000001876</v>
+        <v>0.54499999999999815</v>
       </c>
       <c r="E39">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
         <v>0.16999999999999815</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="3"/>
-        <v>0.16999999999999815</v>
-      </c>
       <c r="G39">
         <f t="shared" si="3"/>
-        <v>0.52500000000000568</v>
+        <v>0.26999999999999602</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3836,19 +3844,19 @@
       </c>
       <c r="D40">
         <f t="shared" si="3"/>
-        <v>8.0000000000012506E-2</v>
+        <v>0.52999999999999758</v>
       </c>
       <c r="E40">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
         <v>0.17999999999999972</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="3"/>
-        <v>0.17999999999999972</v>
-      </c>
       <c r="G40">
         <f t="shared" si="3"/>
-        <v>0.55000000000000426</v>
+        <v>0.27999999999999758</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3864,19 +3872,19 @@
       </c>
       <c r="D41">
         <f t="shared" si="3"/>
-        <v>4.0000000000006253E-2</v>
+        <v>0.51499999999999702</v>
       </c>
       <c r="E41">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
         <v>0.19000000000000128</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="3"/>
-        <v>0.19000000000000128</v>
-      </c>
       <c r="G41">
         <f t="shared" si="3"/>
-        <v>0.57500000000000284</v>
+        <v>0.28999999999999915</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3892,19 +3900,19 @@
       </c>
       <c r="D42">
         <f t="shared" si="3"/>
-        <v>1.4210854715202004E-14</v>
+        <v>0.49999999999999645</v>
       </c>
       <c r="E42">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
         <v>0.19999999999999929</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="3"/>
-        <v>0.19999999999999929</v>
-      </c>
       <c r="G42">
         <f t="shared" si="3"/>
-        <v>0.60000000000000142</v>
+        <v>0.29999999999999716</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3979,11 +3987,11 @@
       </c>
       <c r="D47">
         <f>[1]部門別エネルギーキャリアシェア!D$5/100</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E47">
         <f>[1]部門別エネルギーキャリアシェア!E$5/100</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <f>[1]部門別エネルギーキャリアシェア!F$5/100</f>
@@ -3991,7 +3999,7 @@
       </c>
       <c r="G47">
         <f>[1]部門別エネルギーキャリアシェア!G$5/100</f>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -5225,8 +5233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFE1444-8CC5-4353-8220-42E985F1B99B}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:G42"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6445,8 +6453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15C086A-941B-4916-A30B-0E46DE038FF8}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7025,7 +7033,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>7.7141631783774756E-3</v>
+        <v>2.9641631783770134E-3</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
@@ -7033,7 +7041,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>7.4242989066945597E-2</v>
+        <v>7.8992989066945851E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -7041,7 +7049,7 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:N42" si="1">_xlfn.FORECAST.LINEAR($A14,B$45:B$46,$A$45:$A$46)</f>
+        <f t="shared" ref="B14:N21" si="1">_xlfn.FORECAST.LINEAR($A14,B$45:B$46,$A$45:$A$46)</f>
         <v>0.29074158703152619</v>
       </c>
       <c r="C14">
@@ -7082,7 +7090,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>1.2412589491891168E-2</v>
+        <v>2.9125894918906742E-3</v>
       </c>
       <c r="M14">
         <f t="shared" si="1"/>
@@ -7090,7 +7098,7 @@
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>6.877154583728462E-2</v>
+        <v>7.827154583728535E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7139,7 +7147,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>1.7111015805404861E-2</v>
+        <v>2.8610158054043489E-3</v>
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
@@ -7147,7 +7155,7 @@
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>6.3300102607625419E-2</v>
+        <v>7.7550102607624627E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -7196,7 +7204,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>2.1809442118918554E-2</v>
+        <v>2.8094421189180097E-3</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
@@ -7204,7 +7212,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>5.7828659377964442E-2</v>
+        <v>7.6828659377963904E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -7253,7 +7261,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>2.6507868432432247E-2</v>
+        <v>2.7578684324316705E-3</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
@@ -7261,7 +7269,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>5.2357216148303465E-2</v>
+        <v>7.6107216148303403E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -7310,7 +7318,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>3.1206294745945939E-2</v>
+        <v>2.7062947459453451E-3</v>
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
@@ -7318,7 +7326,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="1"/>
-        <v>4.6885772918642488E-2</v>
+        <v>7.5385772918642679E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -7367,7 +7375,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>3.5904721059459632E-2</v>
+        <v>2.6547210594590059E-3</v>
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
@@ -7375,7 +7383,7 @@
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
-        <v>4.141432968898151E-2</v>
+        <v>7.4664329688981956E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -7424,7 +7432,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>4.0603147372973325E-2</v>
+        <v>2.6031473729726667E-3</v>
       </c>
       <c r="M20">
         <f t="shared" si="1"/>
@@ -7432,7 +7440,7 @@
       </c>
       <c r="N20">
         <f t="shared" si="1"/>
-        <v>3.5942886459320533E-2</v>
+        <v>7.3942886459321233E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -7481,7 +7489,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>4.5301573686487018E-2</v>
+        <v>2.5515736864863414E-3</v>
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
@@ -7489,7 +7497,7 @@
       </c>
       <c r="N21">
         <f t="shared" si="1"/>
-        <v>3.0471443229661332E-2</v>
+        <v>7.3221443229660732E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -7498,15 +7506,15 @@
       </c>
       <c r="B22">
         <f>_xlfn.FORECAST.LINEAR($A22,B$46:B$47,$A$46:$A$47)</f>
-        <v>0.20000000000000284</v>
+        <v>0.2</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:O22" si="2">_xlfn.FORECAST.LINEAR($A22,C$46:C$47,$A$46:$A$47)</f>
+        <f t="shared" ref="C22:N22" si="2">_xlfn.FORECAST.LINEAR($A22,C$46:C$47,$A$46:$A$47)</f>
         <v>0</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>5.0000000000000711E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
@@ -7514,7 +7522,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>0.39999999999999858</v>
+        <v>0.40000000000000213</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
@@ -7538,7 +7546,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M22">
         <f t="shared" si="2"/>
@@ -7546,7 +7554,7 @@
       </c>
       <c r="N22">
         <f t="shared" si="2"/>
-        <v>2.5000000000000355E-2</v>
+        <v>7.2500000000000675E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -7554,48 +7562,48 @@
         <v>2031</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:O42" si="3">_xlfn.FORECAST.LINEAR($A23,B$46:B$47,$A$46:$A$47)</f>
-        <v>0.19000000000000483</v>
+        <f t="shared" ref="B23:N42" si="3">_xlfn.FORECAST.LINEAR($A23,B$46:B$47,$A$46:$A$47)</f>
+        <v>0.2</v>
       </c>
       <c r="C23">
         <f t="shared" si="3"/>
-        <v>4.9999999999990052E-3</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0.39000000000000412</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>9.5000000000002416E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
         <v>4.7500000000001208E-2</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="3"/>
-        <v>0.38250000000000028</v>
-      </c>
-      <c r="G23">
+      <c r="J23">
         <f t="shared" si="3"/>
         <v>1.5000000000000568E-2</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="3"/>
-        <v>9.5000000000002416E-2</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="3"/>
-        <v>4.7500000000001208E-2</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="3"/>
-        <v>1.5000000000000568E-2</v>
-      </c>
       <c r="K23">
         <f t="shared" si="3"/>
         <v>9.750000000000103E-2</v>
       </c>
       <c r="L23">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M23">
         <f t="shared" si="3"/>
@@ -7603,7 +7611,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="3"/>
-        <v>2.8750000000000497E-2</v>
+        <v>7.6250000000000817E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -7612,47 +7620,47 @@
       </c>
       <c r="B24">
         <f t="shared" si="3"/>
-        <v>0.18000000000000327</v>
+        <v>0.2</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>9.9999999999997868E-3</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>0.38000000000000256</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>9.0000000000001634E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
         <v>4.5000000000000817E-2</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="3"/>
-        <v>0.36500000000000199</v>
-      </c>
-      <c r="G24">
+      <c r="J24">
         <f t="shared" si="3"/>
         <v>3.0000000000001137E-2</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="3"/>
-        <v>9.0000000000001634E-2</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="3"/>
-        <v>4.5000000000000817E-2</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="3"/>
-        <v>3.0000000000001137E-2</v>
-      </c>
       <c r="K24">
         <f t="shared" si="3"/>
         <v>9.5000000000000639E-2</v>
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M24">
         <f t="shared" si="3"/>
@@ -7660,7 +7668,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="3"/>
-        <v>3.2500000000000639E-2</v>
+        <v>8.0000000000000959E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -7669,47 +7677,47 @@
       </c>
       <c r="B25">
         <f t="shared" si="3"/>
-        <v>0.17000000000000171</v>
+        <v>0.2</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>1.5000000000000568E-2</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>0.37000000000000099</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>8.5000000000000853E-2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
         <v>4.2500000000000426E-2</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="3"/>
-        <v>0.34750000000000369</v>
-      </c>
-      <c r="G25">
+      <c r="J25">
         <f t="shared" si="3"/>
         <v>4.4999999999998153E-2</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="3"/>
-        <v>8.5000000000000853E-2</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="3"/>
-        <v>4.2500000000000426E-2</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="3"/>
-        <v>4.4999999999998153E-2</v>
-      </c>
       <c r="K25">
         <f t="shared" si="3"/>
         <v>9.2500000000000249E-2</v>
       </c>
       <c r="L25">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M25">
         <f t="shared" si="3"/>
@@ -7717,7 +7725,7 @@
       </c>
       <c r="N25">
         <f t="shared" si="3"/>
-        <v>3.6249999999999893E-2</v>
+        <v>8.3750000000000213E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -7726,47 +7734,47 @@
       </c>
       <c r="B26">
         <f t="shared" si="3"/>
-        <v>0.16000000000000369</v>
+        <v>0.2</v>
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
-        <v>1.9999999999999574E-2</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0.36000000000000298</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>8.0000000000001847E-2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
         <v>4.0000000000000924E-2</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="3"/>
-        <v>0.32999999999999829</v>
-      </c>
-      <c r="G26">
+      <c r="J26">
         <f t="shared" si="3"/>
         <v>5.9999999999998721E-2</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="3"/>
-        <v>8.0000000000001847E-2</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="3"/>
-        <v>4.0000000000000924E-2</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="3"/>
-        <v>5.9999999999998721E-2</v>
-      </c>
       <c r="K26">
         <f t="shared" si="3"/>
         <v>9.0000000000000746E-2</v>
       </c>
       <c r="L26">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M26">
         <f t="shared" si="3"/>
@@ -7774,7 +7782,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="3"/>
-        <v>4.0000000000000036E-2</v>
+        <v>8.7500000000000355E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -7783,47 +7791,47 @@
       </c>
       <c r="B27">
         <f t="shared" si="3"/>
-        <v>0.15000000000000213</v>
+        <v>0.2</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
-        <v>2.5000000000000355E-2</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>0.35000000000000142</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>7.5000000000001066E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
         <v>3.7500000000000533E-2</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="3"/>
-        <v>0.3125</v>
-      </c>
-      <c r="G27">
+      <c r="J27">
         <f t="shared" si="3"/>
         <v>7.4999999999999289E-2</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="3"/>
-        <v>7.5000000000001066E-2</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="3"/>
-        <v>3.7500000000000533E-2</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="3"/>
-        <v>7.4999999999999289E-2</v>
-      </c>
       <c r="K27">
         <f t="shared" si="3"/>
         <v>8.7500000000000355E-2</v>
       </c>
       <c r="L27">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M27">
         <f t="shared" si="3"/>
@@ -7831,7 +7839,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="3"/>
-        <v>4.3750000000000178E-2</v>
+        <v>9.1250000000000497E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -7840,47 +7848,47 @@
       </c>
       <c r="B28">
         <f t="shared" si="3"/>
-        <v>0.14000000000000412</v>
+        <v>0.2</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
-        <v>2.9999999999999361E-2</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>0.34000000000000341</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>7.0000000000002061E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
         <v>3.500000000000103E-2</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="3"/>
-        <v>0.29500000000000171</v>
-      </c>
-      <c r="G28">
+      <c r="J28">
         <f t="shared" si="3"/>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="3"/>
-        <v>7.0000000000002061E-2</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="3"/>
-        <v>3.500000000000103E-2</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="3"/>
-        <v>8.9999999999999858E-2</v>
-      </c>
       <c r="K28">
         <f t="shared" si="3"/>
         <v>8.5000000000000853E-2</v>
       </c>
       <c r="L28">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M28">
         <f t="shared" si="3"/>
@@ -7888,7 +7896,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="3"/>
-        <v>4.750000000000032E-2</v>
+        <v>9.5000000000000639E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -7897,47 +7905,47 @@
       </c>
       <c r="B29">
         <f t="shared" si="3"/>
-        <v>0.13000000000000256</v>
+        <v>0.2</v>
       </c>
       <c r="C29">
         <f t="shared" si="3"/>
-        <v>3.5000000000000142E-2</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>0.33000000000000185</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>6.5000000000001279E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
         <v>3.2500000000000639E-2</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="3"/>
-        <v>0.27750000000000341</v>
-      </c>
-      <c r="G29">
+      <c r="J29">
         <f t="shared" si="3"/>
         <v>0.10500000000000043</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="3"/>
-        <v>6.5000000000001279E-2</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="3"/>
-        <v>3.2500000000000639E-2</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="3"/>
-        <v>0.10500000000000043</v>
-      </c>
       <c r="K29">
         <f t="shared" si="3"/>
         <v>8.2500000000000462E-2</v>
       </c>
       <c r="L29">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M29">
         <f t="shared" si="3"/>
@@ -7945,7 +7953,7 @@
       </c>
       <c r="N29">
         <f t="shared" si="3"/>
-        <v>5.1250000000000462E-2</v>
+        <v>9.8750000000000782E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -7954,47 +7962,47 @@
       </c>
       <c r="B30">
         <f t="shared" si="3"/>
-        <v>0.12000000000000455</v>
+        <v>0.2</v>
       </c>
       <c r="C30">
         <f t="shared" si="3"/>
-        <v>3.9999999999999147E-2</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>0.32000000000000384</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
         <v>3.0000000000001137E-2</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="3"/>
-        <v>0.25999999999999801</v>
-      </c>
-      <c r="G30">
+      <c r="J30">
         <f t="shared" si="3"/>
         <v>0.12000000000000099</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="3"/>
-        <v>6.0000000000002274E-2</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="3"/>
-        <v>3.0000000000001137E-2</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="3"/>
-        <v>0.12000000000000099</v>
-      </c>
       <c r="K30">
         <f t="shared" si="3"/>
         <v>8.0000000000000959E-2</v>
       </c>
       <c r="L30">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M30">
         <f t="shared" si="3"/>
@@ -8002,7 +8010,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="3"/>
-        <v>5.5000000000000604E-2</v>
+        <v>0.10250000000000092</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -8011,47 +8019,47 @@
       </c>
       <c r="B31">
         <f t="shared" si="3"/>
-        <v>0.11000000000000298</v>
+        <v>0.2</v>
       </c>
       <c r="C31">
         <f t="shared" si="3"/>
-        <v>4.4999999999999929E-2</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>5.5000000000001492E-2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
         <v>2.7500000000000746E-2</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="3"/>
-        <v>0.24249999999999972</v>
-      </c>
-      <c r="G31">
+      <c r="J31">
         <f t="shared" si="3"/>
         <v>0.13499999999999801</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="3"/>
-        <v>5.5000000000001492E-2</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="3"/>
-        <v>2.7500000000000746E-2</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="3"/>
-        <v>0.13499999999999801</v>
-      </c>
       <c r="K31">
         <f t="shared" si="3"/>
         <v>7.7500000000000568E-2</v>
       </c>
       <c r="L31">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M31">
         <f t="shared" si="3"/>
@@ -8059,7 +8067,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="3"/>
-        <v>5.8749999999999858E-2</v>
+        <v>0.10625000000000018</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -8068,47 +8076,47 @@
       </c>
       <c r="B32">
         <f t="shared" si="3"/>
-        <v>0.10000000000000142</v>
+        <v>0.2</v>
       </c>
       <c r="C32">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
         <v>5.0000000000000711E-2</v>
       </c>
-      <c r="D32">
+      <c r="I32">
         <f t="shared" si="3"/>
         <v>2.5000000000000355E-2</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="3"/>
-        <v>0.22500000000000142</v>
-      </c>
-      <c r="G32">
+      <c r="J32">
         <f t="shared" si="3"/>
         <v>0.14999999999999858</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000711E-2</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="3"/>
-        <v>2.5000000000000355E-2</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="3"/>
-        <v>0.14999999999999858</v>
-      </c>
       <c r="K32">
         <f t="shared" si="3"/>
         <v>7.5000000000000178E-2</v>
       </c>
       <c r="L32">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M32">
         <f t="shared" si="3"/>
@@ -8116,7 +8124,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="3"/>
-        <v>6.25E-2</v>
+        <v>0.11000000000000032</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -8125,47 +8133,47 @@
       </c>
       <c r="B33">
         <f t="shared" si="3"/>
-        <v>9.0000000000003411E-2</v>
+        <v>0.2</v>
       </c>
       <c r="C33">
         <f t="shared" si="3"/>
-        <v>5.4999999999999716E-2</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>0.2900000000000027</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>4.5000000000001705E-2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
         <v>2.2500000000000853E-2</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="3"/>
-        <v>0.20750000000000313</v>
-      </c>
-      <c r="G33">
+      <c r="J33">
         <f t="shared" si="3"/>
         <v>0.16499999999999915</v>
       </c>
-      <c r="H33">
-        <f t="shared" si="3"/>
-        <v>4.5000000000001705E-2</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="3"/>
-        <v>2.2500000000000853E-2</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="3"/>
-        <v>0.16499999999999915</v>
-      </c>
       <c r="K33">
         <f t="shared" si="3"/>
         <v>7.2500000000000675E-2</v>
       </c>
       <c r="L33">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M33">
         <f t="shared" si="3"/>
@@ -8173,7 +8181,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="3"/>
-        <v>6.6250000000000142E-2</v>
+        <v>0.11375000000000046</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -8182,47 +8190,47 @@
       </c>
       <c r="B34">
         <f t="shared" si="3"/>
-        <v>8.0000000000001847E-2</v>
+        <v>0.2</v>
       </c>
       <c r="C34">
         <f t="shared" si="3"/>
-        <v>6.0000000000000497E-2</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000924E-2</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
         <v>2.0000000000000462E-2</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="3"/>
-        <v>0.18999999999999773</v>
-      </c>
-      <c r="G34">
+      <c r="J34">
         <f t="shared" si="3"/>
         <v>0.17999999999999972</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="3"/>
-        <v>4.0000000000000924E-2</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="3"/>
-        <v>2.0000000000000462E-2</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="3"/>
-        <v>0.17999999999999972</v>
-      </c>
       <c r="K34">
         <f t="shared" si="3"/>
         <v>7.0000000000000284E-2</v>
       </c>
       <c r="L34">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M34">
         <f t="shared" si="3"/>
@@ -8230,7 +8238,7 @@
       </c>
       <c r="N34">
         <f t="shared" si="3"/>
-        <v>7.0000000000000284E-2</v>
+        <v>0.1175000000000006</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -8239,47 +8247,47 @@
       </c>
       <c r="B35">
         <f t="shared" si="3"/>
-        <v>7.0000000000003837E-2</v>
+        <v>0.2</v>
       </c>
       <c r="C35">
         <f t="shared" si="3"/>
-        <v>6.4999999999999503E-2</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>0.27000000000000313</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>3.5000000000001918E-2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
         <v>1.7500000000000959E-2</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="3"/>
-        <v>0.17249999999999943</v>
-      </c>
-      <c r="G35">
+      <c r="J35">
         <f t="shared" si="3"/>
         <v>0.19500000000000028</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="3"/>
-        <v>3.5000000000001918E-2</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="3"/>
-        <v>1.7500000000000959E-2</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="3"/>
-        <v>0.19500000000000028</v>
-      </c>
       <c r="K35">
         <f t="shared" si="3"/>
         <v>6.7500000000000782E-2</v>
       </c>
       <c r="L35">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M35">
         <f t="shared" si="3"/>
@@ -8287,7 +8295,7 @@
       </c>
       <c r="N35">
         <f t="shared" si="3"/>
-        <v>7.3750000000000426E-2</v>
+        <v>0.12125000000000075</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -8296,47 +8304,47 @@
       </c>
       <c r="B36">
         <f t="shared" si="3"/>
-        <v>6.0000000000002274E-2</v>
+        <v>0.2</v>
       </c>
       <c r="C36">
         <f t="shared" si="3"/>
-        <v>7.0000000000000284E-2</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>0.26000000000000156</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
         <v>1.5000000000000568E-2</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="3"/>
-        <v>0.15500000000000114</v>
-      </c>
-      <c r="G36">
+      <c r="J36">
         <f t="shared" si="3"/>
         <v>0.21000000000000085</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="3"/>
-        <v>3.0000000000001137E-2</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="3"/>
-        <v>1.5000000000000568E-2</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="3"/>
-        <v>0.21000000000000085</v>
-      </c>
       <c r="K36">
         <f t="shared" si="3"/>
         <v>6.5000000000000391E-2</v>
       </c>
       <c r="L36">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M36">
         <f t="shared" si="3"/>
@@ -8344,7 +8352,7 @@
       </c>
       <c r="N36">
         <f t="shared" si="3"/>
-        <v>7.7500000000000568E-2</v>
+        <v>0.12500000000000089</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -8353,47 +8361,47 @@
       </c>
       <c r="B37">
         <f t="shared" si="3"/>
-        <v>5.0000000000004263E-2</v>
+        <v>0.2</v>
       </c>
       <c r="C37">
         <f t="shared" si="3"/>
-        <v>7.4999999999999289E-2</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0.25000000000000355</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>2.5000000000002132E-2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
         <v>1.2500000000001066E-2</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="3"/>
-        <v>0.13750000000000284</v>
-      </c>
-      <c r="G37">
+      <c r="J37">
         <f t="shared" si="3"/>
         <v>0.22499999999999787</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="3"/>
-        <v>2.5000000000002132E-2</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="3"/>
-        <v>1.2500000000001066E-2</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="3"/>
-        <v>0.22499999999999787</v>
-      </c>
       <c r="K37">
         <f t="shared" si="3"/>
         <v>6.2500000000000888E-2</v>
       </c>
       <c r="L37">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M37">
         <f t="shared" si="3"/>
@@ -8401,7 +8409,7 @@
       </c>
       <c r="N37">
         <f t="shared" si="3"/>
-        <v>8.1249999999999822E-2</v>
+        <v>0.12875000000000014</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -8410,47 +8418,47 @@
       </c>
       <c r="B38">
         <f t="shared" si="3"/>
-        <v>4.00000000000027E-2</v>
+        <v>0.2</v>
       </c>
       <c r="C38">
         <f t="shared" si="3"/>
-        <v>8.0000000000000071E-2</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0.24000000000000199</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>2.000000000000135E-2</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
         <v>1.0000000000000675E-2</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="3"/>
-        <v>0.11999999999999744</v>
-      </c>
-      <c r="G38">
+      <c r="J38">
         <f t="shared" si="3"/>
         <v>0.23999999999999844</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="3"/>
-        <v>2.000000000000135E-2</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="3"/>
-        <v>1.0000000000000675E-2</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="3"/>
-        <v>0.23999999999999844</v>
-      </c>
       <c r="K38">
         <f t="shared" si="3"/>
         <v>6.0000000000000497E-2</v>
       </c>
       <c r="L38">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M38">
         <f t="shared" si="3"/>
@@ -8458,7 +8466,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="3"/>
-        <v>8.4999999999999964E-2</v>
+        <v>0.13250000000000028</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -8467,47 +8475,47 @@
       </c>
       <c r="B39">
         <f t="shared" si="3"/>
-        <v>3.000000000000469E-2</v>
+        <v>0.2</v>
       </c>
       <c r="C39">
         <f t="shared" si="3"/>
-        <v>8.4999999999999076E-2</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0.23000000000000398</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>1.5000000000002345E-2</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
         <v>7.5000000000011724E-3</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="3"/>
-        <v>0.10249999999999915</v>
-      </c>
-      <c r="G39">
+      <c r="J39">
         <f t="shared" si="3"/>
         <v>0.25499999999999901</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="3"/>
-        <v>1.5000000000002345E-2</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="3"/>
-        <v>7.5000000000011724E-3</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="3"/>
-        <v>0.25499999999999901</v>
-      </c>
       <c r="K39">
         <f t="shared" si="3"/>
         <v>5.7500000000000995E-2</v>
       </c>
       <c r="L39">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M39">
         <f t="shared" si="3"/>
@@ -8515,7 +8523,7 @@
       </c>
       <c r="N39">
         <f t="shared" si="3"/>
-        <v>8.8750000000000107E-2</v>
+        <v>0.13625000000000043</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -8524,47 +8532,47 @@
       </c>
       <c r="B40">
         <f t="shared" si="3"/>
-        <v>2.0000000000003126E-2</v>
+        <v>0.2</v>
       </c>
       <c r="C40">
         <f t="shared" si="3"/>
-        <v>8.9999999999999858E-2</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0.22000000000000242</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
         <v>5.0000000000007816E-3</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="3"/>
-        <v>8.5000000000000853E-2</v>
-      </c>
-      <c r="G40">
+      <c r="J40">
         <f t="shared" si="3"/>
         <v>0.26999999999999957</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="3"/>
-        <v>1.0000000000001563E-2</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="3"/>
-        <v>5.0000000000007816E-3</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="3"/>
-        <v>0.26999999999999957</v>
-      </c>
       <c r="K40">
         <f t="shared" si="3"/>
         <v>5.5000000000000604E-2</v>
       </c>
       <c r="L40">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M40">
         <f t="shared" si="3"/>
@@ -8572,7 +8580,7 @@
       </c>
       <c r="N40">
         <f t="shared" si="3"/>
-        <v>9.2500000000000249E-2</v>
+        <v>0.14000000000000057</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -8581,15 +8589,15 @@
       </c>
       <c r="B41">
         <f t="shared" si="3"/>
-        <v>1.0000000000001563E-2</v>
+        <v>0.2</v>
       </c>
       <c r="C41">
         <f t="shared" si="3"/>
-        <v>9.5000000000000639E-2</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <f t="shared" ref="C41:O42" si="4">_xlfn.FORECAST.LINEAR($A41,D$46:D$47,$A$46:$A$47)</f>
-        <v>2.5000000000003908E-3</v>
+        <f t="shared" ref="C41:N42" si="4">_xlfn.FORECAST.LINEAR($A41,D$46:D$47,$A$46:$A$47)</f>
+        <v>0.05</v>
       </c>
       <c r="E41">
         <f t="shared" si="4"/>
@@ -8597,11 +8605,11 @@
       </c>
       <c r="F41">
         <f t="shared" si="4"/>
-        <v>6.7500000000002558E-2</v>
+        <v>0.21000000000000085</v>
       </c>
       <c r="G41">
         <f t="shared" si="4"/>
-        <v>0.28500000000000014</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <f t="shared" si="4"/>
@@ -8621,7 +8629,7 @@
       </c>
       <c r="L41">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M41">
         <f t="shared" si="4"/>
@@ -8629,7 +8637,7 @@
       </c>
       <c r="N41">
         <f t="shared" si="4"/>
-        <v>9.6250000000000391E-2</v>
+        <v>0.14375000000000071</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -8638,15 +8646,15 @@
       </c>
       <c r="B42">
         <f t="shared" si="3"/>
-        <v>3.5527136788005009E-15</v>
+        <v>0.2</v>
       </c>
       <c r="C42">
         <f t="shared" si="4"/>
-        <v>9.9999999999999645E-2</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <f t="shared" si="4"/>
-        <v>8.8817841970012523E-16</v>
+        <v>0.05</v>
       </c>
       <c r="E42">
         <f t="shared" si="4"/>
@@ -8654,11 +8662,11 @@
       </c>
       <c r="F42">
         <f t="shared" si="4"/>
-        <v>5.0000000000004263E-2</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="G42">
         <f t="shared" si="4"/>
-        <v>0.30000000000000071</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <f t="shared" si="4"/>
@@ -8678,7 +8686,7 @@
       </c>
       <c r="L42">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M42">
         <f t="shared" si="4"/>
@@ -8686,7 +8694,7 @@
       </c>
       <c r="N42">
         <f t="shared" si="4"/>
-        <v>0.10000000000000053</v>
+        <v>0.14750000000000085</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -8793,7 +8801,7 @@
       </c>
       <c r="L46">
         <f>[1]電源構成!L2/100</f>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M46">
         <f>[1]電源構成!M2/100</f>
@@ -8801,7 +8809,7 @@
       </c>
       <c r="N46">
         <f>[1]電源構成!N2/100</f>
-        <v>2.5000000000000001E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -8810,15 +8818,15 @@
       </c>
       <c r="B47">
         <f>[1]電源構成!B3/100</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C47">
         <f>[1]電源構成!C3/100</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <f>[1]電源構成!D3/100</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E47">
         <f>[1]電源構成!E3/100</f>
@@ -8826,11 +8834,11 @@
       </c>
       <c r="F47">
         <f>[1]電源構成!F3/100</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G47">
         <f>[1]電源構成!G3/100</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <f>[1]電源構成!H3/100</f>
@@ -8850,7 +8858,7 @@
       </c>
       <c r="L47">
         <f>[1]電源構成!L3/100</f>
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M47">
         <f>[1]電源構成!M3/100</f>
@@ -8858,13 +8866,1975 @@
       </c>
       <c r="N47">
         <f>[1]電源構成!N3/100</f>
-        <v>0.1</v>
+        <v>0.14749999999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1221344-93A6-445B-8896-7EE671646636}">
+  <dimension ref="A1:N42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.42</v>
+      </c>
+      <c r="C2">
+        <v>0.42</v>
+      </c>
+      <c r="D2">
+        <v>0.41</v>
+      </c>
+      <c r="E2">
+        <v>0.41</v>
+      </c>
+      <c r="F2">
+        <v>0.49</v>
+      </c>
+      <c r="G2">
+        <v>0.49</v>
+      </c>
+      <c r="H2">
+        <v>0.33</v>
+      </c>
+      <c r="I2">
+        <v>0.32</v>
+      </c>
+      <c r="J2">
+        <v>0.32</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.42</v>
+      </c>
+      <c r="C3">
+        <v>0.42</v>
+      </c>
+      <c r="D3">
+        <v>0.4</v>
+      </c>
+      <c r="E3">
+        <v>0.4</v>
+      </c>
+      <c r="F3">
+        <v>0.49</v>
+      </c>
+      <c r="G3">
+        <v>0.49</v>
+      </c>
+      <c r="H3">
+        <v>0.33</v>
+      </c>
+      <c r="I3">
+        <v>0.33</v>
+      </c>
+      <c r="J3">
+        <v>0.33</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.43</v>
+      </c>
+      <c r="C4">
+        <v>0.43</v>
+      </c>
+      <c r="D4">
+        <v>0.41</v>
+      </c>
+      <c r="E4">
+        <v>0.41</v>
+      </c>
+      <c r="F4">
+        <v>0.49</v>
+      </c>
+      <c r="G4">
+        <v>0.49</v>
+      </c>
+      <c r="H4">
+        <v>0.33</v>
+      </c>
+      <c r="I4">
+        <v>0.33</v>
+      </c>
+      <c r="J4">
+        <v>0.33</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.41</v>
+      </c>
+      <c r="C5">
+        <v>0.41</v>
+      </c>
+      <c r="D5">
+        <v>0.41</v>
+      </c>
+      <c r="E5">
+        <v>0.41</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.33</v>
+      </c>
+      <c r="I5">
+        <v>0.33</v>
+      </c>
+      <c r="J5">
+        <v>0.33</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.42</v>
+      </c>
+      <c r="C6">
+        <v>0.42</v>
+      </c>
+      <c r="D6">
+        <v>0.41</v>
+      </c>
+      <c r="E6">
+        <v>0.41</v>
+      </c>
+      <c r="F6">
+        <v>0.51</v>
+      </c>
+      <c r="G6">
+        <v>0.51</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.34</v>
+      </c>
+      <c r="J6">
+        <v>0.34</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.42</v>
+      </c>
+      <c r="C7">
+        <v>0.42</v>
+      </c>
+      <c r="D7">
+        <v>0.41</v>
+      </c>
+      <c r="E7">
+        <v>0.41</v>
+      </c>
+      <c r="F7">
+        <v>0.51</v>
+      </c>
+      <c r="G7">
+        <v>0.51</v>
+      </c>
+      <c r="H7">
+        <v>0.33</v>
+      </c>
+      <c r="I7">
+        <v>0.33</v>
+      </c>
+      <c r="J7">
+        <v>0.33</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.42</v>
+      </c>
+      <c r="C8">
+        <v>0.42</v>
+      </c>
+      <c r="D8">
+        <v>0.38</v>
+      </c>
+      <c r="E8">
+        <v>0.38</v>
+      </c>
+      <c r="F8">
+        <v>0.51</v>
+      </c>
+      <c r="G8">
+        <v>0.51</v>
+      </c>
+      <c r="H8">
+        <v>0.33</v>
+      </c>
+      <c r="I8">
+        <v>0.42</v>
+      </c>
+      <c r="J8">
+        <v>0.42</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.42</v>
+      </c>
+      <c r="C9">
+        <v>0.42</v>
+      </c>
+      <c r="D9">
+        <v>0.36</v>
+      </c>
+      <c r="E9">
+        <v>0.36</v>
+      </c>
+      <c r="F9">
+        <v>0.52</v>
+      </c>
+      <c r="G9">
+        <v>0.52</v>
+      </c>
+      <c r="H9">
+        <v>0.33</v>
+      </c>
+      <c r="I9">
+        <v>0.4</v>
+      </c>
+      <c r="J9">
+        <v>0.4</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.42</v>
+      </c>
+      <c r="C10">
+        <v>0.42</v>
+      </c>
+      <c r="D10">
+        <v>0.35</v>
+      </c>
+      <c r="E10">
+        <v>0.35</v>
+      </c>
+      <c r="F10">
+        <v>0.52</v>
+      </c>
+      <c r="G10">
+        <v>0.52</v>
+      </c>
+      <c r="H10">
+        <v>0.33</v>
+      </c>
+      <c r="I10">
+        <v>0.38</v>
+      </c>
+      <c r="J10">
+        <v>0.38</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.42</v>
+      </c>
+      <c r="C11">
+        <v>0.42</v>
+      </c>
+      <c r="D11">
+        <v>0.35</v>
+      </c>
+      <c r="E11">
+        <v>0.35</v>
+      </c>
+      <c r="F11">
+        <v>0.52</v>
+      </c>
+      <c r="G11">
+        <v>0.52</v>
+      </c>
+      <c r="H11">
+        <v>0.33</v>
+      </c>
+      <c r="I11">
+        <v>0.39</v>
+      </c>
+      <c r="J11">
+        <v>0.39</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.41</v>
+      </c>
+      <c r="C12">
+        <v>0.41</v>
+      </c>
+      <c r="D12">
+        <v>0.33</v>
+      </c>
+      <c r="E12">
+        <v>0.33</v>
+      </c>
+      <c r="F12">
+        <v>0.52</v>
+      </c>
+      <c r="G12">
+        <v>0.52</v>
+      </c>
+      <c r="H12">
+        <v>0.33</v>
+      </c>
+      <c r="I12">
+        <v>0.44</v>
+      </c>
+      <c r="J12">
+        <v>0.44</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.41</v>
+      </c>
+      <c r="C13">
+        <v>0.41</v>
+      </c>
+      <c r="D13">
+        <v>0.33</v>
+      </c>
+      <c r="E13">
+        <v>0.33</v>
+      </c>
+      <c r="F13">
+        <v>0.52</v>
+      </c>
+      <c r="G13">
+        <v>0.52</v>
+      </c>
+      <c r="H13">
+        <v>0.33</v>
+      </c>
+      <c r="I13">
+        <v>0.44</v>
+      </c>
+      <c r="J13">
+        <v>0.44</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.41</v>
+      </c>
+      <c r="C14">
+        <v>0.41</v>
+      </c>
+      <c r="D14">
+        <v>0.33</v>
+      </c>
+      <c r="E14">
+        <v>0.33</v>
+      </c>
+      <c r="F14">
+        <v>0.52</v>
+      </c>
+      <c r="G14">
+        <v>0.52</v>
+      </c>
+      <c r="H14">
+        <v>0.33</v>
+      </c>
+      <c r="I14">
+        <v>0.44</v>
+      </c>
+      <c r="J14">
+        <v>0.44</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.41</v>
+      </c>
+      <c r="C15">
+        <v>0.41</v>
+      </c>
+      <c r="D15">
+        <v>0.33</v>
+      </c>
+      <c r="E15">
+        <v>0.33</v>
+      </c>
+      <c r="F15">
+        <v>0.52</v>
+      </c>
+      <c r="G15">
+        <v>0.52</v>
+      </c>
+      <c r="H15">
+        <v>0.33</v>
+      </c>
+      <c r="I15">
+        <v>0.44</v>
+      </c>
+      <c r="J15">
+        <v>0.44</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>0.41</v>
+      </c>
+      <c r="C16">
+        <v>0.41</v>
+      </c>
+      <c r="D16">
+        <v>0.33</v>
+      </c>
+      <c r="E16">
+        <v>0.33</v>
+      </c>
+      <c r="F16">
+        <v>0.52</v>
+      </c>
+      <c r="G16">
+        <v>0.52</v>
+      </c>
+      <c r="H16">
+        <v>0.33</v>
+      </c>
+      <c r="I16">
+        <v>0.44</v>
+      </c>
+      <c r="J16">
+        <v>0.44</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>0.41</v>
+      </c>
+      <c r="C17">
+        <v>0.41</v>
+      </c>
+      <c r="D17">
+        <v>0.33</v>
+      </c>
+      <c r="E17">
+        <v>0.33</v>
+      </c>
+      <c r="F17">
+        <v>0.52</v>
+      </c>
+      <c r="G17">
+        <v>0.52</v>
+      </c>
+      <c r="H17">
+        <v>0.33</v>
+      </c>
+      <c r="I17">
+        <v>0.44</v>
+      </c>
+      <c r="J17">
+        <v>0.44</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <v>0.41</v>
+      </c>
+      <c r="C18">
+        <v>0.41</v>
+      </c>
+      <c r="D18">
+        <v>0.33</v>
+      </c>
+      <c r="E18">
+        <v>0.33</v>
+      </c>
+      <c r="F18">
+        <v>0.52</v>
+      </c>
+      <c r="G18">
+        <v>0.52</v>
+      </c>
+      <c r="H18">
+        <v>0.33</v>
+      </c>
+      <c r="I18">
+        <v>0.44</v>
+      </c>
+      <c r="J18">
+        <v>0.44</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <v>0.41</v>
+      </c>
+      <c r="C19">
+        <v>0.41</v>
+      </c>
+      <c r="D19">
+        <v>0.33</v>
+      </c>
+      <c r="E19">
+        <v>0.33</v>
+      </c>
+      <c r="F19">
+        <v>0.52</v>
+      </c>
+      <c r="G19">
+        <v>0.52</v>
+      </c>
+      <c r="H19">
+        <v>0.33</v>
+      </c>
+      <c r="I19">
+        <v>0.44</v>
+      </c>
+      <c r="J19">
+        <v>0.44</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>0.41</v>
+      </c>
+      <c r="C20">
+        <v>0.41</v>
+      </c>
+      <c r="D20">
+        <v>0.33</v>
+      </c>
+      <c r="E20">
+        <v>0.33</v>
+      </c>
+      <c r="F20">
+        <v>0.52</v>
+      </c>
+      <c r="G20">
+        <v>0.52</v>
+      </c>
+      <c r="H20">
+        <v>0.33</v>
+      </c>
+      <c r="I20">
+        <v>0.44</v>
+      </c>
+      <c r="J20">
+        <v>0.44</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>0.41</v>
+      </c>
+      <c r="C21">
+        <v>0.41</v>
+      </c>
+      <c r="D21">
+        <v>0.33</v>
+      </c>
+      <c r="E21">
+        <v>0.33</v>
+      </c>
+      <c r="F21">
+        <v>0.52</v>
+      </c>
+      <c r="G21">
+        <v>0.52</v>
+      </c>
+      <c r="H21">
+        <v>0.33</v>
+      </c>
+      <c r="I21">
+        <v>0.44</v>
+      </c>
+      <c r="J21">
+        <v>0.44</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>0.41</v>
+      </c>
+      <c r="C22">
+        <v>0.41</v>
+      </c>
+      <c r="D22">
+        <v>0.33</v>
+      </c>
+      <c r="E22">
+        <v>0.33</v>
+      </c>
+      <c r="F22">
+        <v>0.52</v>
+      </c>
+      <c r="G22">
+        <v>0.52</v>
+      </c>
+      <c r="H22">
+        <v>0.33</v>
+      </c>
+      <c r="I22">
+        <v>0.44</v>
+      </c>
+      <c r="J22">
+        <v>0.44</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>0.41</v>
+      </c>
+      <c r="C23">
+        <v>0.41</v>
+      </c>
+      <c r="D23">
+        <v>0.33</v>
+      </c>
+      <c r="E23">
+        <v>0.33</v>
+      </c>
+      <c r="F23">
+        <v>0.52</v>
+      </c>
+      <c r="G23">
+        <v>0.52</v>
+      </c>
+      <c r="H23">
+        <v>0.33</v>
+      </c>
+      <c r="I23">
+        <v>0.44</v>
+      </c>
+      <c r="J23">
+        <v>0.44</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>0.41</v>
+      </c>
+      <c r="C24">
+        <v>0.41</v>
+      </c>
+      <c r="D24">
+        <v>0.33</v>
+      </c>
+      <c r="E24">
+        <v>0.33</v>
+      </c>
+      <c r="F24">
+        <v>0.52</v>
+      </c>
+      <c r="G24">
+        <v>0.52</v>
+      </c>
+      <c r="H24">
+        <v>0.33</v>
+      </c>
+      <c r="I24">
+        <v>0.44</v>
+      </c>
+      <c r="J24">
+        <v>0.44</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>0.41</v>
+      </c>
+      <c r="C25">
+        <v>0.41</v>
+      </c>
+      <c r="D25">
+        <v>0.33</v>
+      </c>
+      <c r="E25">
+        <v>0.33</v>
+      </c>
+      <c r="F25">
+        <v>0.52</v>
+      </c>
+      <c r="G25">
+        <v>0.52</v>
+      </c>
+      <c r="H25">
+        <v>0.33</v>
+      </c>
+      <c r="I25">
+        <v>0.44</v>
+      </c>
+      <c r="J25">
+        <v>0.44</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>0.41</v>
+      </c>
+      <c r="C26">
+        <v>0.41</v>
+      </c>
+      <c r="D26">
+        <v>0.33</v>
+      </c>
+      <c r="E26">
+        <v>0.33</v>
+      </c>
+      <c r="F26">
+        <v>0.52</v>
+      </c>
+      <c r="G26">
+        <v>0.52</v>
+      </c>
+      <c r="H26">
+        <v>0.33</v>
+      </c>
+      <c r="I26">
+        <v>0.44</v>
+      </c>
+      <c r="J26">
+        <v>0.44</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>0.41</v>
+      </c>
+      <c r="C27">
+        <v>0.41</v>
+      </c>
+      <c r="D27">
+        <v>0.33</v>
+      </c>
+      <c r="E27">
+        <v>0.33</v>
+      </c>
+      <c r="F27">
+        <v>0.52</v>
+      </c>
+      <c r="G27">
+        <v>0.52</v>
+      </c>
+      <c r="H27">
+        <v>0.33</v>
+      </c>
+      <c r="I27">
+        <v>0.44</v>
+      </c>
+      <c r="J27">
+        <v>0.44</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2036</v>
+      </c>
+      <c r="B28">
+        <v>0.41</v>
+      </c>
+      <c r="C28">
+        <v>0.41</v>
+      </c>
+      <c r="D28">
+        <v>0.33</v>
+      </c>
+      <c r="E28">
+        <v>0.33</v>
+      </c>
+      <c r="F28">
+        <v>0.52</v>
+      </c>
+      <c r="G28">
+        <v>0.52</v>
+      </c>
+      <c r="H28">
+        <v>0.33</v>
+      </c>
+      <c r="I28">
+        <v>0.44</v>
+      </c>
+      <c r="J28">
+        <v>0.44</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2037</v>
+      </c>
+      <c r="B29">
+        <v>0.41</v>
+      </c>
+      <c r="C29">
+        <v>0.41</v>
+      </c>
+      <c r="D29">
+        <v>0.33</v>
+      </c>
+      <c r="E29">
+        <v>0.33</v>
+      </c>
+      <c r="F29">
+        <v>0.52</v>
+      </c>
+      <c r="G29">
+        <v>0.52</v>
+      </c>
+      <c r="H29">
+        <v>0.33</v>
+      </c>
+      <c r="I29">
+        <v>0.44</v>
+      </c>
+      <c r="J29">
+        <v>0.44</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2038</v>
+      </c>
+      <c r="B30">
+        <v>0.41</v>
+      </c>
+      <c r="C30">
+        <v>0.41</v>
+      </c>
+      <c r="D30">
+        <v>0.33</v>
+      </c>
+      <c r="E30">
+        <v>0.33</v>
+      </c>
+      <c r="F30">
+        <v>0.52</v>
+      </c>
+      <c r="G30">
+        <v>0.52</v>
+      </c>
+      <c r="H30">
+        <v>0.33</v>
+      </c>
+      <c r="I30">
+        <v>0.44</v>
+      </c>
+      <c r="J30">
+        <v>0.44</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2039</v>
+      </c>
+      <c r="B31">
+        <v>0.41</v>
+      </c>
+      <c r="C31">
+        <v>0.41</v>
+      </c>
+      <c r="D31">
+        <v>0.33</v>
+      </c>
+      <c r="E31">
+        <v>0.33</v>
+      </c>
+      <c r="F31">
+        <v>0.52</v>
+      </c>
+      <c r="G31">
+        <v>0.52</v>
+      </c>
+      <c r="H31">
+        <v>0.33</v>
+      </c>
+      <c r="I31">
+        <v>0.44</v>
+      </c>
+      <c r="J31">
+        <v>0.44</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2040</v>
+      </c>
+      <c r="B32">
+        <v>0.41</v>
+      </c>
+      <c r="C32">
+        <v>0.41</v>
+      </c>
+      <c r="D32">
+        <v>0.33</v>
+      </c>
+      <c r="E32">
+        <v>0.33</v>
+      </c>
+      <c r="F32">
+        <v>0.52</v>
+      </c>
+      <c r="G32">
+        <v>0.52</v>
+      </c>
+      <c r="H32">
+        <v>0.33</v>
+      </c>
+      <c r="I32">
+        <v>0.44</v>
+      </c>
+      <c r="J32">
+        <v>0.44</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2041</v>
+      </c>
+      <c r="B33">
+        <v>0.41</v>
+      </c>
+      <c r="C33">
+        <v>0.41</v>
+      </c>
+      <c r="D33">
+        <v>0.33</v>
+      </c>
+      <c r="E33">
+        <v>0.33</v>
+      </c>
+      <c r="F33">
+        <v>0.52</v>
+      </c>
+      <c r="G33">
+        <v>0.52</v>
+      </c>
+      <c r="H33">
+        <v>0.33</v>
+      </c>
+      <c r="I33">
+        <v>0.44</v>
+      </c>
+      <c r="J33">
+        <v>0.44</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2042</v>
+      </c>
+      <c r="B34">
+        <v>0.41</v>
+      </c>
+      <c r="C34">
+        <v>0.41</v>
+      </c>
+      <c r="D34">
+        <v>0.33</v>
+      </c>
+      <c r="E34">
+        <v>0.33</v>
+      </c>
+      <c r="F34">
+        <v>0.52</v>
+      </c>
+      <c r="G34">
+        <v>0.52</v>
+      </c>
+      <c r="H34">
+        <v>0.33</v>
+      </c>
+      <c r="I34">
+        <v>0.44</v>
+      </c>
+      <c r="J34">
+        <v>0.44</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2043</v>
+      </c>
+      <c r="B35">
+        <v>0.41</v>
+      </c>
+      <c r="C35">
+        <v>0.41</v>
+      </c>
+      <c r="D35">
+        <v>0.33</v>
+      </c>
+      <c r="E35">
+        <v>0.33</v>
+      </c>
+      <c r="F35">
+        <v>0.52</v>
+      </c>
+      <c r="G35">
+        <v>0.52</v>
+      </c>
+      <c r="H35">
+        <v>0.33</v>
+      </c>
+      <c r="I35">
+        <v>0.44</v>
+      </c>
+      <c r="J35">
+        <v>0.44</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2044</v>
+      </c>
+      <c r="B36">
+        <v>0.41</v>
+      </c>
+      <c r="C36">
+        <v>0.41</v>
+      </c>
+      <c r="D36">
+        <v>0.33</v>
+      </c>
+      <c r="E36">
+        <v>0.33</v>
+      </c>
+      <c r="F36">
+        <v>0.52</v>
+      </c>
+      <c r="G36">
+        <v>0.52</v>
+      </c>
+      <c r="H36">
+        <v>0.33</v>
+      </c>
+      <c r="I36">
+        <v>0.44</v>
+      </c>
+      <c r="J36">
+        <v>0.44</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2045</v>
+      </c>
+      <c r="B37">
+        <v>0.41</v>
+      </c>
+      <c r="C37">
+        <v>0.41</v>
+      </c>
+      <c r="D37">
+        <v>0.33</v>
+      </c>
+      <c r="E37">
+        <v>0.33</v>
+      </c>
+      <c r="F37">
+        <v>0.52</v>
+      </c>
+      <c r="G37">
+        <v>0.52</v>
+      </c>
+      <c r="H37">
+        <v>0.33</v>
+      </c>
+      <c r="I37">
+        <v>0.44</v>
+      </c>
+      <c r="J37">
+        <v>0.44</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2046</v>
+      </c>
+      <c r="B38">
+        <v>0.41</v>
+      </c>
+      <c r="C38">
+        <v>0.41</v>
+      </c>
+      <c r="D38">
+        <v>0.33</v>
+      </c>
+      <c r="E38">
+        <v>0.33</v>
+      </c>
+      <c r="F38">
+        <v>0.52</v>
+      </c>
+      <c r="G38">
+        <v>0.52</v>
+      </c>
+      <c r="H38">
+        <v>0.33</v>
+      </c>
+      <c r="I38">
+        <v>0.44</v>
+      </c>
+      <c r="J38">
+        <v>0.44</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0.1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2047</v>
+      </c>
+      <c r="B39">
+        <v>0.41</v>
+      </c>
+      <c r="C39">
+        <v>0.41</v>
+      </c>
+      <c r="D39">
+        <v>0.33</v>
+      </c>
+      <c r="E39">
+        <v>0.33</v>
+      </c>
+      <c r="F39">
+        <v>0.52</v>
+      </c>
+      <c r="G39">
+        <v>0.52</v>
+      </c>
+      <c r="H39">
+        <v>0.33</v>
+      </c>
+      <c r="I39">
+        <v>0.44</v>
+      </c>
+      <c r="J39">
+        <v>0.44</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0.1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2048</v>
+      </c>
+      <c r="B40">
+        <v>0.41</v>
+      </c>
+      <c r="C40">
+        <v>0.41</v>
+      </c>
+      <c r="D40">
+        <v>0.33</v>
+      </c>
+      <c r="E40">
+        <v>0.33</v>
+      </c>
+      <c r="F40">
+        <v>0.52</v>
+      </c>
+      <c r="G40">
+        <v>0.52</v>
+      </c>
+      <c r="H40">
+        <v>0.33</v>
+      </c>
+      <c r="I40">
+        <v>0.44</v>
+      </c>
+      <c r="J40">
+        <v>0.44</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>0.1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2049</v>
+      </c>
+      <c r="B41">
+        <v>0.41</v>
+      </c>
+      <c r="C41">
+        <v>0.41</v>
+      </c>
+      <c r="D41">
+        <v>0.33</v>
+      </c>
+      <c r="E41">
+        <v>0.33</v>
+      </c>
+      <c r="F41">
+        <v>0.52</v>
+      </c>
+      <c r="G41">
+        <v>0.52</v>
+      </c>
+      <c r="H41">
+        <v>0.33</v>
+      </c>
+      <c r="I41">
+        <v>0.44</v>
+      </c>
+      <c r="J41">
+        <v>0.44</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0.1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2050</v>
+      </c>
+      <c r="B42">
+        <v>0.41</v>
+      </c>
+      <c r="C42">
+        <v>0.41</v>
+      </c>
+      <c r="D42">
+        <v>0.33</v>
+      </c>
+      <c r="E42">
+        <v>0.33</v>
+      </c>
+      <c r="F42">
+        <v>0.52</v>
+      </c>
+      <c r="G42">
+        <v>0.52</v>
+      </c>
+      <c r="H42">
+        <v>0.33</v>
+      </c>
+      <c r="I42">
+        <v>0.44</v>
+      </c>
+      <c r="J42">
+        <v>0.44</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0.1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3632E6-CF5D-4C25-A038-D0FAF3DC899D}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>94.6</v>
+      </c>
+      <c r="B2">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C2">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="D2">
+        <v>3.87</v>
+      </c>
+      <c r="E2">
+        <v>56.1</v>
+      </c>
+      <c r="F2">
+        <v>2.8050000000000002</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-95</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9077,11 +11047,11 @@
       </c>
       <c r="C13">
         <f>_xlfn.FORECAST.LINEAR(A13,$C$45:$C$46,$A$45:$A$46)</f>
-        <v>0.98999999999999844</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>124518.30357161922</v>
+        <v>125776.064213757</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -9093,11 +11063,11 @@
       </c>
       <c r="C14">
         <f>_xlfn.FORECAST.LINEAR(A14,$C$45:$C$46,$A$45:$A$46)</f>
-        <v>0.98000000000000043</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>122870.48307034934</v>
+        <v>125378.043949336</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -9109,11 +11079,11 @@
       </c>
       <c r="C15">
         <f>_xlfn.FORECAST.LINEAR(A15,$C$45:$C$46,$A$45:$A$46)</f>
-        <v>0.96999999999999886</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>121231.84472930231</v>
+        <v>124981.283226085</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -9125,11 +11095,11 @@
       </c>
       <c r="C16">
         <f t="shared" ref="C16:C21" si="2">_xlfn.FORECAST.LINEAR(A16,$C$45:$C$46,$A$45:$A$46)</f>
-        <v>0.9599999999999973</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>119602.34693583709</v>
+        <v>124585.778058164</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9141,11 +11111,11 @@
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>0.94999999999999929</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>117981.94824873336</v>
+        <v>124191.524472351</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9157,11 +11127,11 @@
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>0.93999999999999773</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>116272.51036426656</v>
+        <v>123694.15996198601</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9173,11 +11143,11 @@
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>0.92999999999999972</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>114574.87219476224</v>
+        <v>123198.787306196</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9189,11 +11159,11 @@
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>0.91999999999999815</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>112888.96664572757</v>
+        <v>122705.39852796499</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9205,11 +11175,11 @@
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>0.91000000000000014</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>111214.72697082296</v>
+        <v>122213.98568222301</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -9221,11 +11191,11 @@
       </c>
       <c r="C22">
         <f>_xlfn.FORECAST.LINEAR(A22,$C$45:$C$46,$A$45:$A$46)</f>
-        <v>0.89999999999999858</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>109552.08677014783</v>
+        <v>121724.54085572</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9237,11 +11207,11 @@
       </c>
       <c r="C23">
         <f>_xlfn.FORECAST.LINEAR(A23,$C$46:$C$47,$A$46:$A$47)</f>
-        <v>0.86000000000001364</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>104202.36190245587</v>
+        <v>121165.53709587701</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -9253,11 +11223,11 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:C42" si="3">_xlfn.FORECAST.LINEAR(A24,$C$46:$C$47,$A$46:$A$47)</f>
-        <v>0.82000000000000739</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>98899.462398875126</v>
+        <v>120609.100486432</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -9269,11 +11239,11 @@
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>0.78000000000000114</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>93643.071005708771</v>
+        <v>120055.219238088</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9285,11 +11255,11 @@
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
-        <v>0.74000000000000909</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>88432.872395611688</v>
+        <v>119503.88161569</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -9301,11 +11271,11 @@
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
-        <v>0.70000000000000284</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>83268.553156581445</v>
+        <v>118955.075937973</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -9317,11 +11287,11 @@
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
-        <v>0.6600000000000108</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>78117.340181637206</v>
+        <v>118359.606335812</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -9333,11 +11303,11 @@
       </c>
       <c r="C29">
         <f t="shared" si="3"/>
-        <v>0.62000000000000455</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>73015.612885232651</v>
+        <v>117767.11755682599</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -9349,11 +11319,11 @@
       </c>
       <c r="C30">
         <f t="shared" si="3"/>
-        <v>0.58000000000001251</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>67963.004914112622</v>
+        <v>117177.594679502</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -9365,11 +11335,11 @@
       </c>
       <c r="C31">
         <f t="shared" si="3"/>
-        <v>0.54000000000000625</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>62959.152342793146</v>
+        <v>116591.022857023</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -9381,11 +11351,11 @@
       </c>
       <c r="C32">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>58003.6936584465</v>
+        <v>116007.387316893</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -9397,11 +11367,11 @@
       </c>
       <c r="C33">
         <f t="shared" si="3"/>
-        <v>0.46000000000000796</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>53077.003687019758</v>
+        <v>115384.790623954</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9413,11 +11383,11 @@
       </c>
       <c r="C34">
         <f t="shared" si="3"/>
-        <v>0.42000000000000171</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>48201.524837426718</v>
+        <v>114765.535327206</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -9429,11 +11399,11 @@
       </c>
       <c r="C35">
         <f t="shared" si="3"/>
-        <v>0.38000000000000966</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>43376.849327647382</v>
+        <v>114149.603493806</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -9445,11 +11415,11 @@
       </c>
       <c r="C36">
         <f t="shared" si="3"/>
-        <v>0.34000000000000341</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>38602.572277632746</v>
+        <v>113536.977287154</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -9461,11 +11431,11 @@
       </c>
       <c r="C37">
         <f t="shared" si="3"/>
-        <v>0.30000000000001137</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>33878.29168991468</v>
+        <v>112927.638966378</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -9477,11 +11447,11 @@
       </c>
       <c r="C38">
         <f t="shared" si="3"/>
-        <v>0.26000000000000512</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>29196.428025547957</v>
+        <v>112293.95394441301</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -9493,11 +11463,11 @@
       </c>
       <c r="C39">
         <f t="shared" si="3"/>
-        <v>0.22000000000001307</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>24566.041455710401</v>
+        <v>111663.824798677</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -9509,11 +11479,11 @@
       </c>
       <c r="C40">
         <f t="shared" si="3"/>
-        <v>0.18000000000000682</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>19986.701683615418</v>
+        <v>111037.23157563699</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -9525,11 +11495,11 @@
       </c>
       <c r="C41">
         <f t="shared" si="3"/>
-        <v>0.14000000000000057</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>15457.981620721563</v>
+        <v>110414.15443372499</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -9541,11 +11511,11 @@
       </c>
       <c r="C42">
         <f t="shared" si="3"/>
-        <v>0.10000000000000853</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>10979.457364272535</v>
+        <v>109794.573642716</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -9576,8 +11546,8 @@
         <v>121724.54085572</v>
       </c>
       <c r="C46">
-        <f>[1]生徒用!$B$3/100</f>
-        <v>0.9</v>
+        <f>[1]GDP・人口・省エネ!$B$3/100</f>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -9590,8 +11560,8 @@
         <v>109794.573642716</v>
       </c>
       <c r="C47">
-        <f>[1]生徒用!$D$3/100</f>
-        <v>0.1</v>
+        <f>[1]GDP・人口・省エネ!$D$3/100</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10105,7 +12075,7 @@
       </c>
       <c r="C13">
         <f>_xlfn.FORECAST.LINEAR(B13,$C$45:$C$46,$B$45:$B$46)*C12</f>
-        <v>0.48725856710127158</v>
+        <v>0.49223059329618329</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -10117,7 +12087,7 @@
       </c>
       <c r="C14">
         <f t="shared" ref="C14:C22" si="0">_xlfn.FORECAST.LINEAR(B14,$C$45:$C$46,$B$45:$B$46)*C13</f>
-        <v>0.46776822441722116</v>
+        <v>0.48238598143025985</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -10129,7 +12099,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.4397021309521868</v>
+        <v>0.46791440198735151</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -10141,7 +12111,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.40452596047600947</v>
+        <v>0.44919782590785617</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -10153,7 +12123,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.36407336442840793</v>
+        <v>0.42673793461246307</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -10165,7 +12135,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.32038456069699733</v>
+        <v>0.40113365853571431</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -10177,7 +12147,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0.27553072219941754</v>
+        <v>0.37305430243821419</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -10189,7 +12159,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0.23144580664750972</v>
+        <v>0.34320995824315637</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -10201,7 +12171,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0.18978556145095804</v>
+        <v>0.31232106200127235</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -10213,7 +12183,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0.1518284491607659</v>
+        <v>0.28108895580114468</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -10225,7 +12195,7 @@
       </c>
       <c r="C23">
         <f>_xlfn.FORECAST.LINEAR(B23,$C$46:$C$47,$B$46:$B$47)*C12</f>
-        <v>0.38558063141534465</v>
+        <v>0.44499634444453068</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -10237,7 +12207,7 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:C42" si="1">_xlfn.FORECAST.LINEAR(B24,$C$46:$C$47,$B$46:$B$47)*C13</f>
-        <v>0.36593118389305729</v>
+        <v>0.43808522803360339</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -10249,7 +12219,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>0.33983361503911186</v>
+        <v>0.42691159356577985</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -10261,7 +12231,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>0.30867089592843744</v>
+        <v>0.41176467374886971</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -10273,7 +12243,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>0.27406633822249721</v>
+        <v>0.39304809766937415</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -10285,7 +12255,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>0.2377399069717499</v>
+        <v>0.3712620031128433</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -10297,7 +12267,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>0.20136169639806362</v>
+        <v>0.34698061463339297</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -10309,7 +12279,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>0.16642055620844798</v>
+        <v>0.32082670009686465</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -10321,7 +12291,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>0.13412284495223259</v>
+        <v>0.29344451429789886</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -10333,7 +12303,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>0.10533098660528166</v>
+        <v>0.26547290270108137</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -10345,7 +12315,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>8.0544992279786842E-2</v>
+        <v>0.23752016765196743</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -10357,7 +12327,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>0.19510379949616449</v>
+        <v>0.37379692933340569</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -10369,7 +12339,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>0.17619586504450857</v>
+        <v>0.36580116540805918</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -10381,7 +12351,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>0.15530396207287436</v>
+        <v>0.35433662265959731</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -10393,7 +12363,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>0.13350016248905058</v>
+        <v>0.33970585584281793</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -10405,7 +12375,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>0.1118190659947792</v>
+        <v>0.32229944008888689</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -10417,7 +12387,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>9.1173254323667297E-2</v>
+        <v>0.30257853253696776</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -10429,7 +12399,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>7.2288849006905187E-2</v>
+        <v>0.28105429785304847</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -10441,7 +12411,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>5.5667676051725595E-2</v>
+        <v>0.25826549357797596</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -10453,7 +12423,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>4.1578081935192406E-2</v>
+        <v>0.2347556114383193</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -10484,8 +12454,8 @@
         <v>2030</v>
       </c>
       <c r="C46">
-        <f>[1]生徒用!$B$5/100</f>
-        <v>0.8</v>
+        <f>[1]GDP・人口・省エネ!$B$5/100</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -10498,8 +12468,8 @@
         <v>2050</v>
       </c>
       <c r="C47">
-        <f>[1]生徒用!$D$5/100</f>
-        <v>0.31</v>
+        <f>[1]GDP・人口・省エネ!$D$5/100</f>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -10660,7 +12630,7 @@
       </c>
       <c r="C13">
         <f>_xlfn.FORECAST.LINEAR(B13,$C$45:$C$46,$B$45:$B$46)*C12</f>
-        <v>19.732130872728767</v>
+        <v>20.519757945379407</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -10672,7 +12642,7 @@
       </c>
       <c r="C14">
         <f t="shared" ref="C14:C22" si="0">_xlfn.FORECAST.LINEAR(B14,$C$45:$C$46,$B$45:$B$46)*C13</f>
-        <v>17.837846308947015</v>
+        <v>20.109362786471827</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -10684,7 +12654,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>15.269196440458801</v>
+        <v>19.50608190287765</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -10696,7 +12666,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>12.337510723890817</v>
+        <v>18.725838626762492</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -10708,7 +12678,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>9.3765081501570844</v>
+        <v>17.789546695424356</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -10720,7 +12690,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>6.6760738029118754</v>
+        <v>16.722173893698855</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -10732,7 +12702,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>4.4329130051334955</v>
+        <v>15.551621721139931</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -10744,7 +12714,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2.7306744111622319</v>
+        <v>14.307491983448708</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -10756,7 +12726,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>1.5510230655401807</v>
+        <v>13.019817704938326</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -10768,7 +12738,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0.80653199408090981</v>
+        <v>11.717835934444475</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -10780,7 +12750,7 @@
       </c>
       <c r="C23">
         <f>_xlfn.FORECAST.LINEAR(B23,$C$46:$C$47,$B$46:$B$47)*C12</f>
-        <v>10.570784396104665</v>
+        <v>18.550690263752148</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -10792,7 +12762,7 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:C42" si="1">_xlfn.FORECAST.LINEAR(B24,$C$46:$C$47,$B$46:$B$47)*C13</f>
-        <v>9.8660654363644529</v>
+        <v>18.262584571387684</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -10804,7 +12774,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>8.7405446913840734</v>
+        <v>17.796786066027561</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -10816,7 +12786,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>7.3292142914202856</v>
+        <v>17.165352074532347</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -10828,7 +12798,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>5.7986300402287139</v>
+        <v>16.385108798417182</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -10840,7 +12810,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>4.3131937490723002</v>
+        <v>15.476905625019207</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -10852,7 +12822,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>3.0042332113103627</v>
+        <v>14.464680418049513</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -10864,7 +12834,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>1.9504817222587594</v>
+        <v>13.374394680180359</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -10876,7 +12846,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>1.1741899967997687</v>
+        <v>12.232905645848652</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -10888,7 +12858,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>0.65142968752687858</v>
+        <v>11.066845049197573</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -10900,7 +12870,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>0.330678117573176</v>
+        <v>9.901571364605589</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -10912,7 +12882,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>4.2283137584418888</v>
+        <v>15.582579821551802</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -10924,7 +12894,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>3.8477655201821772</v>
+        <v>15.249258117108733</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -10936,7 +12906,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>3.3214069827259705</v>
+        <v>14.771332434802877</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -10948,7 +12918,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>2.7118092878255391</v>
+        <v>14.161415461489204</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -10960,7 +12930,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>2.0875068144823543</v>
+        <v>13.435789214702094</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -10972,7 +12942,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>1.5096178121753265</v>
+        <v>12.613678084390672</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -10984,7 +12954,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>1.0214392918455335</v>
+        <v>11.716391138620112</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -10996,7 +12966,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>0.64365896834539416</v>
+        <v>10.766387717545186</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -11008,7 +12978,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>0.37574079897593049</v>
+        <v>9.7863245166789294</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -11039,8 +13009,8 @@
         <v>2030</v>
       </c>
       <c r="C46">
-        <f>[1]生徒用!$B$6/100</f>
-        <v>0.52</v>
+        <f>[1]GDP・人口・省エネ!$B$6/100</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -11053,8 +13023,8 @@
         <v>2050</v>
       </c>
       <c r="C47">
-        <f>[1]生徒用!$D$6/100</f>
-        <v>0.32</v>
+        <f>[1]GDP・人口・省エネ!$D$6/100</f>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -11068,7 +13038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -11215,7 +13185,7 @@
       </c>
       <c r="C13">
         <f>_xlfn.FORECAST.LINEAR(B13,$C$45:$C$46,$B$45:$B$46)*C12</f>
-        <v>0.15157697857766897</v>
+        <v>0.15746191898414644</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -11227,7 +13197,7 @@
       </c>
       <c r="C14">
         <f t="shared" ref="C14:C22" si="0">_xlfn.FORECAST.LINEAR(B14,$C$45:$C$46,$B$45:$B$46)*C13</f>
-        <v>0.13732874259136682</v>
+        <v>0.15431268060446357</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -11239,7 +13209,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.11796538988598336</v>
+        <v>0.1496833001863295</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -11251,7 +13221,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>9.5787896587418209E-2</v>
+        <v>0.14369596817887592</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -11263,7 +13233,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>7.3277740889374984E-2</v>
+        <v>0.13651116976993202</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -11275,7 +13245,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>5.2613417958571496E-2</v>
+        <v>0.12832049958373579</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -11287,7 +13257,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>3.5303603450201067E-2</v>
+        <v>0.11933806461287425</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -11299,7 +13269,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2.2029448552925296E-2</v>
+        <v>0.10979101944384409</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -11311,7 +13281,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>1.2710991815037856E-2</v>
+        <v>9.990982769389814E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -11323,7 +13293,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>6.7368256619700787E-3</v>
+        <v>8.991884492450819E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -11335,7 +13305,7 @@
       </c>
       <c r="C23">
         <f>_xlfn.FORECAST.LINEAR(B23,$C$46:$C$47,$B$46:$B$47)*C12</f>
-        <v>8.2707270577532091E-2</v>
+        <v>0.14235193685940556</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -11347,7 +13317,7 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:C42" si="1">_xlfn.FORECAST.LINEAR(B24,$C$46:$C$47,$B$46:$B$47)*C13</f>
-        <v>7.7304259074611414E-2</v>
+        <v>0.14014110789589043</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -11359,7 +13329,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>6.866437129568341E-2</v>
+        <v>0.13656672233495024</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -11371,7 +13341,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>5.7803041044132079E-2</v>
+        <v>0.13172130416397007</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -11383,7 +13353,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>4.5978190361960783E-2</v>
+        <v>0.12573397215651644</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -11395,7 +13365,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>3.4440538218006418E-2</v>
+        <v>0.118764717699841</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -11407,7 +13377,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>2.4202172260942931E-2</v>
+        <v>0.11099723213993148</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -11419,7 +13389,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>1.5886621552590581E-2</v>
+        <v>0.102630735567072</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -11431,7 +13401,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>9.6929573632871576E-3</v>
+        <v>9.3871321624486748E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -11443,7 +13413,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>5.4657264804662741E-3</v>
+        <v>8.4923353539813382E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -11455,7 +13425,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>2.8294667780274447E-3</v>
+        <v>7.5981423961209479E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -11467,7 +13437,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>3.3909980936788167E-2</v>
+        <v>0.11957562696190065</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -11479,7 +13449,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>3.092170362984473E-2</v>
+        <v>0.11701782509306863</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -11491,7 +13461,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>2.6779104805316568E-2</v>
+        <v>0.11335037953800871</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -11503,7 +13473,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>2.1965155596770338E-2</v>
+        <v>0.10867007593527545</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -11515,7 +13485,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>1.7011930433925536E-2</v>
+        <v>0.10310185716834351</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -11527,7 +13497,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>1.2398593758482413E-2</v>
+        <v>9.6793244925370558E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -11539,7 +13509,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>8.4707602913300598E-3</v>
+        <v>8.9907758033344554E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -11551,7 +13521,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>5.4014513278807953E-3</v>
+        <v>8.2617742131492936E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -11563,7 +13533,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>3.1986759298847801E-3</v>
+        <v>7.5097057299589459E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -11594,8 +13564,8 @@
         <v>2030</v>
       </c>
       <c r="C46">
-        <f>[1]生徒用!$B$7/100</f>
-        <v>0.53</v>
+        <f>[1]GDP・人口・省エネ!$B$7/100</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -11608,8 +13578,8 @@
         <v>2050</v>
       </c>
       <c r="C47">
-        <f>[1]生徒用!$D$7/100</f>
-        <v>0.33</v>
+        <f>[1]GDP・人口・省エネ!$D$7/100</f>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -11770,7 +13740,7 @@
       </c>
       <c r="C13">
         <f>_xlfn.FORECAST.LINEAR(B13,$C$45:$C$46,$B$45:$B$46)*C12</f>
-        <v>13.940466593770328</v>
+        <v>14.466521936931548</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -11782,7 +13752,7 @@
       </c>
       <c r="C14">
         <f t="shared" ref="C14:C22" si="0">_xlfn.FORECAST.LINEAR(B14,$C$45:$C$46,$B$45:$B$46)*C13</f>
-        <v>12.657943667143277</v>
+        <v>14.177191498192922</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -11794,7 +13764,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>10.911147441077439</v>
+        <v>13.751875753247118</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -11806,7 +13776,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>8.9034963119190618</v>
+        <v>13.201800723117197</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -11818,7 +13788,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>6.8556921601776422</v>
+        <v>12.541710686961327</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -11830,7 +13800,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>4.9635211239685413</v>
+        <v>11.789208045743619</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -11842,7 +13812,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>3.3652673220505869</v>
+        <v>10.963963482541562</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -11854,7 +13824,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2.1268489475359398</v>
+        <v>10.086846403938218</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -11866,7 +13836,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>1.2463334832560273</v>
+        <v>9.1790302275837785</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -11878,7 +13848,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0.67302008095824484</v>
+        <v>8.261127204825387</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -11890,7 +13860,7 @@
       </c>
       <c r="C23">
         <f>_xlfn.FORECAST.LINEAR(B23,$C$46:$C$47,$B$46:$B$47)*C12</f>
-        <v>7.7447036632058586</v>
+        <v>13.078320336923005</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -11902,7 +13872,7 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:C42" si="1">_xlfn.FORECAST.LINEAR(B24,$C$46:$C$47,$B$46:$B$47)*C13</f>
-        <v>7.2490426287606144</v>
+        <v>12.875204523869085</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -11914,7 +13884,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>6.4555512702430908</v>
+        <v>12.546814475900733</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -11926,7 +13896,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>5.4555737205387587</v>
+        <v>12.101650662857475</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -11938,7 +13908,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>4.3627131928403582</v>
+        <v>11.551575632727547</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -11950,7 +13920,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>3.2907322368852956</v>
+        <v>10.911288297656368</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -11962,7 +13932,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>2.3328549282652262</v>
+        <v>10.197664959568232</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -11974,7 +13944,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>1.5480229681432849</v>
+        <v>9.4290085949857563</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -11986,7 +13956,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>0.9570820263911789</v>
+        <v>8.6242536753671803</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -11998,7 +13968,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>0.54838673263265358</v>
+        <v>7.8021756934462081</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -12010,7 +13980,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>0.28939863481204747</v>
+        <v>6.9806524880774576</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -12022,7 +13992,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>3.2527755385464738</v>
+        <v>10.985789083015321</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -12034,7 +14004,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>2.9721074777918788</v>
+        <v>10.750795777430698</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -12046,7 +14016,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>2.58222050809725</v>
+        <v>10.413856014997609</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -12058,7 +14028,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>2.1276737510101382</v>
+        <v>9.983861796857429</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -12070,7 +14040,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>1.6578310132793472</v>
+        <v>9.4722920188365922</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -12082,7 +14052,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>1.2175709276475744</v>
+        <v>8.892699962589953</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -12094,7 +14064,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>0.83982777417548837</v>
+        <v>8.2601086172502729</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -12106,7 +14076,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>0.54180803885015194</v>
+        <v>7.5903519189635311</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -12118,7 +14088,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>0.3254078889730041</v>
+        <v>6.8994029402937507</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -12149,8 +14119,8 @@
         <v>2030</v>
       </c>
       <c r="C46">
-        <f>[1]生徒用!$B$8/100</f>
-        <v>0.54</v>
+        <f>[1]GDP・人口・省エネ!$B$8/100</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -12163,8 +14133,8 @@
         <v>2050</v>
       </c>
       <c r="C47">
-        <f>[1]生徒用!$D$8/100</f>
-        <v>0.34</v>
+        <f>[1]GDP・人口・省エネ!$D$8/100</f>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -12179,7 +14149,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12490,23 +14460,23 @@
       </c>
       <c r="B13">
         <f>GDP!D13*iIND!C13/10^6</f>
-        <v>3.0533778061570742</v>
+        <v>3.1474844107616811</v>
       </c>
       <c r="C13">
         <f>POP!B13*iTRA!C13/10^6</f>
-        <v>2.4818297597225905</v>
+        <v>2.5808943929887906</v>
       </c>
       <c r="D13">
         <f>GDP!D13*COMFLOOR!B13*iCOM!C13/10^6</f>
-        <v>1.8431209575519354</v>
+        <v>1.9537547893616432</v>
       </c>
       <c r="E13">
         <f>POP!D13*iRES!C13/10^6</f>
-        <v>1.7358432512531103</v>
+        <v>1.8195421920892265</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>9.11417177468471</v>
+        <v>9.5016757852013409</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -12515,23 +14485,23 @@
       </c>
       <c r="B14">
         <f>GDP!D14*iIND!C14/10^6</f>
-        <v>2.9014105523658231</v>
+        <v>3.1167496167992246</v>
       </c>
       <c r="C14">
         <f>POP!B14*iTRA!C14/10^6</f>
-        <v>2.2364742784846596</v>
+        <v>2.5212725712354067</v>
       </c>
       <c r="D14">
         <f>GDP!D14*COMFLOOR!B14*iCOM!C14/10^6</f>
-        <v>1.6581401725873322</v>
+        <v>1.9408419930104297</v>
       </c>
       <c r="E14">
         <f>POP!D14*iRES!C14/10^6</f>
-        <v>1.5552876530591635</v>
+        <v>1.7775085387385849</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>8.3513126564969795</v>
+        <v>9.3563727197836464</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -12540,23 +14510,23 @@
       </c>
       <c r="B15">
         <f>GDP!D15*iIND!C15/10^6</f>
-        <v>2.6983974122594172</v>
+        <v>3.0548219346432335</v>
       </c>
       <c r="C15">
         <f>POP!B15*iTRA!C15/10^6</f>
-        <v>1.9083637649597103</v>
+        <v>2.4378951469347627</v>
       </c>
       <c r="D15">
         <f>GDP!D15*COMFLOOR!B15*iCOM!C15/10^6</f>
-        <v>1.4137868653241645</v>
+        <v>1.9084238323318659</v>
       </c>
       <c r="E15">
         <f>POP!D15*iRES!C15/10^6</f>
-        <v>1.3227785323952244</v>
+        <v>1.718727078406509</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>7.3433265749385157</v>
+        <v>9.1198679923163706</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -12565,23 +14535,23 @@
       </c>
       <c r="B16">
         <f>GDP!D16*iIND!C16/10^6</f>
-        <v>2.4550817846558366</v>
+        <v>2.9632574480717158</v>
       </c>
       <c r="C16">
         <f>POP!B16*iTRA!C16/10^6</f>
-        <v>1.5370783728368798</v>
+        <v>2.3329731751068263</v>
       </c>
       <c r="D16">
         <f>GDP!D16*COMFLOOR!B16*iCOM!C16/10^6</f>
-        <v>1.1390220804318565</v>
+        <v>1.8572837630333379</v>
       </c>
       <c r="E16">
         <f>POP!D16*iRES!C16/10^6</f>
-        <v>1.0648790548400897</v>
+        <v>1.6447566148583879</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>6.1960612927646626</v>
+        <v>8.7982710010702672</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -12590,23 +14560,23 @@
       </c>
       <c r="B17">
         <f>GDP!D17*iIND!C17/10^6</f>
-        <v>2.1841145243638533</v>
+        <v>2.8444954358380068</v>
       </c>
       <c r="C17">
         <f>POP!B17*iTRA!C17/10^6</f>
-        <v>1.1644828413954322</v>
+        <v>2.2093109237768247</v>
       </c>
       <c r="D17">
         <f>GDP!D17*COMFLOOR!B17*iCOM!C17/10^6</f>
-        <v>0.86417191394572934</v>
+        <v>1.7887669179883525</v>
       </c>
       <c r="E17">
         <f>POP!D17*iRES!C17/10^6</f>
-        <v>0.80884791765132558</v>
+        <v>1.5575741697049037</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>5.021617197356341</v>
+        <v>8.4001474473080879</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12615,23 +14585,23 @@
       </c>
       <c r="B18">
         <f>GDP!D18*iIND!C18/10^6</f>
-        <v>1.896594731922445</v>
+        <v>2.6984190425311234</v>
       </c>
       <c r="C18">
         <f>POP!B18*iTRA!C18/10^6</f>
-        <v>0.82579134089540573</v>
+        <v>2.0684352525193326</v>
       </c>
       <c r="D18">
         <f>GDP!D18*COMFLOOR!B18*iCOM!C18/10^6</f>
-        <v>0.61319139077588591</v>
+        <v>1.6994676508956645</v>
       </c>
       <c r="E18">
         <f>POP!D18*iRES!C18/10^6</f>
-        <v>0.57712106132988827</v>
+        <v>1.4582561858353436</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>3.9126985249236248</v>
+        <v>7.9245781317814643</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12640,23 +14610,23 @@
       </c>
       <c r="B19">
         <f>GDP!D19*iIND!C19/10^6</f>
-        <v>1.6086629829947348</v>
+        <v>2.5326118794963834</v>
       </c>
       <c r="C19">
         <f>POP!B19*iTRA!C19/10^6</f>
-        <v>0.54612950646631164</v>
+        <v>1.915940936689136</v>
       </c>
       <c r="D19">
         <f>GDP!D19*COMFLOOR!B19*iCOM!C19/10^6</f>
-        <v>0.40643355589572255</v>
+        <v>1.5975374938425813</v>
       </c>
       <c r="E19">
         <f>POP!D19*iRES!C19/10^6</f>
-        <v>0.38557507332515578</v>
+        <v>1.350747005118538</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>2.946801118681925</v>
+        <v>7.3968373151466382</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12665,23 +14635,23 @@
       </c>
       <c r="B20">
         <f>GDP!D20*iIND!C20/10^6</f>
-        <v>1.3319916040932571</v>
+        <v>2.3514338464005551</v>
       </c>
       <c r="C20">
         <f>POP!B20*iTRA!C20/10^6</f>
-        <v>0.33506849187177778</v>
+        <v>1.7556065057647379</v>
       </c>
       <c r="D20">
         <f>GDP!D20*COMFLOOR!B20*iCOM!C20/10^6</f>
-        <v>0.25040007700055156</v>
+        <v>1.4856563507457679</v>
       </c>
       <c r="E20">
         <f>POP!D20*iRES!C20/10^6</f>
-        <v>0.2400977798988855</v>
+        <v>1.2377105078856094</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>2.1575579528644719</v>
+        <v>6.83040721079667</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -12690,23 +14660,23 @@
       </c>
       <c r="B21">
         <f>GDP!D21*iIND!C21/10^6</f>
-        <v>1.0760345203573196</v>
+        <v>2.1594863118058978</v>
       </c>
       <c r="C21">
         <f>POP!B21*iTRA!C21/10^6</f>
-        <v>0.18955671072472527</v>
+        <v>1.5912038145764862</v>
       </c>
       <c r="D21">
         <f>GDP!D21*COMFLOOR!B21*iCOM!C21/10^6</f>
-        <v>0.14257681980171616</v>
+        <v>1.366670568815358</v>
       </c>
       <c r="E21">
         <f>POP!D21*iRES!C21/10^6</f>
-        <v>0.1386106380549138</v>
+        <v>1.1218058688106163</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>1.5467786889386748</v>
+        <v>6.2391665640083591</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -12715,23 +14685,23 @@
       </c>
       <c r="B22">
         <f>GDP!D22*iIND!C22/10^6</f>
-        <v>0.84755643177096918</v>
+        <v>1.9614139651191451</v>
       </c>
       <c r="C22">
         <f>POP!B22*iTRA!C22/10^6</f>
-        <v>9.8174736664947027E-2</v>
+        <v>1.4263481989429103</v>
       </c>
       <c r="D22">
         <f>GDP!D22*COMFLOOR!B22*iCOM!C22/10^6</f>
-        <v>7.4529801843770282E-2</v>
+        <v>1.2434702244255014</v>
       </c>
       <c r="E22">
         <f>POP!D22*iRES!C22/10^6</f>
-        <v>7.3730754307189547E-2</v>
+        <v>1.0055819159580677</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>1.093991724586876</v>
+        <v>5.6368143044456245</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -12740,23 +14710,23 @@
       </c>
       <c r="B23">
         <f>GDP!D23*iIND!C23/10^6</f>
-        <v>2.0989085975778754</v>
+        <v>3.1255975455289526</v>
       </c>
       <c r="C23">
         <f>POP!B23*iTRA!C23/10^6</f>
-        <v>1.2808147688787377</v>
+        <v>2.2477043493067854</v>
       </c>
       <c r="D23">
         <f>GDP!D23*COMFLOOR!B23*iCOM!C23/10^6</f>
-        <v>0.89127815402702126</v>
+        <v>1.9793894487697004</v>
       </c>
       <c r="E23">
         <f>POP!D23*iRES!C23/10^6</f>
-        <v>0.8070164139406526</v>
+        <v>1.5846417079352071</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>5.0780179344242864</v>
+        <v>8.9373330515406444</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -12765,23 +14735,23 @@
       </c>
       <c r="B24">
         <f>GDP!D24*iIND!C24/10^6</f>
-        <v>1.9403873328866512</v>
+        <v>3.0973219906454657</v>
       </c>
       <c r="C24">
         <f>POP!B24*iTRA!C24/10^6</f>
-        <v>1.1899372776201937</v>
+        <v>2.20263389771246</v>
       </c>
       <c r="D24">
         <f>GDP!D24*COMFLOOR!B24*iCOM!C24/10^6</f>
-        <v>0.81066434132687182</v>
+        <v>1.9594849457663337</v>
       </c>
       <c r="E24">
         <f>POP!D24*iRES!C24/10^6</f>
-        <v>0.71692641889095332</v>
+        <v>1.5528668362026903</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>4.6579153707246697</v>
+        <v>8.8123076703269501</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -12790,23 +14760,23 @@
       </c>
       <c r="B25">
         <f>GDP!D25*iIND!C25/10^6</f>
-        <v>1.753408960294879</v>
+        <v>3.0382032824721907</v>
       </c>
       <c r="C25">
         <f>POP!B25*iTRA!C25/10^6</f>
-        <v>1.0493480091844212</v>
+        <v>2.1365970528902887</v>
       </c>
       <c r="D25">
         <f>GDP!D25*COMFLOOR!B25*iCOM!C25/10^6</f>
-        <v>0.69997084151098055</v>
+        <v>1.9202394196859018</v>
       </c>
       <c r="E25">
         <f>POP!D25*iRES!C25/10^6</f>
-        <v>0.60451764598036717</v>
+        <v>1.5063105626438786</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>4.1072454569706478</v>
+        <v>8.6013503176922601</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -12815,23 +14785,23 @@
       </c>
       <c r="B26">
         <f>GDP!D26*iIND!C26/10^6</f>
-        <v>1.5478316932421841</v>
+        <v>2.949708483292993</v>
       </c>
       <c r="C26">
         <f>POP!B26*iTRA!C26/10^6</f>
-        <v>0.87586955701791314</v>
+        <v>2.0513262022065524</v>
       </c>
       <c r="D26">
         <f>GDP!D26*COMFLOOR!B26*iCOM!C26/10^6</f>
-        <v>0.57216226085320254</v>
+        <v>1.8626296133413445</v>
       </c>
       <c r="E26">
         <f>POP!D26*iRES!C26/10^6</f>
-        <v>0.48245205467325653</v>
+        <v>1.446194228168556</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>3.4783155657865565</v>
+        <v>8.309858527009446</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -12840,23 +14810,23 @@
       </c>
       <c r="B27">
         <f>GDP!D27*iIND!C27/10^6</f>
-        <v>1.3339532683450079</v>
+        <v>2.8341761822707925</v>
       </c>
       <c r="C27">
         <f>POP!B27*iTRA!C27/10^6</f>
-        <v>0.68977647677161813</v>
+        <v>1.9490918613676655</v>
       </c>
       <c r="D27">
         <f>GDP!D27*COMFLOOR!B27*iCOM!C27/10^6</f>
-        <v>0.44137961054037367</v>
+        <v>1.7881718597204839</v>
       </c>
       <c r="E27">
         <f>POP!D27*iRES!C27/10^6</f>
-        <v>0.3632768154049465</v>
+        <v>1.3741185565943439</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>2.8283861710619465</v>
+        <v>7.9455584599532854</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -12865,23 +14835,23 @@
       </c>
       <c r="B28">
         <f>GDP!D28*iIND!C28/10^6</f>
-        <v>1.1199286642097732</v>
+        <v>2.6906389133348396</v>
       </c>
       <c r="C28">
         <f>POP!B28*iTRA!C28/10^6</f>
-        <v>0.51050791419028252</v>
+        <v>1.8318404570737876</v>
       </c>
       <c r="D28">
         <f>GDP!D28*COMFLOOR!B28*iCOM!C28/10^6</f>
-        <v>0.31897934681639711</v>
+        <v>1.6922585568709072</v>
       </c>
       <c r="E28">
         <f>POP!D28*iRES!C28/10^6</f>
-        <v>0.25706324959544857</v>
+        <v>1.2914557875271599</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>2.2064791748119017</v>
+        <v>7.5061937148066944</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -12890,23 +14860,23 @@
       </c>
       <c r="B29">
         <f>GDP!D29*iIND!C29/10^6</f>
-        <v>0.91669648059966879</v>
+        <v>2.5273995121054504</v>
       </c>
       <c r="C29">
         <f>POP!B29*iTRA!C29/10^6</f>
-        <v>0.35379988576450833</v>
+        <v>1.703463719214356</v>
       </c>
       <c r="D29">
         <f>GDP!D29*COMFLOOR!B29*iCOM!C29/10^6</f>
-        <v>0.21595740457444548</v>
+        <v>1.5846957147112339</v>
       </c>
       <c r="E29">
         <f>POP!D29*iRES!C29/10^6</f>
-        <v>0.17033483235962096</v>
+        <v>1.2009496080985973</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>1.6567886032982435</v>
+        <v>7.0165085541296381</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -12915,23 +14885,23 @@
       </c>
       <c r="B30">
         <f>GDP!D30*iIND!C30/10^6</f>
-        <v>0.73100555103526288</v>
+        <v>2.3487292679295284</v>
       </c>
       <c r="C30">
         <f>POP!B30*iTRA!C30/10^6</f>
-        <v>0.22855275668061389</v>
+        <v>1.5671793989178617</v>
       </c>
       <c r="D30">
         <f>GDP!D30*COMFLOOR!B30*iCOM!C30/10^6</f>
-        <v>0.13636504678310601</v>
+        <v>1.4682422156969273</v>
       </c>
       <c r="E30">
         <f>POP!D30*iRES!C30/10^6</f>
-        <v>0.10520829259108128</v>
+        <v>1.1048685473727817</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>1.2011316470900641</v>
+        <v>6.4890194299170991</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -12940,23 +14910,23 @@
       </c>
       <c r="B31">
         <f>GDP!D31*iIND!C31/10^6</f>
-        <v>0.56744898941973232</v>
+        <v>2.1591470461719893</v>
       </c>
       <c r="C31">
         <f>POP!B31*iTRA!C31/10^6</f>
-        <v>0.13690001275536959</v>
+        <v>1.426246981762946</v>
       </c>
       <c r="D31">
         <f>GDP!D31*COMFLOOR!B31*iCOM!C31/10^6</f>
-        <v>7.9903040348617962E-2</v>
+        <v>1.3457738650446027</v>
       </c>
       <c r="E31">
         <f>POP!D31*iRES!C31/10^6</f>
-        <v>6.0257073104111408E-2</v>
+        <v>1.0055105573894996</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>0.84450911562783126</v>
+        <v>5.9366784503690369</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -12965,23 +14935,23 @@
       </c>
       <c r="B32">
         <f>GDP!D32*iIND!C32/10^6</f>
-        <v>0.42841911220773254</v>
+        <v>1.9632255332527817</v>
       </c>
       <c r="C32">
         <f>POP!B32*iTRA!C32/10^6</f>
-        <v>7.5570656070653192E-2</v>
+        <v>1.2838357799983027</v>
       </c>
       <c r="D32">
         <f>GDP!D32*COMFLOOR!B32*iCOM!C32/10^6</f>
-        <v>4.3191796234398554E-2</v>
+        <v>1.2201629038176878</v>
       </c>
       <c r="E32">
         <f>POP!D32*iRES!C32/10^6</f>
-        <v>3.1808456045980843E-2</v>
+        <v>0.90511001758406251</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>0.57899002055876503</v>
+        <v>5.3723342346528344</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -12990,23 +14960,23 @@
       </c>
       <c r="B33">
         <f>GDP!D33*iIND!C33/10^6</f>
-        <v>0.31439429163183924</v>
+        <v>1.7659454966562182</v>
       </c>
       <c r="C33">
         <f>POP!B33*iTRA!C33/10^6</f>
-        <v>3.8155225360104163E-2</v>
+        <v>1.1424907387531544</v>
       </c>
       <c r="D33">
         <f>GDP!D33*COMFLOOR!B33*iCOM!C33/10^6</f>
-        <v>2.1451055804166355E-2</v>
+        <v>1.0972161681648631</v>
       </c>
       <c r="E33">
         <f>POP!D33*iRES!C33/10^6</f>
-        <v>1.5360412406937529E-2</v>
+        <v>0.80546112575540096</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>0.38936098520304729</v>
+        <v>4.8111135293296368</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -13015,23 +14985,23 @@
       </c>
       <c r="B34">
         <f>GDP!D34*iIND!C34/10^6</f>
-        <v>0.7291877178570384</v>
+        <v>2.7940832576964447</v>
       </c>
       <c r="C34">
         <f>POP!B34*iTRA!C34/10^6</f>
-        <v>0.48526469201897376</v>
+        <v>1.7883431149993105</v>
       </c>
       <c r="D34">
         <f>GDP!D34*COMFLOOR!B34*iCOM!C34/10^6</f>
-        <v>0.24609044128557975</v>
+        <v>1.7355609170591049</v>
       </c>
       <c r="E34">
         <f>POP!D34*iRES!C34/10^6</f>
-        <v>0.15678874091182193</v>
+        <v>1.2607899651040289</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>1.6173315920734139</v>
+        <v>7.5787772548588883</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -13040,23 +15010,23 @@
       </c>
       <c r="B35">
         <f>GDP!D35*iIND!C35/10^6</f>
-        <v>0.62895524705524375</v>
+        <v>2.7490048592314422</v>
       </c>
       <c r="C35">
         <f>POP!B35*iTRA!C35/10^6</f>
-        <v>0.43922090846593376</v>
+        <v>1.7406967676426646</v>
       </c>
       <c r="D35">
         <f>GDP!D35*COMFLOOR!B35*iCOM!C35/10^6</f>
-        <v>0.21428173902585679</v>
+        <v>1.707183329743506</v>
       </c>
       <c r="E35">
         <f>POP!D35*iRES!C35/10^6</f>
-        <v>0.12892065824975241</v>
+        <v>1.227199075236598</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>1.4113785527967866</v>
+        <v>7.4240840318542105</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -13065,23 +15035,23 @@
       </c>
       <c r="B36">
         <f>GDP!D36*iIND!C36/10^6</f>
-        <v>0.52802232023998841</v>
+        <v>2.6771535015804888</v>
       </c>
       <c r="C36">
         <f>POP!B36*iTRA!C36/10^6</f>
-        <v>0.37710250915915322</v>
+        <v>1.6770924351512155</v>
       </c>
       <c r="D36">
         <f>GDP!D36*COMFLOOR!B36*iCOM!C36/10^6</f>
-        <v>0.17672026499029123</v>
+        <v>1.6622669265902399</v>
       </c>
       <c r="E36">
         <f>POP!D36*iRES!C36/10^6</f>
-        <v>9.9680353800609647E-2</v>
+        <v>1.1823577338464757</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>1.1815254481900426</v>
+        <v>7.1988705971684199</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -13090,23 +15060,23 @@
       </c>
       <c r="B37">
         <f>GDP!D37*iIND!C37/10^6</f>
-        <v>0.43097766654457909</v>
+        <v>2.5804002443848222</v>
       </c>
       <c r="C37">
         <f>POP!B37*iTRA!C37/10^6</f>
-        <v>0.30623822020123309</v>
+        <v>1.599215212487936</v>
       </c>
       <c r="D37">
         <f>GDP!D37*COMFLOOR!B37*iCOM!C37/10^6</f>
-        <v>0.13761618911179979</v>
+        <v>1.6019770259274266</v>
       </c>
       <c r="E37">
         <f>POP!D37*iRES!C37/10^6</f>
-        <v>7.2081951957696358E-2</v>
+        <v>1.1274539404857296</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>0.94691402781530842</v>
+        <v>6.9090464232859148</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -13115,23 +15085,23 @@
       </c>
       <c r="B38">
         <f>GDP!D38*iIND!C38/10^6</f>
-        <v>0.34147245377023172</v>
+        <v>2.4605906800604305</v>
       </c>
       <c r="C38">
         <f>POP!B38*iTRA!C38/10^6</f>
-        <v>0.23441439408412981</v>
+        <v>1.508757895282598</v>
       </c>
       <c r="D38">
         <f>GDP!D38*COMFLOOR!B38*iCOM!C38/10^6</f>
-        <v>0.10075019165196659</v>
+        <v>1.5265069284361594</v>
       </c>
       <c r="E38">
         <f>POP!D38*iRES!C38/10^6</f>
-        <v>4.8402743857731703E-2</v>
+        <v>1.0636811237112673</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>0.72503978336405983</v>
+        <v>6.5595366274904556</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -13140,23 +15110,23 @@
       </c>
       <c r="B39">
         <f>GDP!D39*iIND!C39/10^6</f>
-        <v>0.262345929826237</v>
+        <v>2.3217407210838035</v>
       </c>
       <c r="C39">
         <f>POP!B39*iTRA!C39/10^6</f>
-        <v>0.16856969889170775</v>
+        <v>1.4084915396823117</v>
       </c>
       <c r="D39">
         <f>GDP!D39*COMFLOOR!B39*iCOM!C39/10^6</f>
-        <v>6.9142093033305138E-2</v>
+        <v>1.4394078717831946</v>
       </c>
       <c r="E39">
         <f>POP!D39*iRES!C39/10^6</f>
-        <v>2.9910897883858079E-2</v>
+        <v>0.99299289060984597</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>0.52996861963510788</v>
+        <v>6.162633023159156</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -13165,23 +15135,23 @@
       </c>
       <c r="B40">
         <f>GDP!D40*iIND!C40/10^6</f>
-        <v>0.19512402371793661</v>
+        <v>2.1675125450071109</v>
       </c>
       <c r="C40">
         <f>POP!B40*iTRA!C40/10^6</f>
-        <v>0.11341779118910715</v>
+        <v>1.3009556360897025</v>
       </c>
       <c r="D40">
         <f>GDP!D40*COMFLOOR!B40*iCOM!C40/10^6</f>
-        <v>4.4284984128799942E-2</v>
+        <v>1.3429604564498687</v>
       </c>
       <c r="E40">
         <f>POP!D40*iRES!C40/10^6</f>
-        <v>1.6785387188060222E-2</v>
+        <v>0.91717959337353328</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>0.3696121862239039</v>
+        <v>5.7286082309202158</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -13190,23 +15160,23 @@
       </c>
       <c r="B41">
         <f>GDP!D41*iIND!C41/10^6</f>
-        <v>0.14023409745534837</v>
+        <v>2.00185932854132</v>
       </c>
       <c r="C41">
         <f>POP!B41*iTRA!C41/10^6</f>
-        <v>7.1069060733540468E-2</v>
+        <v>1.1887615961383942</v>
       </c>
       <c r="D41">
         <f>GDP!D41*COMFLOOR!B41*iCOM!C41/10^6</f>
-        <v>2.6339526399086068E-2</v>
+        <v>1.2396168065610778</v>
       </c>
       <c r="E41">
         <f>POP!D41*iRES!C41/10^6</f>
-        <v>8.3752587065048425E-3</v>
+        <v>0.83808228898676018</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>0.24601794329447976</v>
+        <v>5.2683200202275522</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -13215,23 +15185,23 @@
       </c>
       <c r="B42">
         <f>GDP!D42*iIND!C42/10^6</f>
-        <v>9.7173682154640506E-2</v>
+        <v>1.828853577668063</v>
       </c>
       <c r="C42">
         <f>POP!B42*iTRA!C42/10^6</f>
-        <v>4.1254300823735747E-2</v>
+        <v>1.0744853278380218</v>
       </c>
       <c r="D42">
         <f>GDP!D42*COMFLOOR!B42*iCOM!C42/10^6</f>
-        <v>1.4463543095963651E-2</v>
+        <v>1.1318949344891374</v>
       </c>
       <c r="E42">
         <f>POP!D42*iRES!C42/10^6</f>
-        <v>3.5728020429770294E-3</v>
+        <v>0.7575170042188536</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>0.15646432811731692</v>
+        <v>4.7927508442140763</v>
       </c>
     </row>
   </sheetData>
@@ -13244,7 +15214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1F29B7-2FE8-489B-9393-64B0A796B35E}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
